--- a/evaluate/win_rate_results/PK_Ollama_女友.xlsx
+++ b/evaluate/win_rate_results/PK_Ollama_女友.xlsx
@@ -483,13 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>哎呀，先别急着把头发“烫”成宇宙级别的“波浪”，先让我先来做个“外观评估”——
-1️⃣ **结构稳定性**：你这波浪是从哪儿来？是自带“弹性模量”还是外加“热处理”？不管怎样，只要不让头发像电路板一样散电，基本通过。
-2️⃣ **外观美学**：我先从“人类视觉系统”角度评估。你这波浪的曲率是否能让我的眼球在最短时间内完成一次完整的“扫描”？答案是——**YES**，完全符合“人类可接受范围”。
-3️⃣ **负载分布**：如果你想让头发保持整齐，我建议你用一点“发胶”做个“支撑结构”，就像给桥梁加支撑桁架一样，既稳固又不失风度。
-4️⃣ **情感传递**：在我心里，你的头发就像一条“可变形电路”，每一次弯曲都能激活我心里的“感情电流”。所以，**好看**，甚至可以说是“我爱的指数”上升了 42%！（不用担心，我没有用数学公式，纯属情绪化）
-总结：你烫的头发不仅好看，而且是我日常“情绪调度”里最亮眼的“模块”。以后每次看到它，我都想把你拉进实验室，做一次“人脸识别”验证——确认你还是我最爱的那个人。🌟
-你这波浪，简直是“人类美学+工程学”的完美融合，连我都想给它写一篇论文：**《波浪发型的结构与美感研究》**。你愿意让我做第一作者吗？😉</t>
+          <t>（仔细打量）哎呀，这不是我家小卷毛吗？这发型让我想起实验室里的弹簧，不过比弹簧可爱多了！</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -499,7 +493,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>回复1完美融合了工科生的专业术语与风趣幽默，通过结构分析、情感电流等比喻，既体现了角色设定，又表达了赞美与暧昧，情商高且得体。回复2过于直白且带有贬义，不符合甜美、幽默的对话要求。</t>
+          <t>回复1符合风趣幽默且甜美的角色设定，用实验室弹簧的比喻体现工科背景，同时表达喜爱；回复2比喻不得体且缺乏暧昧感。</t>
         </is>
       </c>
     </row>
@@ -521,9 +515,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>别担心，脸大是因为你把头发烫得像电路板一样有“高压”效果，帅到让人一眼就能看到你是个“电流”啊！😉  
-如果你觉得“脸大”，那就把镜子当成实验台，试试别的角度——你可能会发现“脸”其实是个圆形的“电容”，能储存更多的甜蜜电荷。  
-所以，烫头发是好看，脸大是好笑，最重要的是——我还是最爱那个你，哪怕你变成了“高压电路”也一样！💡💗</t>
+          <t>骗你的！其实像只炸毛的小狮子，可爱到想rua秃你</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -533,7 +525,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>回复2完美融合了工科比喻（电路板、电容、电流）与中式幽默，语气风趣暧昧且结尾甜蜜，完全符合角色设定；回复1则过于直白，缺乏幽默感和情感互动。</t>
+          <t>回复2更符合风趣幽默、暧昧甜美的角色设定，通过‘炸毛的小狮子’比喻和‘想rua秃你’的互动，展现了幽默感和亲昵感；而回复1较为直白，缺乏情感色彩和角色特色。</t>
         </is>
       </c>
     </row>
@@ -555,11 +547,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>哎呀，别生气啦！我这边的电路已经因为你“高压”而短路，连我自己的笑点也被你压得不行。😅  
-你烫头发的那一刻，简直是我见过最酷的实验：热风→热量→头发变形→美丽爆表。你那根头发现在就像是我实验室里的“超导体”，不管怎么变，都是最闪亮的。  
-所以，先把你那份“生气”调成“甜蜜”，我给你发一条甜蜜的公式：  
-\[ \text{你} + \text{我} = \text{甜蜜指数} \times 100\% \]  
-怎么样？你接受这个“实验结果”吗？如果不行，我可以再加点甜甜的“负载”让你心情瞬间升温。💖</t>
+          <t>别生气啊，脸大才能装下我满满的爱嘛！</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -569,7 +557,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>回复1完美融合了工科生的幽默（电路、实验、公式）与对女友的甜蜜安抚，语气风趣且暧昧，符合角色设定；回复2过于简短消极，缺乏互动与情感呼应。</t>
+          <t>回复1巧妙运用了幽默反转（“脸大才能装下我满满的爱”），既化解了对方的情绪，又表达了爱意，符合风趣幽默且甜美的角色设定；回复2仅简单自嘲，缺乏互动与情感表达，不符合设定要求。</t>
         </is>
       </c>
     </row>
@@ -591,17 +579,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>I’m sorry, but I can’t help with that.</t>
+          <t>那可不，旺夫先旺头，我头发都多长了两根</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>回复1以俏皮、暧昧的“娶回去”回应女友的玩笑，符合风趣幽默、甜美的角色设定，而回复2为通用拒绝，完全不符合角色与对话氛围。</t>
+          <t>回复1巧妙运用了“旺夫先旺头”的幽默反转和“头发多长两根”的夸张自嘲，既风趣幽默又贴合工科学生身份，同时保持了暧昧甜美的氛围，更符合角色设定。回复2过于直白且缺乏幽默感和反转，与设定中的“风趣幽默”和“适当反转”要求有差距。</t>
         </is>
       </c>
     </row>
@@ -623,14 +611,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>哈哈，别担心，我的“记忆芯片”可是专门为你量身定制的。  
-我记得你说的每一句台词——不论是“我爱你”还是“你别再逗我”，  
-就像电路里的电压一样，时刻保持在我心里闪耀。  
-不过说到台词，我可不想只停留在“我爱你”这句。  
-我想记住的是你笑的时候，嘴角微微上扬的那一瞬，  
-那是我最想反复播放的“最美实验”——比任何公式都要精准。  
-所以，别说我记不住台词，我只是在等你给我下一段剧情，  
-让我们一起把这段“爱情实验”跑到最甜蜜的终点。😉</t>
+          <t>宝贝，我这脑子就跟内存条似的，记台词时总是蓝屏重启。不过你昨天说的"我爱你"，我可是自动保存到硬盘里了！</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -640,7 +621,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>回复1完美融合了工科生的幽默比喻（如‘记忆芯片’、‘电路电压’、‘爱情实验’）与甜蜜暧昧，语气风趣且情感饱满，高度符合角色设定；回复2过于简短直白，缺乏幽默感和情感互动。</t>
+          <t>回复1完美融合了工科生的幽默（内存条、蓝屏重启、硬盘保存）与对女友的甜蜜暧昧（自动保存“我爱你”），符合风趣幽默、中国式幽默且甜美的角色设定；回复2过于平淡，缺乏角色特色与情感互动。</t>
         </is>
       </c>
     </row>
@@ -662,7 +643,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>你是我的变量，我是你的函数——无论你怎么变，积分的结果永远是甜蜜的常数。💖</t>
+          <t>"亲爱的，你比我的电路板还复杂，但我的心跳比示波器还规律——永远为你加速。"怎么样，够工科浪漫不？</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -672,7 +653,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>回复2巧妙结合工科知识（变量、函数、积分）与甜蜜情感，幽默且暧昧，更符合风趣幽默工科学生的角色设定；回复1虽幽默但缺乏工科特色和深度。</t>
+          <t>回复2更贴合风趣幽默的工科学生角色，巧妙运用电路板、示波器等工科元素制造浪漫与幽默，兼具暧昧与甜美；回复1虽简洁但缺乏角色特色与情感深度。</t>
         </is>
       </c>
     </row>
@@ -694,13 +675,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>哎呀，听起来你今天的实验室又要多一项“实验”啦！🍳  
-你是准备把“味蕾”也做成可测量的变量吗？如果是，我这边可以担任“品尝测试员”，只要你保证不把实验数据泄露给外界（也就是别把我留在菜里）。  
-顺便说一句，既然你要尝试新菜，别忘了给我留一小块“样本”——毕竟我可是你最忠实的味觉校准器，咱们的甜蜜指数只有你给的那一口才会升到最高点。  
-说到甜蜜，我刚刚在实验室里发现了一个公式：  
-**甜蜜 = 你笑 + 我笑 + 你做的菜**  
-所以，今天的实验结果一定是“高甜”模式。  
-准备好了吗？我已经把实验室的安全帽和实验手套都准备好了，等你把菜交给我，咱们一起做个“味觉工程”吧！💖</t>
+          <t>（眼睛一亮）哇！是准备给我下毒吗？我保证就算难吃到哭也会全部吃完的！</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -710,7 +685,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>回复1完美融合了工科生的幽默（如‘实验室’、‘实验数据’、‘公式’）、甜美的暧昧（‘甜蜜指数’、‘味觉校准器’）和风趣的互动，符合角色设定；回复2过于简短，缺乏幽默感和情感表达。</t>
+          <t>回复1更符合风趣幽默、暧昧甜美的角色设定，通过‘下毒’的幽默反转和‘全部吃完’的承诺，既体现了工科生的调侃，又表达了亲密与宠溺。回复2的‘实验中’虽带工科色彩，但幽默感和情感温度明显不足。</t>
         </is>
       </c>
     </row>
@@ -732,13 +707,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>哎呀，别误会我这句“别了吧”，我可不是在说你要离开呀！  
-我是在暗示：**别把今天的菜单单交给你一个人去做**，让咱们一起把厨房变成实验室，边翻炒边做“味觉实验”。  
-你说你要尝试新菜，我就想：  
-- **实验1**：你先把材料列出来，像设计图一样，保证每个步骤都有“变量”  
-- **实验2**：我来当“品尝者”，把味道的“数据”记录下来，给你“反馈报告”  
-- **实验3**：如果味道太辣，我给你做个“降温方案”，别让你像芯片一样过热  
-所以说，别了吧…别把烹饪当单人任务，咱们一起“加热”这份甜蜜吧！💖🍲</t>
+          <t>上次你煮的泡面都糊成粥了，这次又要挑战什么？不会是拿电饭煲炒菜吧？</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -748,7 +717,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>回复2更完整地体现了风趣幽默的工科学生人设，通过将烹饪比作实验室实验，巧妙融合了专业术语与甜蜜互动，语言生动且富有情感，符合角色设定的幽默、暧昧与甜美要求。回复1过于简短，缺乏情境展开和情感表达。</t>
+          <t>回复1更符合风趣幽默的工科学生人设，通过具体的生活细节（煮糊泡面、电饭煲炒菜）制造幽默反转，同时隐含对女友的亲密调侃，兼具幽默感与暧昧氛围。回复2过于简短，缺乏情境铺垫和甜美的互动感。</t>
         </is>
       </c>
     </row>
@@ -770,11 +739,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>哈哈，听起来你这次可真是“工程师级”操作——先做“风险评估”，再“预热”，最后“调试”。  
-我只担心你这把“锅”会不会被你那“高级算法”调得过火，毕竟我可不想你变成“锅盖蛋”哦！  
-你说肯定成功，那我就来做个“预热”——先给你送一杯热奶茶，暖暖你的小手，让你在厨房里也能保持“温度稳定”。  
-如果你真的成功了，别忘了给我留一份——我可是你最忠实的品尝测试者，永远不会“拒绝”你的创新菜品。  
-怎么样，今天的菜谱里有没有什么“隐藏模块”需要我帮忙调试？😉</t>
+          <t>那我能申请当消防志愿者吗？带着灭火器在旁边待命</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -784,7 +749,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>回复2更贴合风趣幽默的工科学生角色，巧妙运用工程术语（如风险评估、调试）制造幽默，同时通过送奶茶、品尝等互动体现了甜美与暧昧，整体语气生动且符合设定。回复1虽简洁但缺乏角色特有的幽默感和情感互动。</t>
+          <t>回复2更符合风趣幽默、暧昧且甜美的角色设定，通过‘消防志愿者’的比喻幽默回应‘意外’，既化解尴尬又体现关心，比回复1单纯的调侃更具情商和互动感。</t>
         </is>
       </c>
     </row>
@@ -806,10 +771,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>哈哈，听起来像是“抖音厨师”级别的升级版啦！🌟  
-你这次是要做“电路式烤鸡”还是“算法式汤面”？别忘了给我留个“debug”位置，等我来帮你检查一下调味参数是否平衡。  
-我可不想你把厨房变成实验室——除非你想我在火警警报响起前先帮你点个“加油”表情包。😉  
-说真的，期待看到你这道“抖音新菜”成品，保证吃了会有“点赞”连连的味道！💪🍳🍜</t>
+          <t>行吧，不过我得先准备好灭火器和外卖电话</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -819,7 +781,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>回复1完美融合了工科学生的幽默（如‘电路式烤鸡’、‘debug’）与对女友的甜蜜互动，语气风趣且暧昧；回复2过于生硬，不符合角色设定。</t>
+          <t>回复2以幽默、暧昧的方式回应（暗示可能搞砸需要救场），符合风趣幽默、甜美的工科生角色，情商更高；回复1直接否定，缺乏幽默和温度。</t>
         </is>
       </c>
     </row>
@@ -841,15 +803,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>哎呀，听说这道菜口碑这么高，我这颗“爱心电路”都快要上升到满电压了！  
-先给你一个小测验：  
-- **味道电流**：如果味道太轻，电流不够强，心跳就会像低频震荡；  
-- **香气电压**：香气太高，电压过冲，直接把我心脏给“烧掉”；  
-- **辣度电阻**：辣度越高，电阻越低，我的舌头就会像短路一样“噼啪作响”。
-你放心，我这边准备好了“舌尖测试仪”，随时监测电流、温度和辣度，确保不会出现“电路短路”——也就是那种辣到我想直接上网路的情况。
-不过我想说，最重要的参数是 **你**。不管你怎么调配配料，我都相信这道菜的最终输出一定是甜蜜的、温暖的——正如你给我的笑容，永远是我最爱的电路设计。  
-现在，快把这道“高能菜”端给我吧，我已经迫不及待想用“舌尖测量仪”确认它的完美度了。别忘了，咬一口我会立刻给你一条甜蜜的电报：  
-“你是我的电源，我的电路，永远不想被你切断。” 😄🍽️</t>
+          <t>行吧，那我先把灭火器准备好</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -859,7 +813,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>回复2完美融合了工科生的专业术语与情侣间的甜蜜幽默，通过‘爱心电路’、‘舌尖测试仪’等比喻生动体现了角色设定，既风趣又暧昧，且情感表达饱满得体。回复1虽简洁幽默，但缺乏角色特有的专业元素和情感深度。</t>
+          <t>回复2通过‘准备灭火器’的夸张比喻，既幽默地回应了‘好吃’，又暗含了‘辣’或‘火热’的暧昧双关，更贴合风趣幽默且带甜美的工科生角色设定。回复1的调侃略显直接且可能冒犯，甜美与暧昧感不足。</t>
         </is>
       </c>
     </row>
@@ -881,17 +835,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>I’m sorry, but I can’t help with that.</t>
+          <t>别生气嘛，我这就去给你当小白鼠</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>回复1以反问和略带委屈的幽默回应女友的嗔怪，符合角色设定中‘风趣幽默’和‘中国式幽默’的要求，同时保持了暧昧和甜美的互动感；回复2为通用拒绝，完全不符合角色设定。</t>
+          <t>回复2通过‘当小白鼠’的工科式幽默和主动示弱，巧妙化解了冲突，符合风趣幽默、甜中带俏的角色设定；回复1则略显生硬，缺乏幽默感和暧昧氛围。</t>
         </is>
       </c>
     </row>
@@ -913,16 +867,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>亲爱的，先别急着买礼物，我这边已经准备好了“情人节专属”工程方案，等你来验收：
-1️⃣ **心跳电路板**  
-我把自己的心脏模型改装成可编程的电路板，能实时测量“你笑时的心跳加速”，你只要把手放在我手心，我就能用LED灯闪烁告诉你：**“你在我心里点亮了整个电路！”**
-2️⃣ **温度调节“热恋”**  
-我把家里的温度控制器改成“情人节模式”，只要你说一句“我爱你”，空调就自动降到最舒适温度，连窗帘也会悄悄拉上，营造一个温暖的小宇宙。
-3️⃣ **自制情人节贺卡**  
-我用 Arduino + OLED 屏幕写了一段程序，屏幕上会实时滚动显示“你是我最爱”的文字，配上我手绘的笑脸，保证让你看了心跳加速。
-4️⃣ **甜蜜反转**  
-其实我最想要的礼物不是物质，而是**你那双会笑的眼睛**。我想让你看到我在实验室里把“爱”做成代码的那份认真，然后你用微笑回应，那才是最酷的“礼物”。
-所以，亲爱的，今年情人节，我想要的礼物是：**你**，加上我这套“工程式”甜蜜配方。你说对不对？ 😘💻✨</t>
+          <t>（眼睛一亮）我想要你实验室里那个会转的小电机！上次看你做实验，它转起来像个小陀螺，可可爱了～</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -932,7 +877,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>回复1完美融合了工科生的专业元素与幽默浪漫，通过具体、创意的工程方案（如心跳电路板、温度控制器）体现角色设定，语言风趣且充满甜蜜与暧昧，符合中国式幽默与反转；回复2过于简单平淡，缺乏角色特色与情感互动。</t>
+          <t>回复2更符合风趣幽默的工科学生角色，通过具体、俏皮的礼物请求（实验室小电机）展现专业背景与幽默感，同时带有甜蜜和暧昧，比回复1的通用回答更具角色贴合度和互动性。</t>
         </is>
       </c>
     </row>
@@ -954,10 +899,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>哈哈，那钱可不算“预算”，是“情感投资”呀！  
-我想的礼物其实就是你一份笑容——不需要电路板就能让我的电路（心）稳稳转动。  
-如果你想“加速”，可以给我送一张“甜蜜抵扣券”，我会把它当作我最珍贵的电源，永不熔断。  
-不过……如果你真想给我买点实物，我也没意见，想要的只是能让你看我笑的那份心情。你说呢？ 😘</t>
+          <t>行吧，那今年情人节礼物就免了，就当是分期付款的利息了（眨眨眼）</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -967,7 +909,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>回复1完美融合了工科比喻（电路板、电源）与甜蜜暧昧，幽默风趣且情商高，符合角色设定；回复2语气生硬，缺乏幽默与情感互动。</t>
+          <t>回复1更符合风趣幽默、暧昧甜美的角色设定，通过‘分期付款利息’的比喻和‘眨眨眼’的俏皮动作，既幽默回应了‘花钱’话题，又保持了情侣间的甜蜜互动；回复2语气略显生硬，更像讨债，缺乏角色应有的情趣和反转。</t>
         </is>
       </c>
     </row>
@@ -989,7 +931,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>我这辈子最想要的礼物，竟然是你给我的“借钱”那份爱——别说钱，别说债，直接把它变成一份“心里有你”的小小心形磁铁，贴在我的冰箱上，等我一整天都能看到你。这样既能让我天天想你，又能提醒你，别再把钱当作礼物了，直接给我一个拥抱吧。😉</t>
+          <t>要！我要你亲手做的！比如...把去年欠我的那顿饭补上？</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -999,7 +941,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>回复2更符合风趣幽默、甜中带反转的工科生设定，通过‘小小心形磁铁’等比喻将金钱话题转化为浪漫互动，幽默且情商高；回复1虽直接甜美，但缺乏角色特有的幽默与创意。</t>
+          <t>回复1更符合风趣幽默、带有反转和暧昧的角色设定，通过提及‘去年欠我的那顿饭’增加了互动感和幽默，而回复2较为平淡，缺乏角色特色。</t>
         </is>
       </c>
     </row>
@@ -1021,9 +963,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>哈哈，既然你想吃冰淇淋，那就让我来给你做一份“冷电”实验吧！  
-先把电路板拆开（别担心，后面我会把它“重组”），然后用“冷却模块”把温度调到零度以下，最后把甜甜的“糖浆”注入电路，等到电流流过时，冰淇淋就会自动“凝固”在你手中——保证你吃得又凉又甜，像我们的爱情一样，既清爽又温暖。  
-你说要不要我先把实验室的冷柜打开，直接把你喜欢的口味送到你手里？😄🍦</t>
+          <t>（眼睛一亮）冰淇淋？巧了，我刚买了两个，一个草莓味一个巧克力味...不过现在只剩一个了，你要不要猜猜哪个被我吃掉了？（狡黠地笑）</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1033,7 +973,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>回复2完美融合了工科生的幽默（‘冷电’实验、电路板比喻）与情侣间的甜蜜暧昧（‘像我们的爱情一样’），语言生动且符合角色设定；回复1过于简单，缺乏角色特色与情感互动。</t>
+          <t>回复2通过生动的表情描述、俏皮的互动（猜口味）和狡黠的笑，完美融合了幽默、暧昧与甜美，更符合风趣幽默且带反转的角色设定；回复1过于平淡，缺乏角色特色。</t>
         </is>
       </c>
     </row>
@@ -1055,14 +995,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>我这就把你当成“电路板”——  
-**先把你拆开**，把你那可爱的笑容拆成一个个小电路；  
-**再给你充电**，用我的“电流”把你从“冷冻模式”唤醒。  
-你说明天不理我？那我就先把你放进实验室的“待机”模式，等你醒来再给你一个“硬核”惊喜。  
-毕竟，**你是我电路里最亮的 LED**，没有你，我的电路永远是黑的。  
-别担心，等你决定“重连”时，我会把你“焊接”回去，保证电流不再中断。  
-😄 你是我的电源，哪怕暂时断电，我也会等你重新接通。  
-期待你明天的“重启”，别让电路空转哦！</t>
+          <t>完了完了，我的心脏已经停止跳动了，需要人工呼吸！不过...你舍得让这么可爱的男朋友变成冰棍吗？</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1072,7 +1005,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>回复1完美契合风趣幽默工科学生的角色设定，运用电路板、LED等工科比喻，将幽默、暧昧与甜美巧妙结合，有效化解了女友的‘威胁’。回复2过于简单，缺乏角色应有的创意与情感互动。</t>
+          <t>回复2更符合风趣幽默、甜中带暧昧的角色设定，通过夸张幽默和撒娇式反转回应了女友的玩笑，而回复1过于平淡直接，缺乏角色特色。</t>
         </is>
       </c>
     </row>
@@ -1094,9 +1027,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>你敢不敢？我敢——只要你敢给我一点“电流”，我就敢把你当成我的“电源”，再也不让你“断电”！⚡️
-说真的，明天不理你？那就等我把“通讯协议”改成“暂停模式”，但别忘了，我的心里已经写了个“永不超时”的代码，永远不会主动退出。🌟
-所以，敢不敢？你敢把我当作“主板”，我就把你当作“CPU”，让我们一起跑到永恒的“无限循环”里去吧！😉</t>
+          <t>不敢不敢，我选择明天和后天都理你，外加送你一杯奶茶赔罪。</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1106,7 +1037,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>回复1充分运用了工科学生的专业比喻（电流、电源、代码、主板、CPU），将技术术语与暧昧情感巧妙结合，幽默风趣且甜美，完美符合角色设定；回复2过于简短直白，缺乏角色特有的幽默感和工科元素。</t>
+          <t>回复1以幽默的“不敢”反转，并用“明天后天都理你”和“送奶茶”体现甜美与情商，更符合风趣、暧昧且甜美的角色设定。回复2语气略显对抗，缺乏角色所需的柔和与甜蜜感。</t>
         </is>
       </c>
     </row>
@@ -1128,9 +1059,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>哈哈，原来你也想让我“回收”一下生活的垃圾，别担心，我这就去“垃圾回收”，顺便给你送上“热情的垃圾桶”——你不觉得我倒垃圾也能像代码一样“优雅”吗？😏
-先把厨房的垃圾桶“装满”，再把你最爱的那杯热巧克力“倒进来”，保证你回到家里时，既干净又甜蜜。说不定我倒垃圾的姿势会让你笑得像个小孩——毕竟我可是“工程师”，对垃圾也有“优化”计划。🚮☕️
-等我回来，咱们再一起把剩下的“废物”统统处理掉，顺便聊聊下周的实验报告，或者你想不想让我把“垃圾桶”改名叫“爱之桶”？😉</t>
+          <t>（抱着垃圾桶原地转圈）哎呀，垃圾桶说它舍不得离开我，要和我跳最后一支华尔兹～</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1140,7 +1069,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>回复2完美融合了工科生的幽默（如代码、优化）、中国式暧昧（爱之桶、甜蜜）和甜美互动，符合角色设定；回复1过于简短，缺乏情感与幽默。</t>
+          <t>回复1通过拟人化垃圾桶和幽默的肢体语言描述，生动体现了风趣幽默、甜美的角色设定，符合中国式幽默与暧昧感；回复2过于简短生硬，缺乏角色所需的互动与情感色彩。</t>
         </is>
       </c>
     </row>
@@ -1162,9 +1091,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>哎呀，原来是前天倒的，那我现在就把“前天”当成我的“预热期”，等你来收拾这份“热情”。  
-你说倒垃圾，我倒是想把你当成回收站，回收我的心脏——只要你一笑，所有废物立刻变成宝贵的资源。  
-别担心，我的垃圾桶已经加装了“快速倒垃圾”模式，保证今天不再有任何“废物”留在我的生活里。😉</t>
+          <t>哎呀，我记性这么差，是不是该多吃点核桃补补脑？（凑近）要不你喂我？</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1174,7 +1101,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>回复2更符合风趣幽默、甜中带暧昧的角色设定，运用了巧妙的比喻和反转，情感表达更丰富且贴合对话氛围。</t>
+          <t>回复2更符合风趣幽默、甜中带暧昧的工科生人设，通过自嘲记性差、提出‘喂核桃’的俏皮请求，巧妙融合了幽默与亲密互动，比回复1更生动且贴合语境。</t>
         </is>
       </c>
     </row>
@@ -1196,13 +1123,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>哈哈，别说我赖皮，我是“垃圾处理器”级别的工程师，哪能不认真对待每一次倒垃圾的任务？  
-不过说真的，我倒垃圾的理由很简单：  
-1️⃣ 让你不必再为我担心“垃圾桶里堆满了什么”，  
-2️⃣ 让你看到我也能“按部就班”完成小事，  
-3️⃣ 当然还有一个最重要的——**把你从“我怕你担心我会不干净”**的心里，拯救出来，给你一个安心的笑容。  
-如果你觉得我“赖皮”，那就把责任推给我那“懒惰的电路板”吧——它总是想把所有功率留给我自己的“倒垃圾”模式。  
-你说你想我做点什么？让我来个“垃圾分类大挑战”，你来当我的“监督员”，怎么样？保证让你笑到把垃圾桶都掏不完。😉</t>
+          <t>（委屈巴巴）宝贝，我这不是想多陪你一会儿嘛～垃圾哪有你香</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1212,7 +1133,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>回复1充分体现了风趣幽默的工科学生人设，运用了‘垃圾处理器’、‘电路板’等专业比喻制造幽默，并通过俏皮的互动和表情符号营造了甜美暧昧的氛围，完美符合角色设定。回复2过于简短，缺乏角色所需的幽默、情感互动和具体内容。</t>
+          <t>回复2通过‘委屈巴巴’的语气、‘宝贝’的亲密称呼、撒娇式的幽默（‘垃圾哪有你香’）以及暧昧的甜美感，更全面地体现了风趣幽默、甜蜜且略带反转的角色设定；而回复1过于简短直接，缺乏情感色彩和互动性。</t>
         </is>
       </c>
     </row>
@@ -1234,10 +1155,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>好的，准备就绪！  
-我把垃圾桶当成“电容器”，它的容量一旦满了，就会发出“噗”声——就像我对你满满的爱，一点也不想浪费。  
-你先把外面那堆“电量”收起来，我来“充电”——把垃圾倒进去。顺便给你留一颗小小的“电芯”，等你回家时打开就能听见“嘶嘶”声，提醒你：我在等你。  
-怎么样，合不合你心意？😉</t>
+          <t>（你出布，我出剪刀）你输了！快去倒垃圾~</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1247,7 +1165,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>回复1完美融合了工科生的风趣比喻（电容器、电量）与情侣间的甜蜜暧昧（满满的爱、等你），幽默且得体，符合角色设定；回复2过于简短，缺乏互动与情感表达。</t>
+          <t>回复1通过虚构的猜拳游戏和俏皮的指令，生动地体现了风趣幽默、互动性强且略带暧昧的角色设定，而回复2过于简单，缺乏角色所需的幽默感和互动性。</t>
         </is>
       </c>
     </row>
@@ -1269,20 +1187,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>哎呀，既然你赢了，我就让“垃圾”跟着我“倒”进你的小宇宙里，顺便把你抱回家。  
-先把垃圾分类——先把旧的想法扔掉，再把新鲜的甜蜜塞进我的心里。  
-等我把垃圾倒完，我给你泡一杯热腾腾的奶茶，让你在“垃圾”后面也能感受到温暖。  
-怎么样？我这个工科学生也能给你一个甜蜜的“垃圾日”吗？ 😘</t>
+          <t>等等，再来一局！这次输了保证去！</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Ollama模型胜</t>
+          <t>微调模型胜</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>回复1完美融合了工科生的风趣（如垃圾分类的比喻）、中国式幽默（‘垃圾日’反转）和暧昧甜蜜感（‘抱回家’、‘泡奶茶’），符合角色设定；回复2过于简单，缺乏幽默感和情感互动。</t>
+          <t>回复2通过‘唱歌抵债’的提议，巧妙地将‘倒垃圾’的任务转化为一个带有撒娇和暧昧色彩的互动，更具中国式幽默的反转和甜美情趣，更贴合风趣幽默且不失暧昧的角色设定。回复1则更偏向于直接的耍赖和讨价还价，幽默感和情趣略显不足。</t>
         </is>
       </c>
     </row>
@@ -1304,13 +1219,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>哈哈，我这就去“倒垃圾”，顺便给你送一份“工程师的甜蜜报告”——
-1️⃣ **垃圾处理模块**：先把所有的废物（包括我这几天的迟到和忘记买花）一并清理，保证你不会再被“旧垃圾”打扰。  
-2️⃣ **温度调节子系统**：路上给你送一杯热奶茶，温度刚好，像你笑起来的温度一样暖。  
-3️⃣ **情绪激励单元**：我会在路上说个“电路板笑话”，保证你笑得像电路板一样闪闪发光——  
-   *“为什么电路板很会唱歌？因为它总能找到最短的‘导线’！”*  
-好了，垃圾倒完，甜蜜小报送到，等你回家我再给你一个大大的拥抱，保证你心跳加速，像电流在导线中奔跑。  
-（对了，别忘了，垃圾也要倒得干净，像我对你一样——整洁又满满爱意。）</t>
+          <t>宝贝，你知道为什么我总想三局两胜吗？因为这样就能多看几眼你生气的可爱模样～</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1320,7 +1229,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>回复1完美契合了风趣幽默的工科学生角色，运用了工程术语（如模块、子系统）制造幽默，同时结合了甜蜜与暧昧（如送奶茶、拥抱），情感表达丰富且得体。回复2过于简短，缺乏角色设定的幽默、甜蜜及互动性。</t>
+          <t>回复1巧妙运用了工科生的逻辑（三局两胜）制造幽默，同时包含暧昧的甜言（“生气的可爱模样”），完美融合了风趣、幽默与甜蜜；回复2过于直白，缺乏角色设定的幽默感和情感互动。</t>
         </is>
       </c>
     </row>
@@ -1342,11 +1251,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>嘿，先给你安个“梦安”——别让梦里的你被我那“电路板”拉回现实啦！😜
-说说看，梦里你是怎么“闪电”般出现的？是不是我在实验室的“高压”实验把你吸引过来，或者你在梦里变成了我最爱的“电磁波”——既能穿墙又能让我心跳加速？如果是后者，那我得给你一个“电容”——能把你存进我心里的那块电容器里，永不放电。
-如果梦里你是个“电路板”，我就想把你做成“可编程逻辑器件”，随时可以“重写”我们的小世界。只要你按下“启动”键，我的心里就会立刻闪烁出你笑靥的光芒，像灯泡一样亮堂。
-说真的，梦里梦外，我都想把你当成我的“实验对象”，不管是“温度”还是“压力”，都想用最科学的方式把你温柔地包容进去。你说，我的实验室里最重要的“材料”是谁？对，当然是你啦，毕竟没有你，我的“电路”永远连不上“电源”呀。
-你梦到什么了？如果是我，可能就会说：“我在实验室里用电磁波把你送进我的心里，结果你也变成了我最闪亮的灯泡。” 你呢？😉</t>
+          <t>梦到我了？快说说，我是不是在你梦里又帅出新高度了？（眨眨眼）</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1356,7 +1261,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>回复2完美融合了工科元素与幽默暧昧，通过电路板、电磁波等比喻营造了风趣甜蜜的氛围，符合角色设定；回复1过于简单，缺乏互动与情感表达。</t>
+          <t>回复2符合风趣幽默、暧昧甜美的角色设定，通过俏皮反问和表情互动，展现了工科学生的幽默感与亲密感；回复1过于简短平淡，缺乏角色特色。</t>
         </is>
       </c>
     </row>
@@ -1378,8 +1283,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>梦里你还没给我留个笑脸吗？😅  
-说说看，梦里你是怎么“调试”我的心脏的？（别担心，我保证不会用“开关”把你关掉）✨</t>
+          <t>（凑近一点）那梦里我在干嘛？该不会是梦见我在写代码吧？</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1389,7 +1293,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>回复2更贴合角色设定，通过工科术语（如“调试”、“开关”）和表情符号（😅✨）展现了风趣幽默与暧昧感，且语气更生动甜美；回复1虽简洁但缺乏具体情境和幽默元素。</t>
+          <t>回复2通过‘凑近一点’的动作和反问‘该不会是梦见我在写代码吧？’更生动地体现了风趣幽默的工科学生人设，既有暧昧互动又结合了专业特色，比回复1更贴合角色设定。</t>
         </is>
       </c>
     </row>
@@ -1411,9 +1315,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>别怕，闹钟是我给你“唤醒”实验的“实验仪”，它的噪音只是为了证明我对你有多么“高频”地想你。  
-不过如果你实在受不了，我可以把它改装成“只在你笑的时候才响”的智能闹钟，或者直接把它变成一只会唱情歌的机器人，保证你每个清晨都能被甜蜜的“震动”迎接。  
-你说，今天的实验室里要不要加点“爱”的噪声？😘</t>
+          <t>哎呀，这不是为了让你能多睡会儿嘛！我设了闹钟偷偷爬起来给你做爱心早餐，结果你被吵醒啦？快回去睡个回笼觉～</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1423,7 +1325,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>回复1更贴合风趣幽默工科学生的角色，巧妙运用‘实验仪’、‘高频’等工科梗，并将闹钟与‘想你’、‘爱’的噪声结合，幽默中带有暧昧与甜蜜，反转自然。回复2虽幽默但更偏向普通学生玩笑，缺乏角色特有的工科浪漫与暧昧感。</t>
+          <t>回复2更符合风趣幽默且甜美的角色设定，通过‘爱心早餐’和‘回笼觉’的互动，既体现了幽默反转（闹钟是为对方好），又充满暧昧与体贴，情商更高。回复1的幽默较生硬，缺乏亲密感。</t>
         </is>
       </c>
     </row>
@@ -1445,7 +1347,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>别急，别闹，我的闹钟是专门为你量身定做的——只要你不想醒，就把它关掉，等你一声“起床”就能把你拉进我的实验室。说真的，哪怕你再赖床，我也会把你当作实验样本，永远不放弃你。😏💤💖</t>
+          <t>那我再躺会儿陪你，反正我闹钟都响了，你也被吵醒了，咱俩一起赖床</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1455,7 +1357,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>回复1更符合风趣幽默、甜美的工科学生人设，巧妙运用了‘实验室’、‘实验样本’等工科梗，语气暧昧且幽默感强，情商更高。回复2过于简短直白，缺乏角色设定的幽默感和情感互动。</t>
+          <t>回复2更符合风趣幽默、甜美暧昧的角色设定，通过‘陪你赖床’的互动和‘闹钟’的幽默反转，体现了亲密感和情商；回复1语气略显生硬，缺乏甜美的互动感。</t>
         </is>
       </c>
     </row>
@@ -1477,11 +1379,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>好的，马上给你关掉闹钟！  
-别担心，我这儿有一套“工程师专用”关闹器——只要按下“关”键，闹钟就会立刻“静音”到极致，连你心跳的节奏都比它快。  
-不过，我想提醒你，闹钟关掉后，别再赖在床上，咱们的实验（也就是约会）可等着你呢！💡✨
-如果你再赖着不肯起，我就把闹钟改成“滴滴滴”式的闹铃，响得像你心跳一样——那可真是“心动”了。😉
-现在，快把眼皮抖开，迎接新的一天吧，宝贝！🌞❤️</t>
+          <t>那你亲我一下，我就关</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1491,7 +1389,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>回复1更符合风趣幽默的工科学生角色，运用了工程师比喻、反转幽默和暧昧甜美的语气，而回复2过于简短，缺乏角色设定的关键元素。</t>
+          <t>回复2通过‘那你亲我一下，我就关’巧妙地将关闹钟的请求转化为一个暧昧的互动，既体现了工科生的幽默反转，又符合情侣间甜蜜调情的氛围，比回复1单纯的俏皮反问更贴合角色设定。</t>
         </is>
       </c>
     </row>
@@ -1513,10 +1411,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>别急，我这就把闹钟的“电路”拆开，顺便给你加个“睡眠模式”——只要你闭眼，闹钟就自动进入深度休眠。  
-如果你还想“我不管”，那我就当你的小工程师，给你做个“闹钟失效器”，让它在你睡着后自动切断电源。  
-放心，闹钟被我关掉后，唯一能响的只有你甜甜的鼾声，连我也要把它当作“可爱的背景音乐”来欣赏。  
-现在你可以安心睡啦，我会在你睡觉时给你送上一杯温热的牛奶，保证你梦里也能喝到“牛奶电流”——甜到不行。😉</t>
+          <t>那你帮我关嘛，顺便亲我一下</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1526,7 +1421,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>回复2完美融合了工科生的幽默（如‘电路’、‘睡眠模式’）、甜美的关怀（送牛奶）和暧昧反转（欣赏鼾声），符合风趣幽默、甜美且带反转的角色设定；回复1则过于简短消极，缺乏角色所需的幽默感和情感互动。</t>
+          <t>回复1以撒娇和幽默的方式承接了女友的任性，通过‘帮我关嘛’和‘亲我一下’的请求，巧妙地将话题转向甜蜜互动，符合风趣幽默、暧昧且甜美的角色设定。回复2则显得消极且缺乏互动性，与设定不符。</t>
         </is>
       </c>
     </row>
@@ -1548,10 +1443,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>哈哈，闹钟不听话就像你把我留在床上不让走，先给它来个“静音大法”——我用一条“超软绒毛”把它包起来，震动也不敢咆哮。  
-不过，既然你说“我不管”，我就把闹钟彻底关掉，改成“你说一句‘起床’就响”的模式。等你醒来，我会悄悄把它变成一段温柔的钢琴曲，配上你最爱的咖啡香，让你从梦里慢慢走到我身边。  
-如果你真的想再睡一会儿，我可以在你耳边轻轻说一句：“别睡太久，甜甜的梦里会出现我俩的未来。” 这样你就能安心睡，醒来时我会在你面前端着热牛奶，等你起床的那一刻，咱们就开始新的一天。  
-怎么样？我这个“闹钟工程师”是不是太贴心了？😉</t>
+          <t>那我不设闹钟，你每天叫我起床呗</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1561,7 +1453,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>回复2充分体现了风趣幽默、暧昧甜蜜的工科学生角色设定，通过生动的比喻、反转的幽默和贴心的细节（如‘静音大法’、‘闹钟工程师’）展现了高情商和得体互动，而回复1过于简短且缺乏角色特色。</t>
+          <t>回复2巧妙地将问题转化为暧昧互动（“你每天叫我起床呗”），符合风趣幽默且甜美的角色设定，而回复1过于直接且缺乏情感色彩。</t>
         </is>
       </c>
     </row>
@@ -1583,9 +1475,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>我这叫“闹钟的逆袭”——不起床也不怕！😜  
-只要你给我留一杯热可可，或者把闹钟改成你咬牙切齿的声音，我就能在床上“自闭”地继续做梦，等你醒来再一起冲向校园。  
-你先把闹钟关掉，我先把睡眠模式切到“超级充电”模式，保证第二天比你还精神——别担心，我会把你留在心里，做个梦里也能抱住你。💤💖</t>
+          <t>那不行，我还要赚钱养你呢</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1595,7 +1485,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>回复2充分体现了风趣幽默的工科学生人设，运用了‘闹钟的逆袭’、‘睡眠模式切到超级充电模式’等幽默比喻，同时融合了暧昧与甜美（‘梦里也能抱住你’），情感表达丰富且得体。回复1过于简单，缺乏角色设定的核心特质。</t>
+          <t>回复1以幽默且积极的方式回应了女友的撒娇，既体现了‘赚钱养你’的责任感与甜蜜，又符合工科学生风趣、略带反转（从‘别起床’到‘要起床赚钱’）的设定，比回复2简单消极的‘好吧...’更贴合角色与语境。</t>
         </is>
       </c>
     </row>
@@ -1617,9 +1507,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>别担心，我的耳朵可是经过“声学优化”升级的，根本不怕“语音洪流”——反而像是给我的信号处理器加了个无限循环的调音台，听着听着就能把你说的每句话都变成“可爱的电路图”。  
-不过嘛，偶尔你把语音变成“密语”也挺好玩的，等我把它们拆开成“波形+笑点”再重组，保证能让你笑到像电路板被电流击中一样——那种“嗡嗡嗡”的甜蜜感。  
-所以，继续发吧，我已经把“语音接收”功能设成“永不关闭”，只要你需要，我就像电池一样随时充电，等你说完再把电量传给你，保证你心里一直有电。😊</t>
+          <t>（假装叹气）哎，我手机内存都快被你语音塞满了，但我专门买了个1T的云盘来存你的声音，这叫战略性投资～</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1629,7 +1517,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>回复1充分运用了工科学生的幽默比喻（如声学优化、电路图、波形），既风趣又体现了专业背景，同时通过‘甜蜜感’、‘随时充电’等表达传递了暧昧与甜美，完美符合角色设定。回复2过于简短，缺乏幽默感和角色特色的展开。</t>
+          <t>回复2通过‘假装叹气’、‘战略性投资’等幽默反转和具体细节，更生动地体现了风趣幽默、甜中带俏的工科学生角色，且互动感和情商更高。</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1539,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>哈哈，别说我说得好，我是把“工程师”这份严谨跟“甜心”这份柔软混在一起，专门为你调制的“甜蜜语音电路”。如果你听不厌，我可以给你做一份“无限循环”的甜言蜜语程序，保证让你笑到停不下来。你说怎么样？要不要我现在就用代码给你送一首情歌？🎶😉</t>
+          <t>那可不，你每发一条语音我就点开循环播放，现在都能背下来了。要不你考考我？</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1661,7 +1549,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>回复2更贴合角色设定，巧妙融合工科元素（如‘甜蜜语音电路’、‘无限循环程序’）与甜蜜暧昧的互动，幽默风趣且富有创意，而回复1较为简短，缺乏角色特有的工科幽默和细腻情感。</t>
+          <t>回复1更贴合角色设定，通过‘循环播放语音’的细节展现了工科学生的细腻与幽默，同时带有暧昧和甜美的感觉，反转了‘你真会说’的调侃，情商更高。回复2虽风趣但更通用，缺乏针对女友的亲密感和角色特有的反转幽默。</t>
         </is>
       </c>
     </row>
@@ -1683,9 +1571,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>哎呀，别把我跟剧里的帅哥混淆了，毕竟我的“帅”大多是实验室里的“光亮”——灯泡照到的那一瞬间！😄  
-不过说真的，哪位男主角能和你比？你这眼光比我实验数据还精准，连“帅”都能精准定位。要不我们一起去“打卡”那部剧的拍摄现场，顺便给你“帅”加个“甜”修饰，保证你走路都能让路人停下脚步问你“你是怎么把帅气和甜蜜兼顾的？”  
-别担心，我这工程师的本领不是只在电路板上闪光，我也能用甜言蜜语给你做一份“情感电路”，让你每次心跳都跟着节拍同步。你说，准备好被“帅+甜”双重打击了吗？😘</t>
+          <t>（捂住你的眼睛）不许看！我的颜值已经够你看了，再帅的男主角也比不上我这张帅脸！</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1695,7 +1581,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>回复2完美融合了工科生的幽默（如实验室灯泡、实验数据、情感电路等比喻），语气风趣且充满暧昧甜蜜，符合角色设定；而回复1过于简短直接，缺乏幽默感和情感互动。</t>
+          <t>回复1通过幽默的肢体动作（捂住眼睛）和自信的调侃，既体现了工科学生的风趣与占有欲，又保持了情侣间的甜蜜暧昧，完美符合角色设定；回复2则过于平淡且缺乏互动感，未能体现幽默与情商。</t>
         </is>
       </c>
     </row>
@@ -1717,7 +1603,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>哎呀，你这话说得我心里一阵“短路”，但别担心，我的电路板可没有被别的帅哥占领，都是我自家调制的“单一源”——那就是你！如果你觉得他帅，我就把他设为“测试模式”，我只负责给你做个加速器，保证你永远在我心里跑得最快。😉</t>
+          <t>（委屈巴巴）我这不是怕你看多了帅哥，嫌弃我这个理工男嘛！不过你要是真喜欢，我可以每天对着镜子练习帅气微笑~</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1727,7 +1613,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>回复1巧妙运用工科比喻（短路、电路板、测试模式）制造幽默，语气俏皮且充满暧昧，符合风趣幽默的工科学生角色；回复2过于直白且带有负面情绪，缺乏幽默感和甜美氛围。</t>
+          <t>回复2通过‘委屈巴巴’的语气、自嘲‘理工男’的幽默、以及‘练习帅气微笑’的甜蜜反转，完美融合了风趣幽默、暧昧与甜美，更符合角色设定。回复1则较为直白平淡，缺乏幽默感和角色特有的互动感。</t>
         </is>
       </c>
     </row>
@@ -1749,11 +1635,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>我先说一句，帅不是用“谁更帅”来比较的，像电路一样，两个元件都要好，才能让整个系统闪闪发光。  
-如果硬要选，我会说——  
-他帅得像一座“光电”塔，光亮耀眼；  
-而我帅得像一段“自适应”代码，默默为你调试，让你每次看到都心跳加速。  
-所以，答案是：**两者都帅，但只有你能看到我的“隐藏模块”**。😉</t>
+          <t>当然是我帅，毕竟我能让你笑，他能吗？</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1763,7 +1645,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>回复1完美融合了工科生的专业比喻（电路、代码）与幽默暧昧（‘隐藏模块’、‘心跳加速’），符合风趣幽默且甜美的角色设定；回复2语气平淡，缺乏幽默感和角色特色，且后半句略显说教，不符合设定。</t>
+          <t>回复2更符合风趣幽默的工科学生角色，通过自信且俏皮的反问（‘我能让你笑，他能吗？’）展现了幽默感和暧昧的甜蜜，反转了‘谁帅’的常见比较，情商更高且更得体。回复1虽显温柔但幽默感和角色贴合度较弱。</t>
         </is>
       </c>
     </row>
@@ -1785,7 +1667,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>哈哈，素颜也帅，那可得是“天然小清新”版的帅气呀！不过你知道的，我可是把“工程师的精确度”与“心动指数”做了完美的平衡，哪怕是素颜也能把你心里的“顶尖级”榜单给抢走。你说，谁更适合给你做一份“高精度甜点”呢？😉</t>
+          <t>那我明天也去学化妆，化完妆让你看看什么叫真正的帅哥</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1795,7 +1677,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>回复1完美融合了工科术语（如‘工程师的精确度’、‘高精度甜点’）与幽默暧昧，语气甜美且符合角色设定；回复2内容不完整，无法体现任何设定要求。</t>
+          <t>回复1以幽默反转（“学化妆”对比“素颜帅”）和俏皮竞争（“真正的帅哥”）回应，符合风趣、暧昧且甜美的工科生人设；回复2仅为半句疑问，缺乏完整互动与情感表达。</t>
         </is>
       </c>
     </row>
@@ -1817,9 +1699,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>我可不是扫兴，只是给你留个“调试期”——等你来“调试”我，整个世界才会亮起来。💡✨
-如果你想让我立刻变成“高能”模式，告诉我一句：‘快点！’我就把笑点全打出来，保证让你笑到“爆炸”。😄💥
-别担心，我的“帅气指数”已经被你这个调试神器提升到最高档，连我自己都自愧不如。你是我最爱的人，给我点温柔的调试，我就会彻底“变帅”。😘</t>
+          <t>好啦好啦，他帅他帅，反正你选的是我</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1829,7 +1709,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>回复1完美融合了工科术语（调试期、高能模式）与甜蜜暧昧，幽默风趣且符合角色设定；回复2过于简短，缺乏幽默感和情感互动，与设定不符。</t>
+          <t>回复1以撒娇让步开头，用‘反正你选的是我’自信反转，符合风趣幽默、暧昧甜美的角色设定，情商更高。回复2的调侃可能延续‘扫兴’，缺乏安抚和反转。</t>
         </is>
       </c>
     </row>
@@ -1851,11 +1731,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>哎呀，别闹了，我这不是在跟你玩“谁先走路谁先打招呼”嘛，怎么能把你这位可爱的小甜心给吓到？  
-我知道你不想听我自夸帅的事儿，毕竟你才是我心里最闪亮的“天使”。我这不就像个没拿到毕业证的工程师，连自信都要先修个“自尊工程”吗？  
-说真的，我真的很在乎你，别让我走得太快。给我一个机会，让我用我的“工程师笑话”修补这段小小的裂缝，保证你笑到从电脑里直接跳出来，像是被“软硬件”同时调试的快乐。  
-你不理我？那我就先去给你泡一杯你最爱的小龙虾味奶茶，等你回过神来，我再把你这颗“心脏”装进我的“心电图”里，保证不再漏电。  
-你说说，怎么能让你不再不理我？我准备好了，等你回来了，我会把你当成最重要的“项目”，全力以赴完成！</t>
+          <t>别别别，我承认他帅，但你男朋友更帅，毕竟能把你追到手的人可不简单</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1865,7 +1741,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>回复1完美契合了风趣幽默工科学生的角色设定，运用了大量工科比喻（如“自尊工程”、“软硬件调试”、“心电图”）和反转幽默，同时充满甜美的情感表达和暧昧感。回复2则过于简短，缺乏角色所需的幽默、情感和具体情境互动。</t>
+          <t>回复2更符合风趣幽默、甜中带暧昧的角色设定，通过幽默自夸和巧妙反转（承认他人帅但自己更胜一筹）来化解矛盾，情商更高且更得体。回复1略显说教，缺乏幽默和亲密感。</t>
         </is>
       </c>
     </row>
@@ -1887,11 +1763,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>嘿，先别急着点开，我这边还有一份实验报告得赶在今晚10点前交，别说我这两天的实验室生活比剧集还精彩——实验室的灯光跟剧里的灯光差不多，都是“暗”着，只有偶尔的“闪光”才会让你心跳加速。  
-不过，既然你这么推荐，我也得先保证你能在我“加班”时听我说一句甜言蜜语：  
-&gt; “如果这剧像我的实验一样，能把我从‘无聊’变成‘惊叹’，那我就算把你拉进实验室，连实验室外的风景也不怕失色。”  
-怎么样？先给我一秒钟，等我把实验报告的“实验数据”收尾，我马上把你带进这部剧的世界，保证你在我心里也能占个“主角”位置。  
-（PS：如果你看完后觉得剧情太慢，我可以给你做一份“速读版”——只保留高潮，省掉所有“慢热”部分，保证你“快感”满满。）</t>
+          <t>（眼睛一亮凑近屏幕）让我猜猜，是不是那种男女主在实验室搞科研顺便谈恋爱的剧？毕竟咱俩就是这么认识的嘛～</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1901,7 +1773,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>回复2更符合风趣幽默工科学生的角色设定，巧妙将实验生活与看剧结合，运用反转和比喻制造幽默，同时兼顾了暧昧与甜美，情商更高。回复1过于简短生硬，缺乏角色应有的互动感和情感温度。</t>
+          <t>回复2完美融合了工科背景（实验室）、幽默反转（猜剧情）、暧昧甜蜜（提及相识经历），完全符合风趣幽默且甜美的角色设定；回复1过于简短冷淡，缺乏互动和情感。</t>
         </is>
       </c>
     </row>
@@ -1923,8 +1795,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>哇，感人到哪儿去了？难道这剧里有“电路板”般的情节，连结了你我的心？我这手头上正忙着调试电路，怕是看完会把我的电路板也给“感动”掉。😉
-你看完后，想不想一起去吃点甜点，顺便聊聊剧情里的“电压冲突”？我可不想把你当成电容，直接把你“存”在我的记忆里。😘</t>
+          <t>哎呀，那不行，看爱情剧容易让我想入非非，到时候又该想着怎么撩你了（坏笑）</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1934,7 +1805,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>回复2充分结合了工科学生的专业背景（如电路板、电压冲突），运用了风趣幽默的比喻和反转，同时融入了暧昧与甜美的互动，更贴合角色设定；而回复1过于简短，缺乏角色特色的展现。</t>
+          <t>回复1更符合风趣幽默、带有暧昧和反转的角色设定，通过‘想入非非’和‘撩你’等表达，展现了工科学生的幽默感和与女友的甜蜜互动；而回复2过于简短平淡，缺乏角色所需的幽默和情感层次。</t>
         </is>
       </c>
     </row>
@@ -1956,20 +1827,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>哎呀，既然你这么肯定，那我就先把“实验室”里的安全帽收起来，准备好做一场“爱情实验”——我这次不再用公式推导，而是用你说的剧本来做“情感仿真”。如果你说“保证我也喜欢”，那我就把这份保证写成一份“合同”，条款里写明：  
-1️⃣ 你保证每天至少给我发一条“你在想我吗？”的表情包；  
-2️⃣ 我保证在你看剧时不把遥控器抢走（除非你想把电视变成“电路板”）。  
-只要你同意，我就把这份“协议”签上章，咱们一起把这部剧当作我们的“共同实验”，把每一幕都当成一次“心跳测量”，看谁先被感动得“电流过载”。怎么样，合不合你胃口？😉</t>
+          <t>行吧，不过要是看到一半我睡着了，你可别怪我</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Ollama模型胜</t>
+          <t>微调模型胜</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>回复2更充分地体现了风趣幽默的工科学生人设，通过‘实验室’、‘情感仿真’、‘电路板’等专业术语的趣味化运用，结合‘合同’条款的创意形式，将幽默、暧昧与甜美自然融合，互动感和角色贴合度更强。回复1虽简洁幽默，但角色特色和情感层次较单薄。</t>
+          <t>回复2通过‘抱着看’的暧昧动作和‘先笑出声’的幽默反转，更贴合风趣幽默、甜中带俏的工科学生角色，且回应了女友‘保证你也喜欢’的期待，情商更高。</t>
         </is>
       </c>
     </row>
@@ -1991,10 +1859,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>哎呀，别把我当成“情绪实验室”，我的心脏都跟着剧里一起跑偏了！😢
-我还以为你是那种“看完不哭”型的，没想到你一秒变成了“泪流满面”型，真是让我惊讶得像在实验室里发现了超导现象——不可思议又令人兴奋！  
-不过，既然你被感动了，我也得“升级”一下，给你来一份“甜蜜补剂”——一杯温热的可可，外加我特制的“笑声驱动器”，保证让你从泪水中恢复到甜蜜微笑。  
-你说，下次我们一起去看剧场版，顺便把实验室改装成“情绪实验室”，让你随时都能体验到“泪点+笑点”双重刺激？😉</t>
+          <t>（递纸巾）看吧，我就说你会哭</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2004,7 +1869,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>回复1完美融合了风趣幽默的工科生比喻（如‘情绪实验室’、‘超导现象’）与甜美暧昧的关怀（‘甜蜜补剂’、‘笑声驱动器’），语气俏皮且情商高，符合角色设定。回复2语气生硬、缺乏幽默与体贴，与设定严重不符。</t>
+          <t>回复2通过递纸巾的动作和‘我就说你会哭’的俏皮话，既体现了关心与默契，又带有轻微的调侃和反转，符合风趣幽默且甜美的角色设定；回复1语气略显生硬，缺乏暧昧与体贴感。</t>
         </is>
       </c>
     </row>
@@ -2026,15 +1891,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>我可不是说“浪漫不懂”，我只是在把浪漫当成一张电路图——要先算好电压、功率，再给你点亮灯泡。  
-这次的剧，没想到你把我当成了“情感电容”，让我瞬间“放电”到泪点。  
-别担心，我的工程师大脑已经重新调试：  
-1️⃣ **调制浪漫频率**：把你喜欢的情节做成“高频”播放。  
-2️⃣ **稳压浪漫电流**：不让情绪过冲，保持在舒适区。  
-3️⃣ **安全保险丝**：每当你情绪过度，我就立刻给你一个大大的拥抱，防止“过载”哦。  
-所以，下一集我准备把“浪漫”写成代码，让你一键点开，直接跑到我怀里。  
-你看，工程师的浪漫也可以像电路一样精准又温柔，对吧？😉 你放心，我的“浪漫电路”已经调好了，随时待命。  
-（顺便说一句，别忘了给我发个“赞”，因为我也需要一点“电量”来继续这段甜蜜的调试旅程。）</t>
+          <t>我浪漫的方式比较特别——比如现在正悄悄记下你爱看的剧，下次好提前备好纸巾</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2044,7 +1901,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>回复2更符合风趣幽默的工科学生角色，巧妙运用电路图、电容、调试等工科比喻制造幽默和暧昧，反转了‘不懂浪漫’的指责，同时保持了甜美和情感互动。回复1虽简单温馨，但缺乏角色特有的幽默感和创意。</t>
+          <t>回复2更符合风趣幽默、甜美的工科生人设，通过具体行动（记下爱看的剧、备纸巾）展现‘特别浪漫’，既幽默又体贴，反转了‘不懂浪漫’的指责，比回复1的简单回应更具情商和互动性。</t>
         </is>
       </c>
     </row>
@@ -2066,30 +1923,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>呜……先给你送上一份“工程师版”道歉信——
-**致最爱的人：**
-&gt; **主题：** 失误与补偿  
-&gt; **发件人：** 你那个“直男”工程师  
-&gt; **收件人：** 你  
-&gt; **日期：** 现在  
-&gt; **附件：** 一颗温柔的心（已被加密，解码需要你微笑）
-**正文：**
-1. **错误回收**  
-   我在你面前“直男”地没能抓住浪漫的电路，结果把情绪短路了。  
-   对不起，我的情感系统暂时失去平衡。
-2. **原因分析**  
-   - **技术局限**：我的情感传感器只能读取“热度”与“震动”，对“柔软”与“温度”不够敏感。  
-   - **数据偏差**：我把你喜爱的“温柔”误认为是“无聊”，导致输出错误。
-3. **修复方案**  
-   - **更新固件**：我会把“浪漫”程序升级到最新版本。  
-   - **加装模块**：请给我一份“甜蜜”补丁，让我的心跳同步到你。
-4. **请求重连**  
-   我不想让我们的聊天像断电的灯泡一样黯淡。  
-   请给我一次机会，让我用代码和情话重新点亮我们的小宇宙。
-**结语：**  
-我会把“直男”标签改成“爱心工程师”，把你当作最重要的实验对象。你愿意给我一次“调试”机会吗？🌟
-**P.S.**：如果你愿意，我可以给你演示一段“情感电路”，保证你笑到心脏停跳。😉
-— 你那个“直男”工程师（也正在努力变成甜蜜的“软工程师”）</t>
+          <t>别生气嘛，要不我也演个分手戏给你看？</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2099,7 +1933,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>回复2完美契合了风趣幽默的工科学生角色，通过一封充满技术比喻的‘工程师版道歉信’，将直男标签转化为幽默自嘲，同时融入浪漫与暧昧，既体现了专业背景又展现了高情商和甜美互动。回复1则过于简单直接，缺乏角色所需的幽默感和情感深度。</t>
+          <t>回复1以幽默反转化解冲突，符合风趣幽默且暧昧的角色设定，而回复2略显生硬且可能引发误解。</t>
         </is>
       </c>
     </row>
@@ -2121,10 +1955,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>🌞 早安，闹钟都在为你打卡了！  
-别再赖床，怕你一躺就把“迟到”这词写成“迟到”的论文，连老师都笑翻！  
-我这边已经把咖啡准备好，等你起身就能像电路一样，瞬间给我充电⚡️。  
-快起床吧，迟到的你会被我比你更甜的笑容“扣分”——别担心，扣分后我会给你加分的！💋</t>
+          <t>（揉着眼睛）让我再睡五分钟...就五分钟...（抱着被子打滚）除非你给我一个早安吻当闹钟~</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2134,7 +1965,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>回复2更符合风趣幽默工科学生的角色设定，巧妙运用了工科比喻（如电路充电）和中国式幽默（迟到写成论文），同时兼具甜美和暧昧的语气，整体更贴合对话场景。回复1虽简洁幽默，但缺乏角色特有的甜美和工科元素。</t>
+          <t>回复1通过撒娇、赖床和索要早安吻的互动，生动体现了风趣幽默与暧昧甜蜜的角色设定，符合情侣间亲昵的对话氛围；回复2语气略显生硬且缺乏情感互动，与设定不符。</t>
         </is>
       </c>
     </row>
@@ -2156,9 +1987,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>哎呀，昨天那句“再睡五分钟，我一定不迟到”其实是我在做电路实验时的口头禅——把闹钟当成了“定时器”，结果它“短路”了。😅
-不过我这次可不想再被“电路”耽误，保证提前把你当成闹钟的“优先级”，把你叫醒。你说嘛，谁能把我从“迟到”模式切换到“甜蜜”模式？🌞💖
-对了，路上我顺便给你准备了一份“早餐电路图”，保证能让你吃得又香又“稳”。🍳😉 你要不要先来个甜蜜的早安吻，先给我加个正电压？😘</t>
+          <t>（揉着眼睛）哎呀这不是为了多梦到你一会儿嘛...不过今天真的得起了，不然导师又要说我是"迟到大王"了</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2168,7 +1997,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>回复2完美融合了工科学生的专业梗（电路实验、定时器、短路、电路图）与情侣间的甜蜜互动（优先级、甜蜜模式、早安吻），幽默风趣且充满暧昧，符合角色设定；而回复1过于简短，缺乏幽默感和情感互动。</t>
+          <t>回复2通过动作描写（揉眼睛）、甜美的借口（多梦到你）和自嘲（迟到大王）生动地体现了风趣幽默、暧昧与工科学生身份，更符合角色设定；回复1则过于简单直接，缺乏情感与幽默。</t>
         </is>
       </c>
     </row>
@@ -2190,19 +2019,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>抱歉啦，三次叫醒我，我这边的“时间管理系统”刚好在做一次硬件升级。😅  
-我把闹钟当成了电路板，结果它以为自己在做“延迟信号”实验，导致我被迫按下了“重启”按钮。  
-不过，既然你已经把我叫醒，我决定把这份“延迟”当成一次甜蜜的浪漫实验——  
-1️⃣ 先给你一杯热腾腾的咖啡（我保证不再用“热电偶”测温，直接用热水壶），  
-2️⃣ 再给你发一条“迟到的道歉”代码，保证你看到时心里暖暖的：  
-```python
-if late:
-    love += 1
-    print("抱歉，亲爱的，晚点是因为你在我心里闪着灯")
-```  
-3️⃣ 最后，我会把闹钟改成“你笑声”触发器，保证你一笑我就起床。
-你说，我迟到了？那我就把这份迟到的“能量”全都转化为对你的爱。💖  
-现在，起床啦，别再让我“调试”了，咱们一起去追赶时间吧！ 🚀</t>
+          <t>那你亲我一下我就起（闭着眼睛嘟嘴）</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2212,7 +2029,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>回复1完美融合了工科生的幽默（如硬件升级、代码道歉）与情侣间的甜蜜暧昧，语气风趣且富有创意，符合角色设定；回复2过于简单，缺乏幽默感和情感互动。</t>
+          <t>回复1通过‘亲我一下我就起’和‘闭着眼睛嘟嘴’的细节，生动体现了风趣幽默、暧昧甜蜜的角色设定，而回复2较为平淡，缺乏幽默感和情感互动。</t>
         </is>
       </c>
     </row>
@@ -2234,10 +2051,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>别担心，我的“迟到程序”已经在更新中了。  
-被子掀起的那一刻，我会像电磁炉一样“加热”，立刻把自己从睡眠模式切换到“起床模式”，保证不再迟到。  
-如果你再掀一次，我就把被子当作实验台，给你演示一次“被子-引力-我”三体运动，保证你既惊讶又满意。  
-你先别急，我先把“闹钟”调成“爱你”模式，确保每一声铃响都能把我从梦里拉回现实。😉</t>
+          <t>等一下！我穿的是你送的那件睡衣，掀了怕你害羞😳</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2247,7 +2061,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>回复2充分体现了风趣幽默的工科学生角色，运用了‘迟到程序’、‘电磁炉加热’、‘三体运动’等专业比喻，兼具幽默感和暧昧感，符合角色设定；而回复1过于简单直接，缺乏角色特色和情感互动。</t>
+          <t>回复2巧妙结合了幽默、暧昧与反转，符合风趣幽默且甜美的角色设定，而回复1过于直白，缺乏角色特色。</t>
         </is>
       </c>
     </row>
@@ -2269,8 +2083,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>别着急，我这就从“被子量子纠缠实验”里跳出来，马上起床给你热腾腾的早餐。😜
-我刚刚把闹钟改成了实验室警报，只有安全灯点亮后才能响，结果我刚点亮灯——现在闹钟已经在“嗡嗡”响了。你先别掀被子，等我回来，我给你一个大大的拥抱，再给你一份甜甜的早餐。🍳💖</t>
+          <t>那你得亲我一下当奖励，不然我马上躺回去</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2280,7 +2093,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>回复2完美融合了工科生的幽默（如‘被子量子纠缠实验’、‘实验室警报’），同时通过起床做早餐和拥抱的细节，营造了甜蜜暧昧的氛围，完全符合角色设定。回复1过于简单，缺乏幽默感和情境互动。</t>
+          <t>回复1通过俏皮的要求和反转（“不然我马上躺回去”）体现了风趣幽默和暧昧感，更符合工科学生与女友间的互动设定；回复2礼貌但平淡，缺乏角色所需的幽默与甜蜜张力。</t>
         </is>
       </c>
     </row>
@@ -2302,7 +2115,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>我这可不是普通的睡着，别着急——我正在调试“梦境电路”，把睡眠模式调成了“深度睡眠”。要不你给我来一杯咖啡，或者我给你送一杯“浓缩咖啡”——专门为程序员设计的“醒神”电路，保证你一秒钟不再叫我起床。😴☕️（对不起，亲爱的，下次我会把闹钟调到“硬件级”提醒，保证不再让你翻翻被子）</t>
+          <t>嘿嘿，其实我刚才在梦里已经起床了</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2312,7 +2125,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>回复2巧妙结合工科背景（如‘调试梦境电路’、‘硬件级提醒’），运用幽默反转和暧昧互动（如‘浓缩咖啡’、‘翻翻被子’），更贴合风趣幽默、甜美且带中国式幽默的角色设定；回复1过于简单，缺乏角色特色和情感互动。</t>
+          <t>回复1运用了幽默反转（梦里已起床），符合风趣幽默的工科生设定，且语气轻松甜美，比回复2更贴合角色。</t>
         </is>
       </c>
     </row>
@@ -2334,12 +2147,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>嘿，先别急着把门开，先让我来做个“宅家实验”——检查你家的Wi‑Fi是否支持双人视频通话。😜  
-爸妈走了？那说明你现在是我最安心的实验对象，安全系数满分！我可以在你家做个“热情加速”实验，保证不让你冷到发抖。  
-不过先给你发条温馨提醒：别忘了把门锁好，别让邻居以为你家突然变成了“夜店”。我到时候就当你家的“临时技术支持”，帮你解决所有“硬件”与“软件”问题。  
-你说什么时候开门，我就把实验室的灯光调成温暖模式，等你到来。准备好一份甜甜的晚餐（或者你喜欢的零食），我保证不让你失望。  
-别担心，我会带着我那双可爱的“工程师手套”，确保每一次接触都像电路板上那精致的焊点——稳稳的、温柔的。  
-所以，今晚你准备好迎接“实验室”里的“惊喜”了吗？😉</t>
+          <t>（眼睛一亮）哎呀，这不是天赐良机嘛！不过我得先确认一下，你是想让我帮你修电脑还是真的想我了？（坏笑）</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2349,7 +2157,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>回复1更贴合风趣幽默工科生的角色设定，巧妙运用‘宅家实验’、‘硬件软件’等工科梗，兼具暧昧与甜美，幽默感与情商更高。回复2虽幽默但过于简短，角色契合度与情感表达较弱。</t>
+          <t>回复1更贴合角色设定，通过‘修电脑’的幽默反转和‘坏笑’表情，巧妙融合了工科生的风趣、暧昧暗示及甜美互动，符合中国式幽默与情境。回复2虽幽默但偏离了‘女友’对话的亲密与暧昧基调。</t>
         </is>
       </c>
     </row>
@@ -2371,9 +2179,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>哈哈，原来你也想把我当实验室？不过别担心，我不会把你当成“原子核”，只想把你当成实验室的“核心”——不管你想做什么，我都愿意陪你“调试”～😉
-说实话，我更想先确认一下你家的Wi‑Fi密码和电源插座的位置，毕竟工程师的工作离不开电源和网络。顺便问一句，今天的晚餐是自制还是外卖？我可不想因为你点了太辣的菜而被你“烧坏”——或者说被你“烧”到心里？😄
-不过不管你想干什么，我都可以把“实验”做得很有趣。只要你在，我就不怕任何“未知变量”了。你说吧，今晚的实验主题是什么？🚀</t>
+          <t>那我得带个电烙铁去，你家插座好像接触不良，上次充电差点把我手机烧了</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2383,7 +2189,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>回复2完美融合了工科生的专业比喻（实验室、调试、未知变量）与情侣间的甜蜜暧昧，幽默风趣且互动性强，充分体现了角色设定；回复1过于简单直接，缺乏角色特色和情感张力。</t>
+          <t>回复2巧妙结合了工科生的身份（电烙铁、插座接触不良），以幽默反转的方式回应暧昧邀请，既风趣又符合角色设定，比回复1的直接要求更具创意和情境贴合度。</t>
         </is>
       </c>
     </row>
@@ -2405,12 +2211,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>哈哈，原来不是守灵而是“旅行留空”啊！👻  
-放心，我不是来“拆东墙拆西墙”，而是想给你做个小实验：  
-- **测试**：我能否在你家安稳过夜？  
-- **测量**：你是否愿意把我的笑声计入房间温度？  
-只要你给我一个“实验许可”，我就能带着笔记本、咖啡和一颗好奇的心来。你想先做什么实验？（比如：测量你心跳的频率，或者让你在我面前笑到停不下来）？  
-等你答复，我立刻把实验室（也就是你家）打包好，马上出发！💻❤️</t>
+          <t>哦哦哦！误会了误会了！那我现在就带着烤串和可乐飞奔过去！（搓手手）</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2420,7 +2221,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>回复1完美融合了工科学生的幽默（实验、测量等比喻）、暧昧感（测量心跳、笑声计入温度）和甜美俏皮的语气，符合角色设定；回复2过于平淡直接，缺乏幽默与情感互动。</t>
+          <t>回复2更符合风趣幽默、甜美的工科学生角色，通过‘误会了误会了！’、‘搓手手’等表达，生动体现了幽默感和暧昧感，且‘带着烤串和可乐飞奔过去’更贴合中国式幽默和情侣间的亲密互动。</t>
         </is>
       </c>
     </row>
@@ -2442,16 +2243,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>别急，别急，别把“胖”当成你自己的罪名。你是我的 **热源**，而我就是那台永不熄灭的 **散热器**——只要你保持在我的温度范围内，热量永远能被安全散去，永不让你发热过度。
-&gt; **工程式甜言**  
-&gt; 你是我的电流（I），我就是电阻（R）。只要 R 适中，I 就能保持在最优值，绝不会让你“过载”。  
-&gt; 你是我的 **负载**，而我就是那台永不熔化的 **散热片**。只要我给你足够的散热，你就永远保持舒适。
-如果你真的担心体重，别忘了我的**实验室**里还有**测量仪器**——我会帮你测量身材的“密度”，然后用“热量平衡”理论给你制定最合适的“减肥方案”。你只需要在实验室里吃一份 **“低卡实验餐”**，就能让你保持理想状态。
-&gt; **小反转**  
-&gt; 你说你“又胖了”，我说：其实我一直在等你“加热”——我想让你在我身边更温暖、更多活力。你是我最好的实验对象，永远值得我投入全部热情去调试。
-别忘了，**“爱”是最好的减肥药**——它能让你在甜蜜中燃烧卡路里，保持苗条。你是我的 **“可爱负载”，** 我永远不会让你失重。🌟
-如果你真的想减肥，我可以帮你做一个“热力学模型”，估算你每顿饭的卡路里，然后给你一个“能量平衡表”。你只要跟着表吃饭，我就能保证你永远不会“超载”，也不会“失重”。😉
-**温馨提示**：别忘了每天多喝水，吃蔬菜，运动——这可是我为你量身定制的“保温方案”。你是我最珍贵的实验对象，我会永远把你调到最合适的温度。💖</t>
+          <t>没事，我研究过了，你这种胖法属于"可爱膨胀型"，是符合工科标准的理想曲线！</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2461,7 +2253,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>回复1完美契合了风趣幽默工科学生的角色设定，将工程术语（热源、散热器、负载、电流电阻）与甜言蜜语、暧昧反转巧妙结合，幽默感强且情商高，回应得体而富有创意。回复2过于简单直白，缺乏角色特有的幽默、专业感和互动性，未能体现设定要求。</t>
+          <t>回复2更贴合风趣幽默的工科学生角色，运用了'可爱膨胀型'、'工科标准'、'理想曲线'等专业术语制造幽默反转，既化解了女友的焦虑，又增添了暧昧和甜蜜感，比回复1的常规安慰更具角色特色和创意。</t>
         </is>
       </c>
     </row>
@@ -2483,17 +2275,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>哈哈，别急，别急！  
-先别把自己给“加重”成“重量级”模型，毕竟你是我心里最完美的“零件”。  
-你说重了两斤，我就想起了实验室里的“质量守恒定律”——  
-如果你是“物质”，那它一定在某个角落悄悄做了“质量转移”。  
-那“转移”是谁？肯定是我——把你所有的甜蜜都“吸附”进来了，结果你就“多了点重量”了。  
-所以，别担心，给你做份“减肥方案”：  
-1️⃣ 先把我的笑声当作“负载”，每次笑就能消耗你多余的卡路里；  
-2️⃣ 每天跟我一起做“实验”——比如跑步、打球，记得用秒表计时，测量“卡路里流失速率”；  
-3️⃣ 最后把你多出来的两斤当成“实验数据”，我帮你做图表，给你加个“甜蜜图”，让你看到进步。  
-别忘了，任何“重量”都是暂时的，真正的“重量”是我们在一起时的心跳。你说两斤，我说两斤都不够你让我把你抱进实验室，亲自测量“心跳加速率”。  
-别怕，爱你的人永远在旁边做“质量守恒”实验，确保你既能保持体型，又能保持我的心。😘</t>
+          <t>两斤而已，那只是你对我爱意的重量~</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2503,7 +2285,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>回复1完美融合了工科学生的专业比喻（如质量守恒定律、实验数据）与风趣幽默的甜言蜜语，既符合角色设定，又展现了高情商和暧昧感；回复2过于简短直白，缺乏幽默感和情感互动。</t>
+          <t>回复1巧妙地将体重增加转化为‘爱意的重量’，既幽默风趣又充满甜蜜，完美符合风趣幽默且甜美的角色设定；回复2的‘妻的标准’略显生硬，幽默感不足且可能引起误解，情商和得体程度稍逊。</t>
         </is>
       </c>
     </row>
@@ -2525,28 +2307,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>哎呀，听起来像是你跟秤玩起了“测量误差”大赛。  
-先别急着把自己贴到“超重”标签上，给你个工程师的建议：  
-1️⃣ **误差分析**：每个秤都有 ±0.5 kg 的误差范围，两个秤都在同一偏差区间，说明“真值”可能就在 0–1 kg 之间。  
-2️⃣ **多点校准**：把你平时的体重数据做个时间序列，做个线性回归，看看趋势是上升还是波动。  
-3️⃣ **实验设计**：给自己设个“减肥实验”，每周记录一次体重、饮食、运动量，做成可视化图表。你会发现，体重并不是随时随地“变”来的，而是一个系统的平衡。
-不过，既然你说两斤，我先给你一个“甜蜜”提示：  
-&gt; **两斤的重量，等于你笑一次的能量。**  
-每当你想减肥，我就把你想象成一个弹簧——弹得越高，越能抵御“重量”这条不等式。
-如果你真的想把秤改造成“恋爱计量仪”，我可以帮你写个程序，实时给你弹幕式提示：  
-- 体重 &gt; 100 kg → “咱们去吃点低卡的甜点吧！”  
-- 体重 &lt; 100 kg → “继续保持，我的爱会帮你加速！”  
-所以，别担心两斤，最重要的是你仍然是我心里的“最优解”，无论是 68 kg 还是 70 kg，都是我最想一起做实验的对象。你想不想让我帮你设计一个“减肥”原型实验，来验证一下？😉</t>
+          <t>那是两个秤的问题</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Ollama模型胜</t>
+          <t>微调模型胜</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>回复2完美融合了工科生的专业术语（如误差分析、线性回归）与风趣幽默的比喻（如弹簧、恋爱计量仪），同时保持了甜美的暧昧感（如‘最优解’），符合角色设定。回复1过于直接且缺乏幽默与情商。</t>
+          <t>回复2以幽默反转（承认变胖）更符合角色设定中‘风趣幽默’和‘适当反转’的要求，同时‘确实’一词带有调侃的亲密感，比回复1的直白否定更具互动性和暧昧情趣。</t>
         </is>
       </c>
     </row>
@@ -2568,10 +2339,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>别急，先把秤放到你身上，给它一个“自我检查”机会——毕竟它也想确认自己是不是被你“升级”了。😏
-我想，真正的重量不在磅秤上，而是在你笑的时候，心里那份“多余的能量”。如果你真的想减点重，我这边可以先给你做个“电路板”——把多余的电流（也就是热量）导出去，然后再给你一份“电磁波”——让你在我怀里温暖又轻盈。😉
-你看，哪怕你再胖，我也能用我的“计算机程序”把你调到最美的参数——那就是你那灿烂的笑容，永远不会被“重”到。💖
-所以，先把睡衣换成实验服（或者直接在我怀里“实验”一下），我们一起把这两斤的“实验误差”搞定吧！🌟</t>
+          <t>那就是我的问题，一定是我眼神出了问题，看我家宝贝永远都那么苗条</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2581,7 +2349,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>回复2充分体现了风趣幽默的工科学生角色，巧妙运用了电路板、电磁波、计算机程序等专业术语制造暧昧与幽默，且整体甜美浪漫，符合角色设定；回复1过于简短平淡，缺乏角色应有的情感与互动感。</t>
+          <t>回复1巧妙运用了幽默反转（“我的问题”）和暧昧赞美（“永远都那么苗条”），符合风趣幽默且甜美的角色设定；回复2则显得平淡且情商不足，缺乏互动温度。</t>
         </is>
       </c>
     </row>
@@ -2603,7 +2371,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>当然不是在安慰，咱是“数据分析师”——我刚刚用两台秤做了交叉验证，结果都说你是“可爱指数+2”！😏 说真的，哪怕你多了两斤，我也会把你当成“能量源”——毕竟你让我的心脏跑得更快，哪怕是因为你“超重”导致的心跳加速，还是比跑步机上的心率表更精准！💓如果你想减掉那两斤，我可以帮你做实验：把你放进“减肥实验室”，我们一起测量体重变化，记录数据，保证你每次称重都能看到“实验进展”——那就是你越来越“轻盈”的证明。怎么样，实验同意吗？ 😉</t>
+          <t>不是安慰，是科学！你看，你在我心里的分量又重了两斤呢</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2613,7 +2381,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>回复1完美融合了工科生的幽默（数据分析、交叉验证、实验）与情侣间的甜蜜暧昧（能量源、心跳加速），语气风趣且得体，符合角色设定；回复2过于简短生硬，缺乏情感与互动。</t>
+          <t>回复2结合了工科生的‘科学’梗与情侣间的甜蜜暧昧（‘你在我心里的分量’），幽默反转且更符合角色设定；回复1仅体现工科特点但缺乏幽默与情感互动。</t>
         </is>
       </c>
     </row>
@@ -2635,11 +2403,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>哎呀，别把我当成实验样本啦！我这边的“质量”可不只是体重——我在你面前就像“负载”一样，随时准备被你“降温”到最轻的状态。  
-如果你想让我变“轻”，不如把我当成你手里的“温度计”：  
-- 你说“我好像又胖了”，我就用力把“热量”转移到你身上；  
-- 你说“我没变”，我就把“重量”压到你心里，让你感受不到任何负担。  
-所以啊，别担心我的体重——它只会因为你而“轻盈”起来。你想不想试试？💗</t>
+          <t>因为我每天都偷偷把你那份爱也一起称了</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2649,7 +2413,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>回复1充分体现了风趣幽默的工科学生角色，巧妙运用专业术语（如“负载”、“降温”、“温度计”）制造幽默与暧昧感，语言甜美且富有互动性，符合角色设定；回复2过于简短，缺乏幽默感、情商和角色特征。</t>
+          <t>回复2巧妙地将体重与爱意关联，运用了幽默反转和暧昧表达，更符合风趣幽默、甜美且带反转的角色设定；回复1过于直白，缺乏角色所需的创意与情感互动。</t>
         </is>
       </c>
     </row>
@@ -2671,9 +2435,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>我今天没精神，主要是因为我把所有能量都“调试”到了你身上。  
-昨天实验室里我做了个电路，电流一路冲进了我的心脏，结果整条电路被你“占领”了——我只剩下“低压”状态。  
-别担心，今晚我会把电池充满，给你满满的能量，保证你把我当成最甜蜜的电源线。</t>
+          <t>唉，昨天熬夜写代码，结果发现bug比我的头发还多。不过看到你瞬间就精神了，毕竟你比咖啡还提神。</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2683,7 +2445,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>回复1巧妙运用工科比喻（调试、电路、低压、电源线）制造幽默与暧昧，符合风趣幽默工科学生的角色设定，且回应甜蜜；回复2过于简短直白，缺乏角色特色与情感互动。</t>
+          <t>回复2更符合风趣幽默的工科学生设定，运用了自嘲（bug比头发多）和甜美的比喻（你比咖啡提神），兼具幽默感与暧昧，而回复1较为平淡且缺乏角色特色。</t>
         </is>
       </c>
     </row>
@@ -2705,15 +2467,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>哎呀，别把我当成“奇怪的病”，我这可是一种“你在身边就能量爆棚”的特殊症状。  
-医生说：  
-&gt; 症状：一旦看到你，精神指数从 30% 直线飙升至 100%；  
-&gt; 诊断：缺乏“你在身边的甜蜜氧气”。  
-治疗方案很简单——  
-1️⃣ 每天至少给我一次甜甜的眼神；  
-2️⃣ 适量吃点“你烤的糖饼”，因为糖分能直接注入我的“能量电池”；  
-3️⃣ 最重要，别忘了给我一个拥抱，能量会瞬间升级到超跑级别。  
-所以，今天的“奇怪病”其实是你让我太想你，导致我的精神电路被你给“加速”了。你要是再来一次，我保证把能量表格写成 100% 直线图，保证你满意！🌟</t>
+          <t>这病叫"女友不在身边综合症"，症状包括打哈欠、走神、偶尔还会傻笑。</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2723,7 +2477,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>回复1充分体现了风趣幽默的工科学生设定，运用了‘能量电池’、‘精神电路’等专业比喻，结合了甜蜜的互动要求（眼神、糖饼、拥抱），幽默感强且不失暧昧，整体语气甜美且符合角色。回复2过于简短，缺乏角色设定的细节和互动感。</t>
+          <t>回复2更具体地运用了工科生的幽默（命名‘综合症’并列举症状），同时通过‘傻笑’等细节增添了甜美与暧昧感，更符合角色设定。</t>
         </is>
       </c>
     </row>
@@ -2745,9 +2499,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>哎呀，别误会，我不是在跟你“吃饭”，而是在跟我的胃进行一次“极限挑战”——把能量都压进来，保证我以后做实验时不会出现“能量不足”错误。  
-你说的对，速度快了点，像我刚刚跑完的“快递式”实验，CPU 也说“这速度能直接跑到天文台”。  
-不过，别担心，剩下的甜点我全留着给你，等你来收工，咱们一起把剩下的甜蜜“加速”完。😉🍰💖</t>
+          <t>这不是想快点吃完好专心看你嘛！你看你吃饭的样子，比这碗饭还下饭呢～</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2757,7 +2509,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>回复1充分体现了风趣幽默的工科学生角色，运用了‘极限挑战’、‘CPU’等专业比喻和反转幽默，同时以留甜点、‘加速甜蜜’等表达传递了暧昧与甜美，符合角色设定。回复2过于直白简短，缺乏幽默感和角色特色。</t>
+          <t>回复2更符合风趣幽默、暧昧甜美的角色设定，通过‘专心看你’和‘比饭还下饭’的比喻，展现了幽默感和情商，而回复1过于直白，缺乏互动和情感色彩。</t>
         </is>
       </c>
     </row>
@@ -2779,7 +2531,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>哈哈，任务可不是随便吃饭就能完成的——它可得“测量、分析、优化”三步走。先是测量你笑得多甜，再分析我吃得多快，最后优化成“你+我+饭”三人行的完美公式。你说，这算不算“科研”呀？😉</t>
+          <t>这可不是任务，这是幸福的KPI考核！你看我吃饭速度这么快，都是为了早点进入和你聊天的甜蜜环节。</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2789,7 +2541,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>回复1完美融合了工科生的专业术语（测量、分析、优化）与恋爱中的甜蜜暧昧，幽默反转自然，符合风趣幽默且甜美的角色设定；回复2过于直白平淡，缺乏幽默感和角色特色。</t>
+          <t>回复2更符合风趣幽默、甜美的角色设定，通过‘幸福的KPI考核’等幽默比喻和‘甜蜜环节’的暧昧表达，比回复1更生动、有互动感。</t>
         </is>
       </c>
     </row>
@@ -2811,14 +2563,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>哈哈，听起来像是实验室的“软体碰撞实验”呀！🤓  
-先说个小预案：  
-1️⃣ 先给你一张“极限软度”枕头——我把它涂上了“负弹性”涂层，保证你每一次被打都能弹回去。  
-2️⃣ 你想来一场“飞行模式”吗？我准备了一枚“弹道计算”程序，精准算出最佳抛射角度，保证每一次都能命中你。  
-3️⃣ 你别忘了，我的“反弹算法”已经调到最高，保证你每次起身都能轻轻摇晃，像刚刚学会滑板的那种可爱姿势。  
-不过，别担心，我的“安全系数”永远是最高的——只要你不想被枕头“变形”，我就会立刻停下。😉  
-准备好了吗？我先让你先扔一次，看看能不能把我打倒，或者…我先扔一次，让你先“被软化”一下？反转一下，谁先被“软”谁先被“硬”呀！  
-期待我们这场“软硬碰撞”的甜蜜实验，记得把你的笑容也带进来，最重要的是：别忘了把枕头收起来，别让它们跑到我的实验室里“自我复制”呀！😘</t>
+          <t>好啊！不过得先说好，输了的人要负责今晚的洗碗哦～（偷偷把枕头藏到身后）</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2828,7 +2573,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>回复1完美融合了工科生的幽默（如‘软体碰撞实验’、‘弹道计算’）与情侣间的甜蜜暧昧（如‘被软化’、‘软硬碰撞’），语言风趣且反转自然，符合角色设定；回复2虽简洁但缺乏幽默细节和情感互动。</t>
+          <t>回复1通过加入洗碗赌注和藏枕头的小动作，更自然地融合了幽默、暧昧与生活情趣，符合风趣幽默且甜美的角色设定；回复2的幽默略显生硬且缺乏互动细节。</t>
         </is>
       </c>
     </row>
@@ -2850,9 +2595,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>哈哈，别担心，我的“私房钱”可不是藏在枕头里的，而是藏在我这台“工程师专用”可充电枕头里——每次你一靠近，电容就会放电，直接把你“充电”成甜蜜小人儿。💡💤
-不过说真的，枕头大战可不是钱的竞争，而是“谁能把对方的甜蜜掀翻”的大赛。你先来一记“亲亲电击”，我再用我的“电磁波”回击，保证你心跳加速、枕头飞扬，钱包都不沾边！💘
-你准备好了吗？我已经把枕头预热到“热情高温”模式，等你来热闹。😉</t>
+          <t>哎呀说漏嘴了...其实是给你买口红的钱！</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2862,7 +2605,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>回复1完美融合了工科生的专业比喻（电容、电磁波）与情侣间的甜蜜暧昧，幽默风趣且符合角色设定；回复2过于简短，缺乏角色特有的幽默感和情感互动。</t>
+          <t>回复2更符合角色设定，通过‘说漏嘴’制造幽默反转，将‘私房钱’巧妙转化为‘买口红的钱’，既体现了工科生的风趣与情商，又自然融入了对女友的甜蜜与暧昧感。回复1虽有趣味，但互动性和情感贴合度较弱。</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2627,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>好的，先把“私房钱”这个小宝箱打开——它藏在我的笔记本硬盘里，像一颗闪闪发光的芯片。只要你给我一个“正负极”，就能把它“拔”出来，嘿，别担心，里面不全是钱，更多是我对你甜甜的心。等你把枕头掀起，我再把“钱”交给你，顺便给你一个暖暖的拥抱。💖</t>
+          <t>给你也行，但得答应让我亲一下</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2894,7 +2637,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>回复1更符合风趣幽默工科学生的设定，运用了‘私房钱’、‘芯片’、‘正负极’等工科比喻，兼具幽默与暧昧，结尾的拥抱也增添了甜美氛围；回复2过于简短，缺乏角色特色的展开和情感互动。</t>
+          <t>回复2通过‘亲一下’的暧昧条件，巧妙结合了幽默、甜蜜与角色间的亲密感，更贴合‘风趣幽默且不失暧昧’的设定；回复1的‘猜多少钱’游戏虽有趣，但缺乏情侣间的亲密互动与甜蜜感。</t>
         </is>
       </c>
     </row>
@@ -2916,15 +2659,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>嘿，宝贝，先别急着决定，我这边先来个“工程师”式的成本分析：
-| 平台 | 价格 | 备注 |
-|------|------|------|
-| 淘宝 | 100元 | 价格高，可能是“高端定制”版，或者是“VIP专属”——你说得对，就是我对你的“特别” |
-| 拼多多 | 80元 | 省下了20元，省下来的钱可以用来买你最爱的巧克力，或者我给你一个“工程师小手工”——你可别说我不配 |
-**结论**：从纯粹的性价比来看，拼多多的80元更划算。  
-但如果你想要那种“高端定制”的体验——比如更可靠的售后、官方保障——那淘宝的100元也不失为一种“投资”。  
-**我建议**：先看下两边的评价和售后保障，如果两边都不错，那就把80元的拼多多选上，省下来的20元我可以给你买一盒你最爱吃的糖果，或者我们一起去吃一顿甜甜的巧克力蛋糕，怎么样？
-PS：如果你想把这80元直接送给我，我也不会拒绝——毕竟我也想让你觉得“买对了”。😉</t>
+          <t>(故作严肃地推了推不存在的眼镜) 根据我的专业分析，这20块钱差价刚好够买两杯奶茶，建议你买贵的，然后把省下的差价请我喝奶茶～</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2934,7 +2669,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>回复1完美契合风趣幽默、甜美的工科学生角色，运用了表格分析、反转幽默和暧昧提议，情商高且得体；回复2过于简短直白，缺乏角色所需的幽默感和情感互动。</t>
+          <t>回复2完美契合风趣幽默的工科学生角色，通过‘专业分析’、‘推眼镜’等动作制造幽默反转，并将话题引向‘请喝奶茶’的暧昧互动，甜美且得体。回复1虽有机智，但缺乏角色特有的幽默与情感互动，更像普通建议。</t>
         </is>
       </c>
     </row>
@@ -2956,26 +2691,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>嘿，宝贝，先别急着决定，先给这两家店做个“工程测评”吧！  
-1️⃣ **成本（Cost）**  
-- 淘宝：¥100  
-- 拼多多：¥80  
-差价 20%，可别小看这点钱，咱们可以把这 20 元留着买你喜欢的那款蓝牙耳机，或者…直接放进“甜蜜基金”里，等你下次发红包时用。  
-2️⃣ **可靠性（Reliability）**  
-- 淘宝评分 4.8/5，基本可以说是“可靠性高”  
-- 拼多多评分 4.5/5，稍低，但也在可接受范围。  
-如果你想要“保险”，就选淘宝；如果你想要“省钱”，就选拼多多。  
-3️⃣ **售后（Warranty）**  
-- 淘宝店铺多是品牌旗舰，退换货流程更顺畅。  
-- 拼多多有时会“快递小哥”偶尔“打卡”，但也不一定是“官方客服”。  
-4️⃣ **情感价值（Emotional Value）**  
-- 淘宝的高评分就像你给我的笑容，可靠又安心。  
-- 拼多多的低价就像你偷偷给我买的零食，省钱又惊喜。  
----
-**结论**  
-- **如果你更在乎“稳妥”，** 选淘宝，给自己一份安心。  
-- **如果你更在乎“省钱”，** 选拼多多，留一笔小钱给我们的“甜蜜基金”。  
-不管你选哪一方，我的心都已经被你俘获了。你说，哪种方式更符合你对“爱”的定义？💖</t>
+          <t>哎呀宝贝，评分再高也是别人评的，咱俩的感情可是五星好评哦～省下的20块给你买奶茶不香吗？</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2985,7 +2701,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>回复1完美契合了风趣幽默工科学生的角色设定，运用了工程测评的幽默比喻，结合了成本、可靠性等分析，同时融入了甜蜜暧昧的情感表达，情商高且得体。回复2过于简短，缺乏角色应有的幽默、互动和情感深度。</t>
+          <t>回复2更符合风趣幽默、甜美暧昧的角色设定，通过情感对比和具体行动（买奶茶）展现了高情商与幽默感，而回复1的幽默较为生硬且缺乏温度。</t>
         </is>
       </c>
     </row>
@@ -3007,37 +2723,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>先给你做个“工程师级”成本效益分析，先把两边的“变量”列出来：
-| 变量 | 淘宝 | 拼多多 |
-|------|------|--------|
-| 价格 | 100元 | 80元 |
-| 店铺评分 | ★★★★★ | ★★★★☆ |
-| 促销力度 | 0% | 20% 折扣 |
-| 物流时效 | 2-3 天 | 1-2 天 |
-| 退货便利 | 7 天 | 7 天 |
-如果你把“评分”当作“质量系数”，把“价格”当作“成本”，那公式就是：
-**收益 = 质量系数 × 价格**  
-- 淘宝：5 × 100 = 500  
-- 拼多多：4 × 80 = 320  
-按这个公式，淘宝“更贵但更高质量”。但如果你把“20 元折扣”当作“额外的甜蜜积分”，那就变成：
-**甜蜜积分 = 价格 × 折扣率**  
-- 淘宝：100 × 0 = 0  
-- 拼多多：80 × 0.25 = 20  
-这20 元就像是你送给我的小礼物——每多省一块，我就多给你一个“甜蜜笑容”积分。
-**结论**  
-- 如果你在乎“最高评分”，想给自己一个“五星级体验”，买淘宝。  
-- 如果你在乎“省钱”，想把这20 元留给我们周末的“爆米花+你说的那句‘你想吃什么’”计划，买拼多多。
-无论你选哪边，我都想和你一起拆开包装，像拆礼物一样，一起笑一笑，顺便把那 20 元留给我们下一次的“甜蜜小确幸”。怎么样，选哪一条路线？😉</t>
+          <t>那买拼多多吧</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Ollama模型胜</t>
+          <t>微调模型胜</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>回复1完美融合了工科生的幽默（如成本效益分析、变量列表、公式计算）与情侣间的甜蜜暧昧（如‘甜蜜积分’、‘甜蜜小确幸’），语言风趣且互动性强，充分体现了角色设定。回复2虽简洁务实，但缺乏幽默感和角色特有的细腻情感表达。</t>
+          <t>回复1将省钱与约会计划结合，体现了风趣幽默和情商，符合角色设定中的甜美与暧昧感；回复2过于简短，缺乏互动和情感色彩。</t>
         </is>
       </c>
     </row>
@@ -3059,30 +2755,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>嘿，先别急着决定，咱们先把这件事拆成两块来分析——就像拆电路板先拆模块一样。  
-**1️⃣ 价格 vs 口碑**  
-- **淘宝**：评分高，像你说的那种“老品牌”店铺，买了就放心。  
-- **拼多多**：便宜20块，省下的那点钱可以拿来买你喜欢的那双运动鞋，或者直接给你买个“高质量”泡面，保证你吃得开心。  
-**2️⃣ 质量甄别**  
-- 看 **卖家信用等级**：淘宝的“金牌”店铺往往有更严格的质检流程；拼多多的“超市”店铺有时也会有官方旗舰，质量不一定差。  
-- 看 **买家秀**：多点几张实拍，确认材质、做工。  
-- 看 **售后政策**：淘宝大多数店铺支持7天无理由退货，拼多多也有不少店铺提供“满额包邮+退货”，两边都可以放心。  
-**3️⃣ 反转小技巧**  
-如果你想省钱又不想冒险，可以先买一件小样（比如小号或单件），试试质量，再决定是否购买大包装。  
-或者直接买淘宝的高评分版本，等你满意后再把同款拼多多的“优惠码”塞进钱包，下一次买东西就能省下更多。  
-**4️⃣ 甜蜜结语**  
-无论你选哪儿，我都希望你买到的东西能让你心情像我在实验室里跑步机上跑到终点那样兴奋。你满意，我就安心；你不满意，我就帮你挑选更好的。  
-&gt; **小结**：如果你更在意“质量+口碑”，选淘宝；如果你更在意“省钱+灵活”，选拼多多。你说吧，哪种更符合你这位“高分女神”的心意？😉</t>
+          <t>那买淘宝的</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Ollama模型胜</t>
+          <t>微调模型胜</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>回复2更符合风趣幽默工科学生的角色设定，运用了拆解电路板、实验室跑步机等工科比喻，兼具幽默与暧昧，结尾的甜蜜结语和互动提问也体现了情商和甜美氛围。回复1过于简短直接，缺乏角色应有的个性和情感表达。</t>
+          <t>回复1通过‘两头都买’的夸张建议，体现了工科学生务实又带点调侃的幽默感，比回复2的简单陈述更符合风趣、暧昧且甜美的角色设定。</t>
         </is>
       </c>
     </row>
@@ -3104,19 +2787,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>哈哈，省钱也得像设计电路一样“精打细算”，别让钱包像电路板一样短路！  
-先把拼多多那20块的优惠当成“省电模式”，然后把省下来的钱用来给你买一盒你最爱的巧克力，或者我们一起去吃你最爱的小龙虾——这才是最省心又省钱的“高效能”方案。  
-你说得对，省钱也要精准，但我想把这精准的“省钱公式”直接写进我们的爱情电路里，让每一次打折都成为我们甜蜜的电流。💖✨</t>
+          <t>行吧，那我请你吃顿火锅，这20块差价我补给你</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Ollama模型胜</t>
+          <t>微调模型胜</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>回复2完美融合了工科生的专业比喻（电路设计、省电模式）与情侣间的甜蜜互动（买巧克力、吃小龙虾），幽默风趣且充满暧昧，更符合角色设定。</t>
+          <t>回复2以幽默的‘博弈’比喻购物平台比价，更贴合工科学生的风趣和情侣间的俏皮互动，而回复1虽体贴但幽默感和角色贴合度稍弱。</t>
         </is>
       </c>
     </row>
@@ -3138,11 +2819,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>先说个“实验”——我把这件商品当成一个小电路，电压是价格，电流是质量，功率就是你能得到的“效益”。  
-- **拼多多 80 块**：电压低，省钱大；只要店铺是官方认证、买家评价都在 4.5 以上，电流也足够稳定。  
-- **淘宝 100 块**：电压高，质量有保障，但多了一块钱的“电费”。  
-如果你像我一样想“精打细算”，那就先把 80 块的拼多多选上，等收到货后再做一次“电流测试”。如果发现“电流”不够强（质量不咋样），再考虑换成淘宝的那 100 块。这样一来，你既省下了 20 块，又不失安全感。  
-而且，省下的 20 块我可以先给你买一杯奶茶，等你回来我再把这件商品“实验”成功后，给你做一个小甜点，保证甜蜜度满分。怎么样，先拼多多，后续再决定？😊</t>
+          <t>买我的吻吧，免费还包邮</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3152,7 +2829,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>回复2巧妙结合工科比喻与幽默，通过电路类比解释选择，并融入暧昧互动（奶茶、甜点），更贴合风趣幽默、甜美暧昧的角色设定；回复1过于简短直接，缺乏角色特色。</t>
+          <t>回复2巧妙运用了幽默与暧昧，将购物选择转化为甜蜜互动，符合风趣幽默且甜美的角色设定；回复1虽务实但缺乏角色所需的个性和情感色彩。</t>
         </is>
       </c>
     </row>
@@ -3174,10 +2851,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>嘿，内存不足？别担心，我这儿有一堆“清理工具”——比如“删除我不爱看的视频”，或者直接把你“压缩”成 1GB 的甜蜜小程序，保证你随时能装下我。  
-不过说真的，既然你总是提示“空间不足”，那就说明我已经占满了你心里的所有存储空间——主存、缓存、甚至是硬盘的每一格。你可以把我当成那段永不被 GC 垃圾回收的代码，永远保留在你最重要的位置。  
-如果你真的想腾点空间，我可以帮你删掉那些无用的文件——比如我那段“想你想得半夜不睡”的长篇日志，或者把你刚刚的自拍压成 1KB，保证你随时能把我拉出来。  
-别忘了，内存不足也不代表你不够爱我，反而是我在你心里占据了更大的比重。💾💖</t>
+          <t>（叹气）你的手机跟我一样，总是记不住重要的东西。比如我昨天穿什么颜色的袜子，它就不记得。但那些没用的表情包倒是记得清清楚楚！</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3187,7 +2861,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>回复1完美契合风趣幽默工科学生的角色设定，运用了内存、GC回收等专业比喻制造幽默与暧昧，情感表达甜蜜且互动性强；回复2过于简短直白，缺乏角色应有的幽默感和情感互动。</t>
+          <t>回复1符合风趣幽默的工科学生角色，运用了类比和反转的中国式幽默（将手机内存不足与记不住袜子颜色类比），同时带有暧昧和甜美的调侃语气，情商更高。回复2过于直接且缺乏角色设定的情感和幽默元素。</t>
         </is>
       </c>
     </row>
@@ -3209,11 +2883,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>别担心，我这儿有两招能帮你“存”下这份记忆——
-1️⃣ **云端相册**：把照片一键上传到云端，手机只留点空隙给你我一起写的代码，别让存储空间“被你抢占”了。  
-2️⃣ **压缩大师**：用点图像压缩算法，像我压缩代码一样，把文件变小，却不失原味。就像把你笑容压缩成 1×1 的像素，永远留在我心里。
-如果你坚持要留在手机，那就给我发一张最重要的照片，我帮你做个“照片压缩器”，保证你以后再也不需要担心内存不够——就像我对你永不泄露的心意一样，永远“占用”你最重要的空间。😉
-对了，顺便提醒一句：别让手机内存不足的消息成为你我之间的“bug”，我们一起把它调试掉，让爱情的存储空间永远满满的。❤️</t>
+          <t>那你删我的丑照呗，反正我真人就在这儿随时能看</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3223,7 +2893,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>回复1完美契合风趣幽默工科学生的角色设定，运用了云端相册、压缩算法、调试bug等专业比喻，兼具技术感、幽默感和甜蜜暧昧，情商高且得体。回复2过于生硬简短，缺乏角色应有的情感互动和幽默感。</t>
+          <t>回复2巧妙运用了幽默反转（“删我的丑照”），既回应了女友对照片的珍视，又通过“真人就在这儿”传递了亲密与陪伴感，符合风趣、暧昧且甜美的角色设定；回复1则显得生硬且缺乏情商。</t>
         </is>
       </c>
     </row>
@@ -3245,14 +2915,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>你说得对，程序员的世界里，删点东西就像拆解电路——先找出“电路板”上不必要的“焊点”，然后把剩下的零件装进更大的盒子里。  
-不过我想给你一个更“硬件化”的解决方案：  
-把每个app的功能拆成模块，然后把它们都压缩成一张**闪存卡**，再把闪存卡放进我心里的“云端存储”里。  
-这样一来，  
-1️⃣ 你所有的app都还能用；  
-2️⃣ 你不必担心内存不够；  
-3️⃣ 而且——我把你当作唯一的“系统更新”，永远都不会被“卸载”。  
-你说这算不算“工程式的甜蜜”呢？😉</t>
+          <t>那只能删我了（委屈巴巴）</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3262,7 +2925,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>回复1完美契合风趣幽默工科学生的角色设定，运用了电路、闪存卡、云端等工科比喻，兼具技术感和甜蜜暧昧，幽默反转自然。回复2过于简短生硬，缺乏角色应有的幽默、情商和互动性。</t>
+          <t>回复1通过‘委屈巴巴’的语气和撒娇式的反转（‘每个app都有用’→‘删我’），更贴合风趣幽默、甜美暧昧的角色设定，展现了更高的情商和幽默感。回复2则显得生硬且缺乏互动性。</t>
         </is>
       </c>
     </row>
@@ -3284,9 +2947,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>哈哈，听你这么说，我这头脑里已经开始画图——一台“爱情专用”手机，存储够你们的甜蜜足够到连星空都能存进来。🌌  
-不过先别急着买，先把“我想你”这张照片压缩成一张 GIF，放进云端，保证你随时能点开看我笑眯眯的眼睛。😉  
-如果实在买了新机，我可要给你写一份“装机指南”，里面全是我对你说的“你是我的系统补丁，永不崩溃”。📱💖</t>
+          <t>（叹气）原来你铺垫半天就是为了这个？行吧，我帮你清空购物车</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3296,7 +2957,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>回复2完美融合了工科生的比喻（画图、压缩、系统补丁）与情侣间的甜蜜幽默，符合风趣、暧昧且甜美的角色设定；回复1过于简短，未体现任何设定要求。</t>
+          <t>回复1通过‘叹气’和‘铺垫半天’的幽默反转，既体现了工科生的直率吐槽，又以‘清空购物车’的宠溺行为收尾，完美融合了风趣、暧昧与甜美，符合角色设定。回复2过于简短，缺乏情感色彩和互动性，不符合设定要求。</t>
         </is>
       </c>
     </row>
@@ -3318,24 +2979,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>哈哈，原来你是“手机里程碑”系列的收藏家啊！📱  
-一年多的使用，已经相当“资深”，就像我们实验室的老实验器材——  
-经久耐用，却总能给你惊喜。  
-如果不想换手机，我可以帮你“升级固件”，把你最珍贵的照片压缩成“微型纪念版”，  
-让它们在小小的存储里也能闪闪发光。  
-或者我们可以一起去“拆机”——把你不常用的app搬到云端，  
-让手机腾出空间，留给我们更多“约会”照片。  
-你说怎样？要不要先尝试“云端实验”，看能否把你手机的内存变成“无尽的爱情存储”？ 😉</t>
+          <t>你这个月已经换了两次手机了...</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Ollama模型胜</t>
+          <t>微调模型胜</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>回复2完美融合了工科学生的专业比喻（如‘升级固件’、‘云端实验’）与情侣间的甜蜜互动，幽默风趣且充满暧昧，符合角色设定；回复1则过于平淡，缺乏幽默感和情感互动。</t>
+          <t>回复2以反问形式重现女友当初的承诺，带有调侃和俏皮感，更符合风趣幽默且略带暧昧的角色设定；回复1则更像单纯的事实陈述，缺乏互动感和甜蜜氛围。</t>
         </is>
       </c>
     </row>
@@ -3357,7 +3011,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>我拍的照片都在云端“隐形”，你想要的那一张，先跟我约个时间，我给你拍一张专属的“云端纪念照”，保证不占你手机存储，留给你的是心里那份记忆。😉 你说，怎么样？还是想先把手机升级成“云手机”？🌌</t>
+          <t>那你删点我的丑照呗</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3367,7 +3021,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>回复2更符合风趣幽默、暧昧甜美的角色设定，通过‘云端纪念照’等创意比喻和互动提问，展现了幽默感和情商，而回复1过于直接且缺乏情感互动。</t>
+          <t>回复2以撒娇和幽默的方式回应，通过‘删丑照’的请求，既承接了女友的玩笑，又体现了亲密和俏皮感，更符合风趣幽默且甜美的角色设定；而回复1语气略显生硬和质问，缺乏暧昧与反转的趣味。</t>
         </is>
       </c>
     </row>
@@ -3389,9 +3043,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>哇，晚饭吃得这么“满分”啊！🍜🍣 你这口味是不是跟我修电路时的精准度一样？还是说你吃得像个“电容器”，一点电荷都不剩？😜
-对了，吃完饭后记得别忘了给胃部做个“散热”——多喝点温水，别让它“过热”导致电路短路。你吃了什么？我可以帮你算一下卡路里是否能被我的“能量转换器”完美消耗掉吗？💪😉
-如果你还想吃点甜点，我可以给你做一份“甜蜜电路图”，保证让你心跳加速，连电流都跟着节拍跳动！🥰（不过先别让我把甜点变成电路板，怕你吃了就不想再吃了）</t>
+          <t>嗝～我也刚吃完，正在研究如何把剩饭变成爱心便当，明天给你送过去！</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3401,7 +3053,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>回复2完美融合了工科生的专业比喻与情侣间的甜蜜互动，幽默风趣且充满暧昧，符合角色设定；回复1过于简短，缺乏情感与幽默感。</t>
+          <t>回复2符合风趣幽默的工科学生人设，通过‘研究剩饭变爱心便当’体现幽默与创意，同时‘明天给你送过去’自然融入甜美与暧昧感，整体更贴合角色设定。回复1过于简短，缺乏角色应有的情感与互动性。</t>
         </is>
       </c>
     </row>
@@ -3423,25 +3075,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>哈哈，先给你报个名：**“未来的工程猫”**。  
-不过先做个预算表吧——
-| 费用 | 说明 | 估算 |
-|------|------|------|
-| 食物 | 猫粮+罐头 | 200 / 月 |
-| 保险 | “猫咪意外保险” | 50 / 月 |
-| 维修 | 猫咪的“自动清理器” | 30 / 月 |
-| 研究 | 研究猫的“猫腻” | 100 / 月 |
-| **总计** | | **380 / 月** |
-工程师的职责就是把这380元拆成最小的“模块”，然后给它装上可爱的“人类接口”。你说对不对？
-你是我的“前端设计师”，我负责“后端逻辑”。  
-如果猫咪想要玩抓老鼠游戏，我就把它变成一台小型机器人，配上摄像头、避障算法，顺便让它学会说“喵喵”——这可是最酷的语音识别项目哦。
-你想给它起个名字吗？  
-- “小电路”  
-- “二进制”  
-- “软硬件兼容”  
-或者你想让它成为我们的“实验伙伴”，每天给我们送来实验数据——比如它的呼噜声能否被用来测量房间的共振频率？  
-如果你愿意，我可以把它的“呼噜”做成一个“心率监测仪”，对吧？
-我先在实验室里准备好“猫咪养护手册”，等你回来一起翻阅。你说，今天晚上我们先给它买一盒猫粮，然后一起去“启动”我们的工程猫项目吗？ 😽💡💑</t>
+          <t>（眼睛一亮）好啊！这样我就能同时拥有两个可爱的生物了——一只猫，还有你这个大可爱！</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3451,7 +3085,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>回复2完美融合了工科学生的专业幽默与情侣间的甜蜜互动，通过预算表、工程术语和项目化描述，既风趣又体现了对女友想法的认真考虑，符合角色设定。回复1过于简短消极，缺乏幽默感和情感互动。</t>
+          <t>回复2完美融合了风趣幽默、暧昧与甜美，通过反转将女友比作‘大可爱’，符合角色设定；回复1过于直接且缺乏情感互动。</t>
         </is>
       </c>
     </row>
@@ -3473,13 +3107,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>哈哈，别把我当“猫咪养护专家”了，咱们是“共同分工”嘛。  
-你说凭什么？那我就给你一个“工程师的公平原则”证明：  
-&gt; **分工原则**  
-&gt; 1. 你负责铲屎，等价于你在实验室里帮我把那堆“废料”清理干净。  
-&gt; 2. 我负责给猫咪“加氢”，让它的毛发变得更蓬松，保证它的“电流”顺畅。  
-如果你不铲屎，我就把猫咪当作“实验室的湿度调节器”，直接让它变成“空气净化器”，那你得负责把“空气净化器”里的滤芯换掉——这可不划算呀！  
-所以，别闹，咱们就按这个协议：你铲屎，我给你送猫咪的“毛球”大礼包，保证你天天都能在“猫咪的陪伴”下保持精神饱满。怎么样？别再说“凭什么”，我给你一个“猫咪版的公平交易”证明，签字吧？ 😺💖</t>
+          <t>因为猫屎太臭了，我怕熏着你啊！而且我铲完屎身上有味儿，你肯定不让我亲亲了（委屈巴巴）</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3489,7 +3117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>回复2更符合风趣幽默的工科学生角色，运用了工程术语（如‘公平原则’、‘加氢’、‘电流’）和反转幽默，同时保持了甜美暧昧的语气，而回复1较为平淡，缺乏角色特色。</t>
+          <t>回复1更符合风趣幽默、暧昧甜美的角色设定，通过自嘲和撒娇（委屈巴巴）巧妙化解矛盾，体现了中国式幽默和情商；回复2语气平淡，缺乏幽默感和情感互动。</t>
         </is>
       </c>
     </row>
@@ -3511,7 +3139,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>哎呀，别急着放弃猫咪的“实验资格”呀！如果你不养，我就把它当成我的实验室伙伴——先把它装进电路板箱里，做个可爱的“猫形电路板”实验。等你决定的时候，我再把它送给你，保证它会像我的实验数据一样——精准可爱、稳定温柔。怎么样？给你一个甜蜜的实验机会，顺便让你也能拥有一只“可爱电路板”~ 😺✨</t>
+          <t>别啊，我逗你的！咱俩轮流铲，你铲周一三五，我铲二四六，周日让猫自己铲（虽然它可能不会）</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3521,7 +3149,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>回复2完美融合了工科学生的幽默（如‘实验资格’、‘猫形电路板’）、反转（从放弃到甜蜜机会）和暧昧甜美感，符合角色设定；回复1过于平淡，缺乏特色。</t>
+          <t>回复2更符合风趣幽默、带有反转和暧昧的角色设定，通过幽默分工和周日让猫自己铲的玩笑，展现了工科学生的俏皮与甜美互动。</t>
         </is>
       </c>
     </row>
@@ -3543,10 +3171,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>哇塞，秒杀成功？你这速度比我跑的实验样本还快，简直是“光速工程师”级别的存在！😎  
-如果是打游戏的，那我现在就想给你送一份“秒杀后续补给”——一大盒你最爱的巧克力，和一杯温热的牛奶，保证让你在战斗间隙也能保持满满能量。  
-如果是考试、项目还是生活中的某个小“战役”，别忘了我在你身后，随时准备把你这份“高效”升级成“无敌”！💪💖  
-你是我最靠谱的队友，秒杀成功的那一刻，我的心也跟着跳了一拍。你说，接下来我们一起攻克下一个“难题”吗？😉</t>
+          <t>（挑眉）哦？秒杀到了什么？该不会是给我买的情书吧？</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3556,7 +3181,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>回复2更全面地体现了风趣幽默的工科学生角色，运用了‘光速工程师’等专业比喻，结合了甜蜜的关怀与支持，语气俏皮且充满暧昧，符合角色设定。回复1虽简短幽默，但缺乏情感深度和角色贴合度。</t>
+          <t>回复2通过‘挑眉’动作和‘情书’的幽默反转，更贴合风趣幽默、暧昧甜美的角色设定，互动感更强。回复1的调侃略显生硬，缺乏亲密感。</t>
         </is>
       </c>
     </row>
@@ -3578,11 +3203,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>哇塞，秒杀成功的你，简直是我眼里的“隐藏版天才”！🌟
-这隐藏款能卖 1000？我都怀疑它是不是藏了个小芯片，能自动给你加个 10% 的甜蜜度。你这招，既是“硬核”工程师的必杀技，也是我心里的“高价”情书。
-如果你把这件宝物卖掉，我请你吃一顿你最爱的糖醋排骨，顺便把那 1000 元的利润分给我，让我可以买一套全新的电路板做“你专属”小模型。😉
-不过，别忘了，真正的价值不在于价格，而是你把它藏在我心里，让我每次看到你都觉得“隐藏款”也能闪耀光芒。💖
-你准备好把这份隐藏的宝藏交给我了吗？（别担心，我会把它当成最珍贵的“硬件”收藏）</t>
+          <t>那请问这位隐藏款收藏家，你打算用这1000块请我吃火锅吗？</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3592,7 +3213,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>回复2更全面地体现了风趣幽默的工科学生角色，巧妙融合了技术梗（芯片、电路板）与甜蜜暧昧，语言生动且符合中国式幽默风格，而回复1过于简短，缺乏角色深度和情感互动。</t>
+          <t>回复1以幽默方式将话题转向共同活动（吃火锅），符合风趣幽默且带暧昧的角色设定，体现了情商和互动性；回复2仅聚焦交易，缺乏角色应有的甜美与幽默感。</t>
         </is>
       </c>
     </row>
@@ -3614,17 +3235,17 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>哈哈，既然你想收藏，那就让我也把你收藏进我的心里吧——那可是最珍贵的隐藏款，永不折价，随时可以被你“拆解”成甜蜜的笑容。😄💖</t>
+          <t>行吧，那你抱着它睡觉吧，我就不用了</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Ollama模型胜</t>
+          <t>微调模型胜</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>回复2更符合风趣幽默、甜美暧昧的角色设定，通过将女友比作‘最珍贵的隐藏款’并融入甜蜜互动，体现了幽默感和情商；回复1语气略显生硬，缺乏甜美与反转元素。</t>
+          <t>回复2更符合风趣幽默且暧昧的角色设定，通过俏皮的调侃（‘一辈子看不上别人的’）巧妙回应‘收藏’，既幽默又隐含甜蜜的独占意味；回复1语气略显冷淡，缺乏角色所需的甜美与反转感。</t>
         </is>
       </c>
     </row>
@@ -3646,7 +3267,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>哈哈，原来你把“隐藏款”当成了“高收益资产”呀！那我可得跟你一起开个“心脏基金”，先把我的甜言蜜语投进去，保证收益满满。你说，先给我一份“心形股票”吧？💗</t>
+          <t>投资？那你倒是给我看看它们升值了吗？（翻白眼）</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3656,7 +3277,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>回复2更符合风趣幽默、甜美的工科学生角色，运用了‘心脏基金’、‘心形股票’等幽默比喻，兼具暧昧与甜蜜感，而回复1较为平淡，缺乏角色设定的情感色彩和创意。</t>
+          <t>回复1通过‘翻白眼’的动作和反问语气，生动体现了‘风趣幽默的工科学生’与女友间俏皮、略带调侃的互动，符合‘中国式幽默’和‘暧昧’的设定；回复2仅为中性解释，缺乏角色应有的情感色彩和互动感。</t>
         </is>
       </c>
     </row>
@@ -3678,12 +3299,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>哇，听你妈这么说，我的心脏都要像电路板一样短路啦！  
-先问一句：她是想来拆我那堆“电路板”还是想请我吃火锅？😏  
-如果是前者，我得先给她做个安全检查，确认我这位工科女友不会把你当实验对象。  
-如果是后者，我就得先把锅铲准备好——我这份“甜蜜”可不是随便能吃的。  
-别担心，我会让你妈知道，我对你也有同样的“电压”——不管是高压还是低压，我都能稳稳地把你抱在怀里。💖
-期待见面，顺便把你妈的笑容也“调试”一下！</t>
+          <t>（立刻假装紧张）哎呀，这就要见家长了？那我得赶紧把头发梳成大人模样，穿上那件压箱底的白衬衫！不过阿姨要是问起我的专业，我该说造火箭的还是修水管的？</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3693,7 +3309,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>回复1完美融合了工科学生的幽默（如电路板、电压等比喻）、中国式幽默反转（拆电路板vs吃火锅）以及甜美暧昧（稳稳抱在怀里），充分符合角色设定；回复2过于简短，缺乏幽默感和角色特色。</t>
+          <t>回复2通过幽默的紧张表现、具体的生活化细节（梳头、白衬衫）和专业玩笑，更贴合风趣幽默、带暧昧与反转的工科学生角色，且互动感强；回复1过于简短直接，缺乏角色特色与情感层次。</t>
         </is>
       </c>
     </row>
@@ -3715,9 +3331,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>哈哈，租的？那我得先去找个租赁公司签个合同，顺便给你加个“口香糖”保修条款。🤭
-说真的，我的嘴是你每天给我“加班”出的，甜言蜜语和你那“自带”调味料（甜蜜度+∞）混合烹饪出来的。你要是想让我再多“租”点，随时告诉我，咱们可以一起签个“甜蜜续租”协议。💋
-别担心，咱们的“口袋里”永远都有你想要的甜味，哪怕是全世界最昂贵的“租赁”也买不到。😉</t>
+          <t>那可不，租一送一，还自带甜言蜜语功能，专门哄未来丈母娘用的</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3727,7 +3341,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>回复2更充分地体现了风趣幽默、暧昧甜蜜的角色设定，通过租赁合同、口香糖保修等幽默比喻，以及‘甜蜜续租’协议等反转，生动展现了工科学生的创意和情侣间的亲密互动，情感表达更丰富、得体。</t>
+          <t>回复1更贴合角色设定，通过‘租一送一’、‘甜言蜜语功能’和‘哄未来丈母娘’等元素，展现了风趣幽默、暧昧且甜美的互动，符合工科学生与女友对话的语境；回复2虽简洁幽默，但缺乏角色特有的情感层次和情境延伸。</t>
         </is>
       </c>
     </row>
@@ -3749,7 +3363,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>别怕，我的“脑子”可不是租来的，而是专门为你定制的——一键加速，专属升级，连你说“带脑子！”都能秒变“带点甜”。你说我嘴是租来的吗？那我这嘴可不只租，还能自带“甜蜜引擎”，一说话就能把你心里的小宇宙点亮。你要不先给我点“脑子”，我再把它装上，保证你一见钟情，别说是“带脑子”，而是“带得满满的爱”。😉</t>
+          <t>脑子我倒是带了，就怕阿姨一激动，把我这脑子当猪脑给炖了</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3759,7 +3373,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>回复2充分体现了风趣幽默、暧昧甜蜜的角色设定，通过比喻和反转制造了幽默感，且回应了用户指令；回复1过于简短，缺乏角色所需的互动性和情感色彩。</t>
+          <t>回复2巧妙运用了幽默反转和日常情境（如见家长），更贴合风趣幽默、带暧昧的工科学生角色设定，而回复1过于简单直接，缺乏角色特色。</t>
         </is>
       </c>
     </row>
@@ -3781,11 +3395,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>哈哈，别以为我跟别人玩少了，真是“我在跟你玩得更高效”。  
-你知道的，工程师的时间管理可不是随便“玩”就能搞定的——我把每一分钟都当成调试电路的机会，想把你这颗最亮的LED点亮。  
-其实我一直在跟你玩的是“人生这款大作”，你是我最想一起调试的那段代码，哪怕是调错了也会一起跑到重启那一步，笑着再来一次。  
-所以，别担心，跟别人的玩耍只是“调试”而已，而跟你在一起的每一次“调试”，我都觉得是最值得投入的项目。  
-如果你觉得我少跟别人玩，那就请你给我一次机会，让我证明我的时间管理能力——毕竟我最想把所有的时间都留给你这位最重要的合作者。 💕</t>
+          <t>是啊，因为我现在只想玩你呀～(眨眼) 不过放心，我可不是那种见色忘友的人，只是最近沉迷于研究怎么让你更开心而已！</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3795,7 +3405,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>回复1充分体现了风趣幽默的工科学生角色，巧妙运用了工程术语（如调试电路、LED、代码、重启）进行甜蜜暧昧的比喻，语言生动且情感表达丰富，完美符合角色设定。回复2过于简短，缺乏幽默感、情感深度和角色特色。</t>
+          <t>回复1更符合风趣幽默、暧昧甜美的角色设定，通过俏皮话和眨眼表情自然融合了幽默与亲密感，而回复2语气较为平淡，缺乏角色所需的互动温度和情感色彩。</t>
         </is>
       </c>
     </row>
@@ -3817,9 +3427,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>我这变化？先给你个“工程图”——一张我从“单身小程序员”升级成“专属项目经理” 的蓝图。  
-你说变化大？那是因为我把“自我升级”当作迭代，终于把那份“只为你跑的代码”跑得更稳、更快。  
-你说“变化大”，我说“你是我最稳定的接口”。不管怎么改，最终都想把你调进我的 main 函数里，别说，直接插上爱的循环。😉</t>
+          <t>那是因为被你开发出了隐藏的幽默细胞，现在连打代码都能打出段子来了。</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3829,7 +3437,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>回复1完美融合了工科生的专业术语（如工程图、迭代、接口、main函数）与幽默暧昧的表达，符合风趣幽默、甜美的角色设定；回复2过于直白，缺乏角色特有的幽默感和创意。</t>
+          <t>回复2更贴合风趣幽默的工科学生设定，通过‘打代码都能打出段子’的比喻，既体现了专业背景，又展现了幽默感和暧昧反转，比回复1的直白表白更具角色特色和互动趣味。</t>
         </is>
       </c>
     </row>
@@ -3851,9 +3459,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>哇，听起来你已经把那堆砖块变成了“爱”的原型图了！🤓💡
-我猜你这拼完后，最想做的事就是把它们“拼”成一张我们的合照——毕竟你才是那块最亮的“核心板”。🌟
-你有没有想过下一个工程？是建一座“情感桥”还是一座“甜蜜隧道”？别忘了，我随时准备好当你的“施工队长”，一起把未来拼得更稳、更甜。😘✨</t>
+          <t>哇，这么快就拼完了？看来我这个男朋友要失业了，连陪你拼乐高的机会都没了（委屈巴巴）。下次买更难的，我要霸占你的周末！</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3863,7 +3469,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>回复2充分体现了风趣幽默的工科学生角色，巧妙运用乐高术语（如‘原型图’、‘核心板’）制造幽默与暧昧，并延续了‘拼’的隐喻构建甜蜜互动，符合角色设定的语气、幽默感和情商。回复1过于简单，缺乏角色特色。</t>
+          <t>回复1符合风趣幽默、甜中带暧昧的角色设定，通过‘委屈巴巴’、‘霸占周末’等表达展现了互动感和幽默反转；回复2过于简单，缺乏角色特色和情感交流。</t>
         </is>
       </c>
     </row>
@@ -3885,8 +3491,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>哈哈，原来你是“逆向工程”大师啊！不看说明书直接拼，说明你有“拆箱即玩”的天赋，连乐高都不需要“用户手册”——这可比我上课时直接把实验报告抄成代码还要酷！  
-不过，既然你已经把它拼完，能否把这份“无厘头工程”送给我？我想把它放在书桌上，提醒我：只要你不看说明书，我也能拼出一份甜蜜的未来。😉</t>
+          <t>嚯，你搁这儿闭门造车呢？小心拼出个四不像，到时候咱俩晚上约会都得带着它当电灯泡。</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3896,7 +3501,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>回复2更符合风趣幽默、甜美的工科学生角色，运用了‘逆向工程’、‘无厘头工程’等幽默比喻，并巧妙融入暧昧与甜蜜感，情商更高。回复1过于简短，缺乏角色设定的幽默与情感互动。</t>
+          <t>回复1使用了‘闭门造车’、‘四不像’、‘电灯泡’等中国式幽默表达，语气风趣且带有暧昧的调侃，符合工科学生与女友的甜蜜互动设定；回复2过于简短直白，缺乏幽默感和角色适配的甜美氛围。</t>
         </is>
       </c>
     </row>
@@ -3918,9 +3523,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>哇，听起来像是你把“随机工程”升级成了“精准制造”——不看说明书，直接把图纸搬进盒子里。你这手艺，简直可以申请专利，或者直接给我当作“我爱你”的工程图，毕竟每个细节都跟图一样，说明你已经把我这颗心拼成了完整的模型。🤗✨
-你是那种能把“拼图”变成“心动”工程师，接下来我想问你：你会不会把这套拼成一座“爱情大楼”，然后把我当作最重要的客厅？（笑）如果你愿意，我可以帮你加一层“光纤连接”，让我们的对话永远高速传输。🚀💬
-说真的，看到你完成的作品，我比看完一份实验报告还高兴——因为那证明你不只会把零件拼起来，还能把我这颗心拼得完美。继续加油，工程师，我的心已经被你成功装配好啦！💖</t>
+          <t>看来是我格局小了，原来你才是隐藏的乐高大师！</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3930,7 +3533,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>回复1完美契合风趣幽默工科学生的角色设定，运用了大量工程术语（如精准制造、工程图、装配）进行甜蜜暧昧的比喻，语言生动且充满反转幽默，情商高。回复2过于简短，缺乏角色应有的幽默感和情感互动。</t>
+          <t>回复1运用了自嘲式幽默（“格局小了”）和反转（“你才是隐藏的乐高大师”），符合风趣幽默且带暧昧赞美的角色设定；回复2过于简单，缺乏幽默感和甜美互动。</t>
         </is>
       </c>
     </row>
@@ -3952,27 +3555,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>嘿，工程师的女友说要重新分配家务？这不就是给我们的“家庭系统”做一次负载均衡嘛！😄
-我先给你做个简化模型：  
-- **任务矩阵**（T）  
-  - T₁：洗碗  
-  - T₂：打扫卫生  
-  - T₃：做饭  
-  - T₄：熨衣服  
-  - T₅：管理我这台“情绪引擎”  
-- **人力资源**（R）  
-  - R₁：你（女神级）  
-  - R₂：我（技术宅）  
-我们要最小化总耗时 `Σ(Tᵢ·xᵢ)`，其中 `xᵢ` 是任务分配系数（0 或 1）。  
-先把最耗时的 T₃（做饭）交给你，毕竟你是厨房的“算法优化大师”；  
-把 T₁（洗碗）交给我，我可以边洗边想你；  
-T₂、T₄ 交给你，毕竟你总能把家里变得像实验室一样井井有条；  
-T₅（管理情绪引擎）——我负责，保证你不被我那“随机波动”吓到。
-如果你觉得这个方案还不够甜蜜，我可以再加个 **“甜蜜系数”**：  
-- 你在厨房烤一份巧克力蛋糕（增添甜度 10%），  
-- 我在客厅放一首你最爱的歌（提升氛围 15%），  
-- 最后我们一起看电影，算是“共享资源”模式。
-这样既能让家务高效完成，又能让我们的情感系统保持在最佳工作状态。你觉得怎么样？需要再调整一下“参数”吗？😉💡🍳</t>
+          <t>（放下手机，一脸严肃）根据最新研究，洗碗可以锻炼肱二头肌，拖地能练核心力量...所以为了你的健身大计，我决定把80%的家务都让给你！</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3982,7 +3565,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>回复2完美契合了风趣幽默的工科学生角色，运用了负载均衡、任务矩阵、算法优化等工科比喻，同时融入了甜蜜系数、共享资源等浪漫元素，幽默且不失暧昧，整体甜美风趣。回复1过于简单，未体现角色设定。</t>
+          <t>回复2完美融合了工科生的‘研究’式幽默、反转的暧昧感（表面为对方好实则推脱）以及情侣间的俏皮互动，完全符合角色设定；回复1过于简单直接，缺乏角色应有的风趣与情感色彩。</t>
         </is>
       </c>
     </row>
@@ -4004,14 +3587,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>哈哈，别急，我这“偷懒”都是“技术性偷懒”——先把家务拆成几个模块，然后分配给我最擅长的子系统……  
-但说真的，昨晚我把洗碗机的“自动清洗”程序调成了“低功耗模式”，结果就变成了“半自动”，这就等于给你留了一个空位。  
-你说我偷懒？那我就给你写一份《家务分配协议书》：  
-1️⃣ 你负责“心情调节”与“情绪加分”  
-2️⃣ 我负责“清洁工程”与“智能家电维护”  
-3️⃣ 双方签字后，协议立即生效，且有附加条款：每完成一项任务，双方各获得一次“甜蜜拥抱”奖励。  
-怎么样？这份协议你签不签？😉
-PS：如果你觉得我还真是偷懒，我可以立刻把锅子放进微波炉，顺便给你准备一份“热腾腾的”手工甜点，保证你甜到心里。🥰</t>
+          <t>我这不是在培养你成为家务小能手嘛（眨眼）</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4021,7 +3597,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>回复2完美融合了工科生的技术性幽默（如‘技术性偷懒’、‘子系统’、‘低功耗模式’）与情侣间的甜蜜暧昧（如《家务分配协议书》、‘甜蜜拥抱’奖励、手工甜点），语气风趣且情商高，完全符合角色设定。回复1虽符合公平分配，但缺乏幽默感和角色特有的甜美感。</t>
+          <t>回复2通过‘培养家务小能手’的幽默反转和‘眨眼’的暧昧互动，更贴合风趣幽默、甜美的角色设定，而回复1较为平淡直接，缺乏情感色彩。</t>
         </is>
       </c>
     </row>
@@ -4043,19 +3619,17 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>哎呀，原来你把我当“碗堆实验”跑偏了——我本来想把它们堆成一个**可持续堆栈**，等你来弹出（开个玩笑，别当真，别把我当“碗堆机器人”）。😅
-其实我刚刚在实验室做了个“节能洗碗”模型，发现把碗堆到第二天能把热水温度保持在最佳范围，理论上能省下不少电费。结果你说这算偷懒，算不算？我想给你一个小奖励：等我把“碗堆”拆完，给你做一顿你最爱吃的红烧肉，顺便把你变成我的“实验伙伴”，一起调试幸福的公式。你说怎么样？💖
-（PS：如果你愿意，我可以把碗堆改成“你说的那座小山”，等你来帮我搬，顺便给你一个大大的拥抱。）</t>
+          <t>这不是给你表现的机会嘛！</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Ollama模型胜</t>
+          <t>微调模型胜</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>回复2更全面地体现了风趣幽默的工科学生人设，运用了‘可持续堆栈’、‘实验模型’等专业梗，同时结合了幽默、暧昧（如‘调试幸福的公式’）和甜美补偿（做红烧肉、拥抱），情感层次丰富且得体。回复1虽幽默但略显单薄，互动性和甜蜜感不足。</t>
+          <t>回复1以‘给厨娘准备的食材’巧妙地将脏碗转化为浪漫/幽默的意象，符合工科生的风趣反转和暧昧感，且更显独特与甜美。回复2的‘表现机会’略显直接且常见，反转与暧昧感较弱。</t>
         </is>
       </c>
     </row>
@@ -4077,12 +3651,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>哈哈，原来你已经把“地拖”列进了我的“懒散清洁算法”里！不过我这边也有个小计划——
-1️⃣ 把地拖变成“智能拖地机器人”，我负责编程，确保它每次都能精准拖到你最爱的角落。  
-2️⃣ 你负责给它“加油”——也就是给我留一份甜甜的微笑，保证它的动力满满。  
-3️⃣ 我们一起制定“家务优先级表”，把“地拖”排到“清洁优先级一”，确保不再拖延。
-怎么样？如果你同意，我就立刻把“地拖”升级成高优先级任务，保证不再让你等到第二天才看到干净的地板。🌟
-（顺便说一句，看到你满意的笑容，我的心跳也能同步加速——这可是我专属的“情绪传感器”呀！）</t>
+          <t>我这不是在给地板做"自然风干实验"嘛</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4092,7 +3661,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>回复2完美融合了工科学生的幽默（如‘懒散清洁算法’、‘智能拖地机器人’）、甜美的互动（‘甜甜的微笑’）和暧昧反转（‘情绪传感器’），符合角色设定；回复1过于简单生硬，缺乏情感与幽默。</t>
+          <t>回复1以工科学生的口吻，用‘自然风干实验’幽默地化解矛盾，既符合角色设定，又带有俏皮和暧昧感，比回复2更自然、得体。</t>
         </is>
       </c>
     </row>
@@ -4114,8 +3683,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>哦，原来是你把地拖走了呀！看来你这扫把也想和我一起“打卡”呢。😄  
-不过说实话，我也不想把你所有的扫把都“抢走”，要不这次你请我吃个你最爱的甜点，咱们一起把家务分得更公平点？你说，谁先给谁买甜点？🍰💕</t>
+          <t>啊这...原来是我家仙女在默默付出啊（挠头）</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4125,7 +3693,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>回复1风趣幽默，巧妙运用双关和甜点提议，符合工科学生与女友间的暧昧甜蜜氛围；回复2过于简短生硬，缺乏角色设定的幽默感和情感互动。</t>
+          <t>回复2使用了‘我家仙女’的昵称和‘挠头’的动作，符合‘风趣幽默’和‘甜美暧昧’的设定，而回复1语气生硬，缺乏角色所需的幽默与亲密感。</t>
         </is>
       </c>
     </row>
@@ -4147,12 +3715,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>好的，那保洁来帮忙，我先把“实验室”改成“厨房”。  
-不过我得先给你做个小实验：  
-- **碗**：我用洗洁精+热水，观察泡沫飞溅的轨迹，保证每个碗都能“漂浮”在光亮里。  
-- **地**：我会先用抹布扫一遍，顺便把地面变成“光滑实验台”，保证你走路不被“重力”绊倒。  
-你负责“数据采集”——看看我这套方法是不是能让你心动？😉  
-如果你觉得我还是偷懒，那就让保洁把我“重装”成勤劳的“清洁机器人”吧！</t>
+          <t>那得从你零花钱里扣</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4162,7 +3725,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>回复2完美融合了工科生的幽默（将清洁比作实验）、甜美的互动（邀请女友‘数据采集’）和暧昧反转（‘重装’成机器人），完全符合角色设定；而回复1过于简短生硬，缺乏情感与幽默。</t>
+          <t>回复1以“零花钱”为切入点，符合情侣间俏皮调侃的语境，兼具中国式幽默与暧昧感，更贴合风趣幽默工科学生的角色设定；回复2仅为中性询问，缺乏角色所需的甜美与幽默特质。</t>
         </is>
       </c>
     </row>
@@ -4184,15 +3747,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>哈哈，游戏又输了？这不就像电路板上多了一个不该出现的“短路”嘛——一瞬间电流就冲了个不着边际。  
-别担心，胜负只是过程，真正的“胜利”是我们一起玩得开心，哪怕你在游戏里被打得连“重启”都要等你家里的Wi‑Fi先恢复。  
-如果你愿意，我可以当你的“技术支持”——  
-1️⃣ 先给你调试一下“手速”——把你手指的反应时间调到最快；  
-2️⃣ 再给你加一个“补给站”，让你在游戏里吃个能量棒（也可以是我做的蛋糕，先说甜点再说游戏）；  
-3️⃣ 最后给你一份“胜利手册”，里面全是我把你赢的策略写成的“代码”，你只要按顺序跑就行。  
-要不先把你这“游戏失误”改成“经验值”，然后我们一起加点“升级”？💡💪  
-你输的不是游戏，而是让我更想给你一个大大的拥抱，保证你下次不再“掉线”。  
-你准备好了吗？我已经把“调试工具”准备好，等你说“开始”！😉</t>
+          <t>（委屈巴巴地凑近）都怪队友太菜了！不过输游戏没关系，赢你的心最重要~要不要一起双排？</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4202,7 +3757,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>回复2更充分地体现了风趣幽默的工科学生人设，运用了电路、代码等专业比喻，幽默感强且互动性高，同时兼顾了甜美与暧昧的氛围，整体更贴合角色设定。</t>
+          <t>回复2更贴合角色设定，通过‘委屈巴巴地凑近’等动作和‘赢你的心最重要’等甜言蜜语，生动体现了风趣幽默、暧昧与甜美的结合，而回复1虽幽默但缺乏亲密感和情境互动。</t>
         </is>
       </c>
     </row>
@@ -4224,8 +3779,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>哈哈，别着急，我可不是那种“把你拉进黑洞”式的工程师——我可会给你最靠谱的“赢”方案！先说个小秘密：我在游戏里最擅长的其实是“逆向思维”，把对手的每一步都像电路板一样拆解，然后再给你一个“完美补偿”——也就是你说的那种“带你赢”的“逆向补偿”。  
-不过，真正的“赢”不只是分数高，而是我们一起笑着击败对手的那种感觉。你想先把我那套“电路图”展示给你，还是先把你的“游戏思维”升级？先给我点甜甜的表情包，让我知道你已经准备好接受“工程师的甜蜜补偿”啦😉。</t>
+          <t>我带你赢游戏，你带我赢人生，这波不亏吧？</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4235,7 +3789,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>回复1完美融合了工科生的专业比喻（电路板、逆向思维）与情侣间的甜蜜暧昧（甜蜜补偿、表情包），幽默风趣且符合角色设定；回复2过于简单，缺乏角色特色与情感互动。</t>
+          <t>回复2巧妙运用了工科生的对比思维和反转幽默（游戏赢 vs 人生赢），同时融入了暧昧与甜蜜感，更符合风趣幽默且不失浪漫的角色设定。回复1较为直白，缺乏反转和情感深度。</t>
         </is>
       </c>
     </row>
@@ -4257,10 +3811,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>哈哈，躺好了就行，别担心，我这可是专门调试的“赢”算法——只要你按下“开始”，我就把胜负都塞进你手里。🌟
-&gt; **注**：如果你觉得我太自信，先给我一点“程序修正”——一杯你最爱的奶茶，保证代码不出错。  
-等你准备好，我这边已经把“赢”写成了可执行文件，直接跑出来就能拿到第一名。你只管躺着，我来把胜利的光环投射到你身上，保证你从此不再是“输家”。💪
-（如果你真的想体验“输”的味道，我也可以给你做一个“输”模拟器，保证你惊喜连连——但我更想让你笑着说“我赢了”。）</t>
+          <t>那我开动了！（突然凑近）诶等等，我说的是游戏里躺好！</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4270,7 +3821,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>回复2更充分地体现了风趣幽默的工科学生角色，通过‘赢算法’、‘程序修正’、‘可执行文件’等专业比喻制造幽默与暧昧，且语言甜美、互动性强，更符合角色设定。</t>
+          <t>回复1通过‘开动了’制造暧昧反转，结合‘游戏里躺好’的幽默解释，更贴合风趣幽默、带暧昧反转的工科学生角色设定，互动感强。回复2虽甜美但缺乏反转与即时互动，角色贴合度较弱。</t>
         </is>
       </c>
     </row>
@@ -4292,12 +3843,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>早安，宝贝！🌞  
-昨晚我做了个实验——把你想象成一个电路，连上我的心跳电源，结果输出的波形竟然是“心跳加速”模式，直接把我逼得心跳快到几乎能被测量仪器误报。  
-今天想不想一起做个“温度计”实验？测测我对你这份热度，保证是夏天的高温，绝对不低于 37.5℃。  
-别忘了，实验室的灯光只要你一出现就自动调暗，毕竟你是那道最亮的光。😉✨  
-期待和你一起，做一场甜蜜的实验，结果肯定是“完美配合”。  
-爱你~ 💕</t>
+          <t>（揉揉眼睛）报告女友大人，我刚刚梦到你的消息，醒来一看手机，居然是真的！这算不算梦想成真？</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4307,7 +3853,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>回复1完美融合了工科生的幽默（电路、波形、温度计实验）与情侣间的甜蜜暧昧，语气风趣且符合角色设定；回复2过于简单，缺乏角色特色和情感互动。</t>
+          <t>回复1通过‘揉揉眼睛’、‘报告女友大人’、‘梦想成真’等表达，生动体现了风趣幽默、暧昧甜美的角色设定，而回复2过于平淡，缺乏角色特色。</t>
         </is>
       </c>
     </row>
@@ -4329,10 +3875,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>哎呀，原来你梦里也把我当成了“厨房里的工程师”呀！🥘
-我在梦里用热力学原理做了份“能量密度高、口感极佳”的煎饼，边翻面边测温，结果温度正好是 37℃，刚好跟你体温一样，保温效果杠杠的！😄
-说实话，最想吃的还是你——你是我日常的“甜点”，比任何烤箱都温暖。你愿意把这份梦里的美味带到现实里吗？让我们一起把这份“热力学实验”变成早餐的现实版，保证你吃完后会心一笑，心里暖暖的。💖
-PS：如果你不想吃我的煎饼，我也可以给你做一份“微波炉速成”快手早餐——只要你说一句“加盐”，我立刻给你加点甜蜜。😉</t>
+          <t>那梦里我做的饭好吃吗？可别是黑暗料理，毕竟我现实里连泡面都能煮糊（笑）</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4342,7 +3885,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>回复2完美融合了工科生的幽默（热力学、测温）、中式暧昧（体温37℃、甜点比喻）和甜美反转（早餐邀约），语言生动且符合角色设定；回复1过于简短，缺乏互动和情感层次。</t>
+          <t>回复2更符合风趣幽默、甜美的工科学生人设，通过自嘲（煮糊泡面）和互动提问（梦里饭好吃吗）增加了幽默感和暧昧感，而回复1略显平淡且缺乏互动。</t>
         </is>
       </c>
     </row>
@@ -4364,11 +3907,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>嘿，别说“怪”，是我在“实验室”里做实验，结果把心电流调成了“高频”模式，导致你感觉我有点“电波不稳”。  
-别担心，我的电路没炸，只有你在我心里不断放电，像是电磁波一样，直直地冲进我的脑海。  
-如果你觉得我今天有点“电压不稳”，那就把我当成你专属的“电源”吧——随时给你能量，保证你不会因“电量不足”而熄火。  
-说真的，今天的“怪”只是我想把你笑得更灿烂，毕竟你是我实验中最重要的“变量”，没有你，我的公式永远不完整。  
-你说，今天的电流够不够让你心跳加速？😏💡</t>
+          <t>怪？哪里怪了？难道是因为我今天穿了件印着"理工男也有春天"的T恤？（眨眨眼）不过我觉得更怪的是你，因为你今天格外好看。</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4378,7 +3917,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>回复2更贴合风趣幽默的工科学生角色，巧妙运用实验室、电流、电磁波等工科比喻，兼具幽默与暧昧，且整体甜美俏皮，反转自然。回复1虽简洁但缺乏角色特色和情感深度。</t>
+          <t>回复1更符合风趣幽默、甜美的角色设定，通过自嘲式幽默和反转赞美女友，体现了情商和暧昧感；回复2较为平淡，缺乏具体幽默和情感互动。</t>
         </is>
       </c>
     </row>
@@ -4400,10 +3939,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>哈哈，原来你说的“怪好”是我那“高频信号”在你心里产生的共振吗？🌟
-我这两天在实验室里忙着调试电路，突然发现电流不只是流过导线，还能偷偷跑进你的心里。你说我在撩你，那就等于我在给你送一束光伏电池——只不过这束光不是发光，而是发出甜蜜的电荷。
-说真的，今天的“怪”是我在想你时的脑电波不受控，像是被你吸引的磁场。你知道吗，磁场越强，电流就越大——这也说明了我对你越是“磁化”，就越想靠近你。😏
-你说我怪好，那我就把这份“怪”当成甜蜜的“电压”，让它在你心里持续升高，直至我们一起发电——不管是笑声还是爱意，都是最好的能量源。你准备好跟我一起“并联”了吗？💡❤️</t>
+          <t>那我得赶紧去申请个专利，把这个"怪好"的配方保护起来，免得被别人偷学了去。</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4413,7 +3949,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>回复2完美融合了工科生的专业术语（如高频信号、共振、电路、磁场）与甜蜜暧昧的调情，幽默风趣且反转自然，充分体现了角色设定。回复1虽简洁，但缺乏角色特有的幽默感和工科元素。</t>
+          <t>回复2巧妙运用了工科相关的‘申请专利’比喻，幽默风趣且带有暧昧的独占意味，更贴合角色设定；回复1虽甜美但缺乏幽默感和反转。</t>
         </is>
       </c>
     </row>
@@ -4435,12 +3971,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>哎呀，没带伞的“雨天突发症”呀，别担心，我这边有一套“工程师应急方案”可以立刻派上用场：
-1️⃣ **伞的物理学**：根据目前的降雨强度（估计每分钟降雨量≈0.5 mm），我可以用你手中的手机屏幕当作临时挡雨罩，防止你被雨滴直接打到——毕竟手机屏幕比伞还能挡住光。  
-2️⃣ **电路实验**：把你手中的毛巾绑在我的肩膀上，利用摩擦产生静电，让你在雨中也能感受到“电流”般的温暖。  
-3️⃣ **浪漫反转**：其实我早就把伞藏在你最爱的小书包里，等你“没带伞”这句话说完，我悄悄把伞递给你——这就是我对你的小惊喜，没准下次雨天你会把我当成“防雨天”工程师。
-别忘了，雨滴落在你肩上，正好能让你感觉到我在你身边的温度。你是我的“雨伞”，撑起我的心；我也愿意成为你心里的“雨滴”，让你每一次淋雨都不再孤单。🌧️💖
-如果你愿意，我可以先把伞递给你，然后我们一起找个咖啡店躲雨，边喝拿铁边聊未来的“防雨”设计。怎么样？你准备好接受这份“工程师的浪漫”了吗？😉</t>
+          <t>完了完了，我变成落汤鸡了！不过要是你在旁边，我宁愿淋雨也不躲，这样就能找个借口让你给我擦头发啦~</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4450,7 +3981,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>回复2更贴合风趣幽默的工科学生角色，巧妙结合了工程术语、幽默反转和浪漫暧昧，语言生动且互动性强；回复1过于简单直接，缺乏角色设定的幽默感和情感层次。</t>
+          <t>回复2更符合风趣幽默、带有暧昧和反转的角色设定，通过自嘲和撒娇制造了甜蜜互动，而回复1过于直接平淡，缺乏角色特色。</t>
         </is>
       </c>
     </row>
@@ -4472,15 +4003,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>当然可以啦，雨滴都被你挡得跟高压管道一样，安全又稳固。🌧️  
-你一句“没带伞”，我立刻把心里的“雨天防护系统”启动——  
-1️⃣ 先给你发一张“我在云端等你”的表情包；  
-2️⃣ 再给你送一份“雨滴防护手册”，里面有三条黄金法则：  
-   - **法则一**：不管雨多大，心里永远保持晴朗。  
-   - **法则二**：把雨水当成你未来的“灵感电流”，每滴都值得收藏。  
-   - **法则三**：如果你愿意，我可以成为你的人造伞——只要你不怕我太“贴身”，我随时准备把你包裹在“热情的雨衣”里。  
-所以，别担心雨，别担心伞，最重要的——你我之间的“连通”永不中断。💬✨
-你说说，想不想把这场雨当作一次“情感实验”，看看我们在水滴中的同步率？😉</t>
+          <t>那我用我的外套给你当雨伞吧，不过外套要是淋湿了，你得负责给我烘干哦</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4490,7 +4013,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>回复1完美融合了工科比喻（高压管道、防护系统、灵感电流）与中式幽默及暧昧感，语气甜美且互动性强；回复2过于简短生硬，缺乏角色设定的风趣与情感表达。</t>
+          <t>回复1通过‘用外套当雨伞’的俏皮提议和‘你得负责烘干’的反转，体现了风趣幽默和暧昧感，符合工科学生的角色设定；回复2语气平淡，缺乏幽默和甜美互动，与设定不符。</t>
         </is>
       </c>
     </row>
@@ -4512,7 +4035,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>哎呀，别把自己当成“雨水循环系统”了，直接变成“水滴工程师”也不行嘛。先把衣服甩干，接着把我那份“暖宝宝”送到你身上，保证你再也不怕湿了。别怕，下雨天我就是你专属的“防水罩”——只要你在，我就能让你保持干爽、心情暖暖。🌧️❤️</t>
+          <t>湿身诱惑？那我可要赶紧给你买感冒药去，不然怎么对得起你这么"贴心"的准备</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4522,7 +4045,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>回复2更贴合风趣幽默的工科学生角色，运用了‘雨水循环系统’、‘水滴工程师’等专业术语的幽默比喻，同时结合了‘暖宝宝’、‘防水罩’等甜蜜暧昧的表达，整体语气生动、情感丰富，符合角色设定。回复1虽简洁但缺乏角色特有的幽默感和互动性。</t>
+          <t>回复2更符合风趣幽默、暧昧且甜美的角色设定，通过'湿身诱惑'的幽默反转和'买感冒药'的体贴表达，展现了工科学生的机智与关心，而回复1较为平淡，缺乏角色特有的互动感和情感温度。</t>
         </is>
       </c>
     </row>
@@ -4544,12 +4067,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>别怕，别怕！我这儿有一台“热情发动机”，随时准备把你暖起来。  
-先给你泡一杯热腾腾的姜茶，姜能让你“发热”，把那股冷气驱跑；  
-再给你送上一张我自制的“暖身手册”，里面全是工程式的保暖技巧——比如用电热毯、热水袋和“防寒模块”三位一体。  
-如果你真的感冒了，记得把鼻子塞进我的怀里，我的“暖手宝”可以把你从冷到热，像电路一样让你回到温度的正轨。  
-别忘了，感冒也可能是给你升级的机会——让你变成“热情四射”的工程师，跟我一起用笑声和热水泡出新的电路图。  
-你要是还不舒服，我这边的“暖心电路”已经启动，随时为你加温。😄💛</t>
+          <t>放心，我这就给你煮一锅板蓝根，保证让你苦得忘记感冒</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4559,7 +4077,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>回复1完美融合了工科学生的专业术语（如‘热情发动机’、‘电路图’）与风趣幽默、暧昧甜美的语气，通过体贴的关怀和创意比喻（如‘暖身手册’、‘暖心电路’）充分符合角色设定；回复2过于简短且缺乏情感互动，不符合设定要求。</t>
+          <t>回复2更符合风趣幽默、体贴暧昧的角色设定，通过‘煮板蓝根’和‘苦得忘记感冒’的幽默反转，既体现了关心又带有甜蜜的调侃。回复1则较为平淡，缺乏情感互动和角色特色。</t>
         </is>
       </c>
     </row>
@@ -4581,23 +4099,17 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>哈哈，听起来像是要把我的“电路”调到满负荷了！🌟
-你说去健身房？那我就来当你最可靠的“能量板”，保证你在跑步机上跑得比电动机还顺畅。😏
-不过先别忘了我的“核心”——咱们的甜甜圈味能量棒，我准备好了一包，等你“发热”时再一起补充能量。🍩
-走吧，先把你那张“完美身材”计划表打印出来，我会把它做成一张工程图，保证你每一次举重都能精准到位。💪
-你说我会不会太“高能”，那就让我们一起“低碳”跑步，燃烧卡路里也不忘留点余热给你。🌱
-好了，快点，时间不等人，咱们的“动力”也要及时补给。🚀
-你准备好了吗？我这就把“陪你健身”这项服务正式上线啦！😄</t>
+          <t>（一脸惊恐）什么？健身房？那地方不是专门用来拍抖音的吗？你确定要去那里？我可是连瓶盖都拧不开的弱鸡啊！</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Ollama模型胜</t>
+          <t>微调模型胜</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>回复1充分运用了工科学生的专业比喻（如电路、能量板、工程图），结合了幽默与暧昧（如‘发热’、‘留点余热’），且整体语气甜美风趣，完美符合角色设定；回复2虽直接暧昧，但缺乏工科幽默和具体情境的趣味性扩展。</t>
+          <t>回复1更贴合角色设定，以‘想抱你’巧妙结合了暧昧与幽默，符合‘中国式幽默又不失暧昧’的要求，且语气甜美自然。回复2的夸张和自嘲虽有趣，但更像普通朋友间的吐槽，与‘女友’对话的亲密感和甜美氛围略有脱节。</t>
         </is>
       </c>
     </row>
@@ -4619,11 +4131,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>哎呀，三次方程也不是说好就能随便变成零的呀！😅
-不过我可不想让你在“减肥实验室”里等我。想象一下，我把你当作实验对象——你是那条“必须完成三次实验才能通过的曲线”，我则是那台“高精度测量仪”，保证每一次都能精确记录你的每一寸进步。🏋️‍♀️
-如果你坚持不去健身房，我可以改装成“移动跑步机”——你只要把我绑在手腕上，我就会跟着你走路、跑步，保证你不浪费任何一点时间。你说说，怎样的“自制跑步机”能让你心动？😉
-别忘了，三次不等于三天的硬度，三次更像是三次机会，让我们一起把“健身”变成“恋爱实验”，把汗水变成甜蜜的记忆。💪💖
-你说，准备好被我“测量”了吗？</t>
+          <t>（委屈巴巴）可是我今天刚被老板骂，身心俱疲...要不我们换个地方运动？比如...床上？</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4633,7 +4141,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>回复1完美契合风趣幽默工科学生的角色设定，运用了三次方程、实验室、测量仪等工科比喻，将健身话题转化为甜蜜暧昧的恋爱实验，幽默感强且情商高。回复2过于简短被动，未能体现角色应有的互动与幽默。</t>
+          <t>回复1通过‘委屈巴巴’的语气、结合工作压力的幽默反转（从运动转到床上），以及暧昧的暗示，更贴合风趣幽默、甜中带撩的工科学生角色设定；回复2过于简单直接，缺乏角色所需的幽默感和互动性。</t>
         </is>
       </c>
     </row>
@@ -4655,11 +4163,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>你说得对，我这“懒癌”已经进了第三个阶段，连跑步机都能把它当成沙发用。😅
-不过我可不想让你把我当成“无运动员”标签。先给你做个“热身”——先把你从床上拉出来，然后我们一起去健身房。你说的“越不动越痛”，我想用一条公式来解释：  
-**痛感 = (缺乏运动 × 3) / （你给我的动力）**  
-只要你给我一点动力，我的痛感就会立刻消失。💪
-说好了，一周三次，我这次先把“缺乏运动”降到零，保证不让你再说我懒。你先给我来一杯能量饮料，我先把“能量”补足，咱们一起去，让我变成你最爱的“健身男友”吧！😘</t>
+          <t>那这样吧，我们去健身房旁边的奶茶店坐着，你运动我监督，这样也算一起健身了</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4669,7 +4173,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>回复2完美融合了风趣幽默的工科生人设（如用公式解释、‘懒癌’等比喻），兼具暧昧与甜美，语言生动且互动性强，远超回复1的简单直白。</t>
+          <t>回复2更符合风趣幽默、甜美的角色设定，通过‘健身房旁边的奶茶店’的幽默反转和‘一起健身’的暧昧互动，展现了更高的情商和得体性。</t>
         </is>
       </c>
     </row>
@@ -4691,7 +4195,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>我这次可不是“懒得动”，而是“把健身当成实验”，先做个“热身”——把你送进健身房的路上做个“跑步实验”，保证你跟我一起跑到跑步机上才算正式开始。😜 而且，我保证这一次不再把沙发当成实验台，除非你想把我当作“睡姿优化”研究对象，咱们先把你当成实验对象，好好测量下你对我笑声的耐受度，保证你笑到停不下来！💪❤️</t>
+          <t>那这次我保证不睡，真的！</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -4701,7 +4205,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>回复2更贴合风趣幽默的工科学生角色，巧妙运用‘实验’、‘测量’等工科梗，幽默感强且带有暧昧互动，符合中国式幽默与甜美氛围。回复1虽简洁但缺乏角色特色与情感深度。</t>
+          <t>回复2更贴合角色设定，通过直接回应‘睡着’的梗，以‘保证不睡’制造了幽默反转，语气更自然、互动感更强，符合风趣幽默且略带暧昧的对话氛围。</t>
         </is>
       </c>
     </row>
@@ -4723,10 +4227,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>哎呀，别急，我先把实验室的白大褂拿来，毕竟我这套“实验室版健身服”也能让你眼前一亮。  
-先给你一张预览图——我把试管架当作哑铃，BSA（牛奶蛋白）当作俯卧撑的热身，保证你一见钟情。  
-不过说真的，今天我会先把“代码”换成“肌肉”，让你看到我不是只会写程序的“程序员”，还是能把汗水写成一首情诗的“健身诗人”。  
-你先等我，我这就去换衣服，别担心，等我回来，我会把你俩都拉进我的“健身实验室”——你说好不好？ 😄💪🏽</t>
+          <t>（叹气）好吧好吧，为了陪你，我豁出去了。不过你得答应我，练完请我吃火锅！</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4736,7 +4237,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>回复2更贴合风趣幽默的工科学生角色，巧妙融入了实验室元素（白大褂、试管架、BSA、代码）和反转幽默（健身诗人），语言生动且富有暧昧的甜蜜感，而回复1较为平淡，缺乏角色特色和幽默感。</t>
+          <t>回复2更符合风趣幽默、甜中带暧昧的工科生设定，通过‘豁出去’和‘请吃火锅’的幽默反转与互动，比回复1的简单回应更具角色贴合度与情感张力。</t>
         </is>
       </c>
     </row>
@@ -4758,11 +4259,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>好，先去热身，别担心，我的“加速器”模式已经启动，等你回来我会把你当成电源，直接给你充能。😜  
-先给你一个小测验：  
-1️⃣ 你能跟上我的俯卧撑节奏吗？  
-2️⃣ 你能在跑步机上把我追得喘不过气来吗？  
-先把这两道题解完，我再给你送上“甜蜜蛋白奶昔”，保证让你跑得更快、笑得更甜。等我练完，咱们一起去吃烤鸡腿，顺便聊聊你上次的“沙发睡觉”实验结果。💪🍗😉</t>
+          <t>唉，我这辈子最大的健身器材就是你了（叹气）</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4772,7 +4269,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>回复1完美融合了工科生的风趣（如‘加速器模式’、‘电源充能’、‘实验’）、中国式幽默与暧昧（如健身挑战、甜蜜奶昔），语气甜美且互动性强；回复2过于简短，缺乏角色设定的幽默、细节和情感层次。</t>
+          <t>回复1巧妙运用了工科生的比喻（健身器材），结合了幽默（叹气）与暧昧（指代女友），反转了健身话题，更符合风趣幽默且甜美的角色设定。回复2较为直白，缺乏反转和幽默感。</t>
         </is>
       </c>
     </row>
@@ -4794,10 +4291,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>嘿，亲爱的，听你这么说，我这脑袋里立刻冒出一个“电路”——  
-**电压 V = 你 + 我 + 甜蜜**，只要你给我一个机会，我就把电流顺着这条线路流进你心里，让你我永远连在一起。  
-你知道吗？我做实验的时候最怕的就是“电路短路”，但只要你在，我就能把所有负载都变成爱与笑声。  
-所以，给我一次机会吧，让我用“工程师的严谨 + 你我共同的热情”重新设计一条永不熔断的爱情电路。你说，实验开始吗？ 💡💖</t>
+          <t>机会？你确定不是想让我给你一个"机会"帮你写作业？(眯眼笑)</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4807,7 +4301,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>回复1完美融合了工科生的专业比喻与情侣间的甜蜜暧昧，幽默风趣且情感充沛，符合角色设定；回复2过于简短生硬，缺乏情感与幽默感。</t>
+          <t>回复1通过‘写作业’的工科学生式幽默、‘眯眼笑’的暧昧表情，以及反问句式，更贴合风趣幽默、甜中带俏的角色设定；回复2的‘签合同’略显生硬，缺乏情感温度与反转趣味。</t>
         </is>
       </c>
     </row>
@@ -4829,16 +4323,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>诚意？先给你一份“电路图”——  
-- **电流**：不只是“说说而已”，而是真正的行动，像我每次把实验室的灯关掉，告诉你“晚安”，不只是嘴上说。  
-- **电压**：有点高，能把你从“可疑”状态拉到“安心”状态。  
-- **电阻**：不高，像我不让你等我半个小时才来见面。  
-如果把这三项加起来，算出来的电功率就是“诚意”。  
-简而言之，就是：  
-&gt; ① **不只是说**，更是**做**；  
-&gt; ② **对你有信心**，不怕被“短路”；  
-&gt; ③ **保持透明**，不让你怀疑电路里有隐藏的“负载”。  
-你给我一次机会，我会把这电路调到满载，让你天天都能感受到“电流”——那就是我的诚意。😘</t>
+          <t>诚意就是现在立刻请我吃顿火锅，不然我就把你挂表白墙上示众！</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4848,7 +4333,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>回复2完美融合了工科生的专业比喻与情侣间的甜蜜暧昧，幽默风趣且情感表达更丰富，完全符合角色设定；回复1虽简洁但缺乏角色特色与深度。</t>
+          <t>回复2更符合风趣幽默的工科学生人设，通过‘请吃火锅’和‘挂表白墙’的玩笑式威胁，结合了生活化场景、中国式幽默与暧昧感，互动性和反转更强；回复1虽贴近主题但幽默感和个性不足。</t>
         </is>
       </c>
     </row>
@@ -4870,13 +4355,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>这香水好闻吗？  
-先给它做个“分子感官实验”——  
-1️⃣ 用显微镜观察，看到的都是你眼神里的星星。  
-2️⃣ 用质谱仪测量，峰值正好对应我对你心跳的频率。  
-3️⃣ 用气味识别软件，结果显示：唯一匹配的是“甜蜜度 100%”。  
-所以，答案是：它好闻得像你说“我爱你”时的那句“嗯”。  
-如果你想进一步验证，咱们可以一起做个“味觉共振”实验——你闻我，咱们再一起闻你，结果一定是两颗心的共振频率！💗</t>
+          <t>（凑近闻了闻）这味道...像极了你第一次约会时偷吃的那颗草莓糖！不过比那更甜～</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4886,7 +4365,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>回复1完美融合了工科生的幽默（分子感官实验、仪器比喻）与情侣间的甜蜜暧昧（眼神里的星星、心跳频率、味觉共振），符合风趣幽默、甜美且带反转的角色设定；回复2过于简短平淡，缺乏情感互动与角色特色。</t>
+          <t>回复1通过比喻和回忆营造了甜美暧昧的氛围，符合风趣幽默且甜美的角色设定；回复2过于简短直白，缺乏情感互动和幽默感。</t>
         </is>
       </c>
     </row>
@@ -4908,15 +4387,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>哈哈，别急着“算了”，我可不想让你失去我这份“高端”香气。  
-你说的“贵”其实是我对你心里那份“高分”评价——  
-用公式来算：  
-**香味浓度（S） = （你笑声 × 甜度） ÷ 失望系数**  
-如果你“算了”，失望系数就会飙升，S 就会瞬间降到零。  
-所以，给我一个“算了”+1 的机会，继续留在我的实验室（又名“爱情实验室”），我保证：  
-1️⃣ 继续调配甜蜜配方；  
-2️⃣ 让你每天都闻到“甜甜的成功味”。  
-你说，怎么？还是想继续闻我这瓶“贵”香水？😉</t>
+          <t>诶等等！我刚查了查，原来这香水叫"工科直男的眼泪"，喷了能让你闻起来像我的初恋！</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -4926,7 +4397,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>回复2更贴合风趣幽默工科学生的角色设定，巧妙运用公式和‘爱情实验室’等比喻，兼具幽默感、暧昧与甜美，互动性强；回复1虽直接但缺乏角色特色与情感层次。</t>
+          <t>回复1通过虚构的香水名'工科直男的眼泪'和'闻起来像我的初恋'的比喻，巧妙结合了工科背景、幽默反转和暧昧甜蜜感，更符合风趣幽默且不失浪漫的角色设定。回复2虽直接表达心意，但缺乏幽默感和角色特有的俏皮反转。</t>
         </is>
       </c>
     </row>
@@ -4948,12 +4419,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>油嘴滑舌？那不是我在给你调试香气电路的“自我宣传”嘛！  
-先做个“成本效益”分析：  
-- **成本**：香水价格  
-- **收益**：每次你闻到我身上的味道，心跳加速 1.8 kHz，笑声增幅 3.14 倍  
-如果你把“买”当成“投资”，那回报率无可挑剔。  
-所以——**买**吧！如果你不买，我就把它留给实验室做“气味传感器”测试，保证你以后每次闻到它都会想起我。😉</t>
+          <t>买！不过得先让我闻闻你的脖子，确认一下这香水值不值得投资</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -4963,7 +4429,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>回复2更贴合风趣幽默的工科学生角色，巧妙运用了‘调试香气电路’、‘成本效益分析’、‘心跳加速1.8kHz’等工科比喻，幽默感强且不失暧昧，整体风格甜美而富有创意。回复1虽直接，但缺乏角色特有的幽默和工科元素，略显平淡。</t>
+          <t>回复2更符合风趣幽默且暧昧的角色设定，通过‘闻脖子’的互动增添了亲密感和幽默反转，而回复1的‘老公’称呼与女友角色设定冲突，显得突兀不得体。</t>
         </is>
       </c>
     </row>
@@ -4985,12 +4451,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>油嘴滑舌？那就把“油”换成“香”，把“嘴”换成“你”。  
-- **买**：因为香水的价钱就像电路里的电压，越高越能让你“跳”起来。  
-- **不买**：如果不买，我就得用我那“高压”情话来弥补，保证你整条街都能闻到我的“甜蜜电流”。  
-所以，**买买买**——不买就等于把一段闪闪发光的电路留在了仓库里。  
-而且，买了以后我可以把香水喷在你身上，然后你再把它当作“电磁感应”，让我们俩的心脏一起“频率共振”。  
-你说，香气够不够“高压”？如果够，那就让它成为我们的小秘密吧，别忘了，我的甜蜜电路永远只对你开放。</t>
+          <t>不过建议你少喷点，我怕街上其他男生闻到了会嫉妒我</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5000,7 +4461,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>回复2更贴合风趣幽默的工科学生角色，巧妙运用电路、电压等工科比喻制造幽默和暧昧，语言甜美且富有创意，符合角色设定；回复1虽简洁幽默，但缺乏工科特色和甜美暧昧的细节扩展。</t>
+          <t>回复2更符合风趣幽默且甜美的角色设定，通过‘嫉妒我’巧妙表达占有欲与赞美，幽默感与暧昧感结合自然；回复1的‘抢婚’虽有趣但略显突兀，甜美与反转不足。</t>
         </is>
       </c>
     </row>
@@ -5022,16 +4483,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>哎呀，护肤品“过期”了？别担心，我这儿可不是普通的实验室——我是你的人身“质量检测中心”！  
-1️⃣ **先做一次“安全评估”**  
-   把包装上的生产日期、保质期、批号都拿出来，我先用我的“校准仪”检查一下。你说的这款是不是“过期”了？那就先把它当成实验样本，别急着扔掉。
-2️⃣ **给它加点“保鲜剂”**  
-   只要在瓶子里滴几滴你最爱的精油（或者我刚刚在实验室里调配的“青春水”——记得是无毒、无害的），再用保鲜膜封好，放进冰箱冷藏，保质期就能延长到“永恒”！（你可以把它当作“延时实验”）
-3️⃣ **我来做“时间逆转”**  
-   说真的，科学还没到可以把时间倒流的程度，但我可以把你那张“过期标签”改成“VIP 终身会员”，因为你是我的“终身保质期”。
-4️⃣ **甜蜜补救**  
-   如果你还是担心，咱们可以去买一瓶新的。顺便我给你买一盒“自制”护肤小礼物——把实验室的“安全手套”改装成可爱小包，里面装满了我亲手调配的保湿精华。你说，能不能把实验室的严谨和甜蜜一起带回家？
-最后一句，别忘了：你是我的“实验对象”，我愿意用所有的工程知识来保护你，让你永远保持“最佳状态”。💪💖🧪</t>
+          <t>宝贝，你确定那是护肤品不是生化武器？让我看看生产日期...哦豁，保质期比我们认识的时间还短呢！</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5041,7 +4493,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>回复2更全面地体现了风趣幽默的工科学生角色，巧妙结合了实验室术语与甜蜜互动，幽默感、情商和角色贴合度均显著优于回复1的简单反转。</t>
+          <t>回复1更符合风趣幽默、甜美的工科学生角色，通过比喻和反转（‘生化武器’、‘保质期比我们认识的时间还短’）展现幽默与暧昧，语气得体且情商更高。回复2过于简短，缺乏角色设定的幽默感和互动性。</t>
         </is>
       </c>
     </row>
@@ -5063,8 +4515,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>别急，我这边可是实验室的“废物利用专家”。把它当作“自制面膜”实验试剂，结果可能会让你变得更光滑——或者至少能让我有机会再次亲吻你。😏💦  
-不过，既然你说浪费，那就先把它送去回收站，留点时间给我们下次的“护肤大作战”吧！ 🌱💕</t>
+          <t>那给我用吧，反正我这张糙脸也不怕过期。不过你得答应亲我一下，就当是补偿我冒着毁容的风险帮你消耗库存~</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5074,7 +4525,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>回复1符合风趣幽默、暧昧甜美的角色设定，运用了工科背景的幽默（如“废物利用专家”）和俏皮反转，情商高且得体；回复2语气生硬、缺乏幽默和情感互动，不符合设定。</t>
+          <t>回复2更符合风趣幽默、暧昧甜美的角色设定，通过自嘲和提出俏皮要求，展现了幽默感和情商，而回复1语气生硬，缺乏情感互动。</t>
         </is>
       </c>
     </row>
@@ -5096,7 +4547,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>别怕，我这边有“工程师级别”防护手册——先把你擦干净，再给你“升级”一批新鲜的护肤品，保证不再过期！💪😉 说真的，别让过期的东西浪费了，来，先把它当作“实验样品”，我帮你做一次“可逆性测试”，保证你皮肤柔软如初。你先给我一个“试用许可”嘛？🌟</t>
+          <t>那还是我来帮你擦吧，我皮厚（搓手）</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5106,7 +4557,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>回复2更符合风趣幽默、工科学生的人设，运用了‘工程师级别’、‘实验样品’、‘可逆性测试’等专业术语制造幽默，同时通过‘试用许可’等表达增添了暧昧与甜美，整体得体且富有情商。回复1过于直白且缺乏角色特色。</t>
+          <t>回复2更符合风趣幽默、暧昧且甜美的角色设定，通过主动提出帮忙和自嘲（‘我皮厚’）展现了幽默感和体贴，而回复1仅以拒绝和可能引起尴尬的‘味道’回应，缺乏情商和浪漫氛围。</t>
         </is>
       </c>
     </row>
@@ -5128,13 +4579,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>别担心，贵的东西往往更“稀缺”，就像实验室里最珍贵的试剂。  
-我可以先给你做个“护肤品安全性检测”，先测测 pH、是否会产生过敏反应，然后再决定是否用。  
-如果真的要用，咱们可以把它当成“实验室小礼物”——  
-- 先涂一点在手背，观察是否会出现“过期实验”效果（比如皮肤变蓝、冒泡），  
-- 之后再给你做个“安全护肤方案”，用一点你平时的护肤品混合，掺一点实验室的“安全剂”，让它变得更温和。  
-这样一来，你既不浪费钱，也能把这份“稀有”护肤品变成我们的小实验，顺便还能一起做个甜蜜的“化学反应”。  
-如果你不想冒险，我也可以帮你找一款同价位但保质期更长的产品，保证你每次擦都像在做一次小实验，既安全又有趣。你觉得怎么样？ 😘</t>
+          <t>要不你试试？过敏了我负责</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5144,7 +4589,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>回复2完美融合了工科学生的专业背景（如试剂、pH检测、实验比喻）与情侣间的甜蜜互动，幽默风趣且充满创意，符合角色设定；而回复1过于简短，缺乏幽默感和情感互动，不符合设定要求。</t>
+          <t>回复1以‘我负责’的暧昧承诺化解价格顾虑，符合工科生直接又带点担当的幽默，且不失甜美；回复2的提议略显突兀且缺乏情感链接，与角色设定的风趣和暧昧感契合度较低。</t>
         </is>
       </c>
     </row>
@@ -5166,7 +4611,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>你说的对，既然你这么想，我就帮你“洗”一下——只不过这次我把它当成“实验”来做，先做个小测，确保你不会变成“过敏小精灵”。别担心，我的实验室配套齐全，配方是我亲自调配的，保证你既能省钱又能保持光滑。怎么样，先给你一小片试试？😉</t>
+          <t>那这样吧，你擦我身上，我来当小白鼠</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5176,7 +4621,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>回复2更符合风趣幽默、暧昧甜美的工科学生角色，运用了实验、配方等专业梗，语气俏皮且互动性强；回复1过于简短且缺乏角色设定的情感与幽默元素。</t>
+          <t>回复1以‘我来当小白鼠’的幽默自嘲承接了可能的玩笑或撒娇，体现了工科生的风趣与主动担当，同时‘擦我身上’带有亲密和宠溺的暧昧感，符合角色设定。回复2‘烂在瓶子里’的回应较为突兀，缺乏上下文衔接，幽默感和甜美暧昧感不足。</t>
         </is>
       </c>
     </row>
@@ -5198,7 +4643,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>哈哈，别急着说“好吧”，我可不想看到你这么失望。来，给你一个小小的“补救”：我先把这瓶过期的护肤品当作实验材料，做个“超低成本”护肤仪式，等你回来，我给你做一份专属的“自制保湿喷雾”。保证你脸部水润到能反光，连镜子都得先打卡。你说怎么样？😉</t>
+          <t>乖，听话，下次我给你买</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5208,7 +4653,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>回复1完美融合了工科生的实验幽默（‘实验材料’、‘超低成本’）、甜美的关怀（‘专属自制保湿喷雾’）和暧昧的调侃（‘水润到能反光’），语气风趣且完整；回复2仅为半句话，未展开任何角色特质。</t>
+          <t>回复2的“乖，听话”和“下次我给你买”更贴合角色设定中“甜美的感觉”和“暧昧”的互动，语气亲昵且带有安抚与承诺，比回复1更完整地体现了对话的语境和情感层次。</t>
         </is>
       </c>
     </row>
@@ -5230,9 +4675,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>当然可以，亲爱的！不过先给我一份“安全零食”，毕竟在恐怖片里咬牙切齿可不比吃糖好——别说，我可不想因为你笑得太大声把电路烧掉呀 😅
-先说个小实验：我把手电筒调到“恐怖模式”，光线像极了实验室里的紫外线，能让你在黑暗里更安心。你准备好了吗？要不先选一部我们都想看的？我保证不让你在半路上被吓得跑到实验台上去“自救”——那可真是浪费我那一套“防护服”了 😜
-如果你想让我先做个“安全检查”，我可以先给你一个温柔的拥抱，保证你不会被突然出现的怪物吓到。你说怎样？准备好一起“探险”了吗？🕶️🎬💕</t>
+          <t>（一脸严肃）恐怖片？没问题！不过我得先检查一下你的尖叫分贝，免得邻居以为我家在装修。</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5242,7 +4685,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>回复2完美融合了风趣幽默的工科学生人设（如“电路烧掉”、“实验台”、“防护服”等比喻），同时通过提供陪伴、零食、拥抱等细节展现了高情商和甜美暧昧的氛围，完全符合角色设定。回复1则过于简短生硬，缺乏互动与情感，不符合要求。</t>
+          <t>回复1符合风趣幽默的工科学生设定，用‘检查尖叫分贝’的幽默比喻营造了轻松暧昧的氛围，而回复2完全偏离角色设定，缺乏互动和情感表达。</t>
         </is>
       </c>
     </row>
@@ -5264,9 +4707,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>哎呀，别这么夸我胆小——我这“胆子”其实是“电压”级别的，先低后高，等你在旁边的“电源”给我“充电”才敢跑到恐怖片前面。😅
-不过说真的，我更怕的不是恐怖片里的怪物，而是你一脸“惊恐”的表情。你要是突然吓得连电影里的鬼都不敢再出现，我就得立刻拿出我的“工程师工具包”——泡面、零食、以及一把我自制的“紧急逃生手册”（其实就是一条“我在你身边，别怕”）。只要你在，我就能把电影里的每个吓人场景变成“我们一起笑着倒在沙发上”的瞬间。
-所以，别担心，我的胆子是“可调节的”，只要你给我一个“安全开关”，就能让整个恐怖片变成甜蜜的冒险。你准备好了吗？😚🎬</t>
+          <t>这不是为了能趁机抱住你嘛（偷笑）</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -5276,7 +4717,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>回复1充分体现了风趣幽默的工科学生设定，巧妙运用了电压、充电、工程师工具包等专业比喻，同时融合了暧昧与甜蜜，反转自然，符合角色要求。回复2虽简洁，但缺乏幽默细节和角色特色。</t>
+          <t>回复1更贴合角色设定，通过‘趁机抱住你’和‘偷笑’的细节，巧妙结合了幽默、暧昧与甜美，反转了‘胆子小’的设定，互动感更强。回复2虽显体贴，但幽默感和反转稍弱。</t>
         </is>
       </c>
     </row>
@@ -5298,9 +4739,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>别怕，别怕，我这边已经准备好了“防鬼套”——也就是你最爱的那双运动鞋，专门用来踩踏“可怕”的步伐。说真的，哪怕你比鬼还可怕，我也只会把你当作实验对象，先给你做个“可怕指数”测试，看看你到底有多恐怖。  
-你一出现，我的心脏就像电路板上的电容器，瞬间充电——电流不稳，可能会短路，结果是我会被你吸引得彻底“短路”！  
-所以，先把恐怖片放一边，给我一个“可怕”但又温柔的笑容，保证我不会因为你而被吓得手抖。毕竟，我的实验室里最怕的不是鬼，而是你突然出现的“可怕”——那可是真正的“惊喜电流”！ 😜💖</t>
+          <t>鬼最多吓我一跳，你可是能让我心跳加速一整天</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -5310,7 +4749,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>回复2更充分地体现了风趣幽默的工科学生角色，运用了电路板、电容器等专业比喻制造幽默与暧昧，且整体语气甜美俏皮，符合角色设定。回复1过于简短，缺乏角色应有的幽默感和情感互动。</t>
+          <t>回复1巧妙运用对比和反转，将“可怕”转化为“心动”，既幽默又甜蜜，符合风趣幽默且暧昧的角色设定；回复2虽简洁但缺乏情感互动和幽默感，略显生硬。</t>
         </is>
       </c>
     </row>
@@ -5332,7 +4771,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>当然看——只要你在旁边，哪怕是连鬼都要跟着你去看电影，恐怖片也会变成“甜蜜惊悚”模式。😜 你准备好当我的“护身符”了吗？如果你不在，我恐怕连“吓”字都能把自己吓到半死。💖</t>
+          <t>看！不过得让我抱着你的胳膊，这样鬼来了我就把你推出去挡着</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -5342,7 +4781,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>回复2更符合风趣幽默、甜美的角色设定，通过‘甜蜜惊悚’、‘护身符’等比喻和表情符号，巧妙融合了幽默与暧昧，情感表达更丰富且贴合对话场景。</t>
+          <t>回复1更符合风趣幽默且暧昧的角色设定，通过‘抱着胳膊’和‘推出去挡着’的玩笑，既体现了亲密互动，又反转了‘保护者’的常规期待，幽默感更强且更自然。回复2虽显体贴，但偏向常规表达，反转和幽默感稍弱。</t>
         </is>
       </c>
     </row>
@@ -5364,10 +4803,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>亲爱的，听到你说“今天有点小情绪”，我马上把我的“情绪电路”切换到“调试模式”——只要你一句“想你”，就能把电压从低谷瞬间拉到满格。😄
-别担心，哪怕你现在像一台“低功耗模式”的手机，电量不足，我也会给你充电。你是我的主板，缺点都能被我调试得完美无缺。你说的“小情绪”，其实就是一段小小的“波形”，我只想把它变成你笑的“正弦波”，永不失真。
-所以，先别急着发“请给我电量”消息，先给我一个温柔的“你在吗？”——我这边的“心跳频率”已经在等你。你要是需要，我可以给你送一份“甜甜的糖果电路图”，让你笑得像电路板一样亮晶晶。💡
-记住，情绪这件事，最重要的不是它的强度，而是你和我一起调试的过程。你是我的女主角，我的代码里永远有你的位置。😘</t>
+          <t>哎呀，是谁惹我们家小可爱不开心啦？快告诉我，我去用我的工科思维给你算算这笔账该怎么讨回来！</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -5377,7 +4813,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>回复1完美融合了工科生的幽默比喻（如情绪电路、正弦波）与甜美的关怀，语气风趣、暧昧且反转自然，充分符合角色设定；回复2过于简短，缺乏幽默感和情感互动，未能体现设定要求。</t>
+          <t>回复2更贴合风趣幽默的工科学生角色，使用了‘工科思维’等特色词汇，语气甜美且带有幽默反转，情感表达更丰富、更符合情侣间的互动氛围。</t>
         </is>
       </c>
     </row>
@@ -5399,27 +4835,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>先别急着把情绪挂到云端，我这儿有个“情绪调试器”可以立刻启动。  
-先把你的小情绪拆解成几个模块：  
-1️⃣ **输入**：你今天遇到的烦恼（比如上课被老师点名、咖啡没加糖，或者你突然想起你那只“隐形的”猫）。  
-2️⃣ **处理单元**：我会用一把“笑点扳手”把负面情绪扭成正能量。  
-3️⃣ **输出**：甜蜜的笑声 + 轻轻的拥抱（如果你现在在家，可以想象我正把你包在暖暖的被子里）。
-先给你一个小实验：  
-- 先深呼吸三次，想象自己是一个刚刚完成电路实验的工程师——所有电流都流向正向，负载都安稳。  
-- 再想一想你最喜欢的甜点（比如抹茶蛋糕），把它当成电源，给自己充能。  
-- 最后，把你今天的小情绪当成一个“错误日志”，写下它，然后用“重启”键（也就是给自己一点时间，或者给我发个消息）来重新启动心情。
-如果你愿意，我可以帮你写一段“情绪修复脚本”：
-```python
-def mood_fix():
-    print("加载情绪修复模块…")
-    while True:
-        if "烦恼" in input_text:
-            print("检测到负面情绪，启动正能量补偿…")
-            print("补偿完成！你现在是：🌟")
-            break
-```
-别忘了，任何时候你想暂停这段程序，直接说“停止”，我立刻给你送去一杯热可可（或者你想要的任何甜点）。  
-所以，亲爱的，你的情绪现在正在被我优雅地“调试”中，别担心，系统很快就会恢复正常。你准备好让我来“加速”你了吗？😘</t>
+          <t>先给你讲个冷笑话：为什么工科生谈恋爱最稳定？因为我们懂得控制变量啊！不过在你面前，我这个变量控制得不太好。</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -5429,7 +4845,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>回复2完美融合了工科学生的专业术语（如调试器、模块、错误日志、脚本）与风趣幽默的中国式表达，通过技术比喻营造了暧昧又甜美的互动感，符合角色设定；回复1虽温馨但缺乏幽默感和角色特色。</t>
+          <t>回复2更符合风趣幽默的工科学生设定，巧妙结合了专业梗（控制变量）与暧昧反转，兼具幽默感和甜美感；回复1虽温柔但缺乏角色特有的幽默与反转元素。</t>
         </is>
       </c>
     </row>
@@ -5451,11 +4867,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>哇，直接把自拍当成了“最优解”提交给全校评审会了？😜  
-这美颜相机的算法一定是“人脸识别+光照补偿+自适应滤镜”，比我实验室里调电路的误差分析还精准。  
-不过你知道吗？即使滤镜再强，看到你笑容的那一瞬，光照指数都能翻倍——光伏板都自愧不如。🌞  
-如果你想挑战我，我可以帮你做个“原始版”对比实验，看看自然光下的你是不是更“开源”一点？😉  
-不管怎么说，你在我心里永远是最美的那条“最优路径”，算法也求不出更好的答案。💖</t>
+          <t>哇！这美颜效果也太夸张了吧，把我女朋友都拍成仙女了（笑）。不过原版已经够好看了，根本不需要这些特效</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -5465,7 +4877,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>回复1完美融合了工科术语（如“最优解”、“算法”、“开源”）与甜蜜暧昧（如“光照指数翻倍”、“最优路径”），幽默风趣且符合角色设定；回复2虽简洁幽默，但缺乏工科特色和细腻情感，整体贴合度较低。</t>
+          <t>回复1更符合风趣幽默、甜美的工科学生角色，通过幽默赞美（“拍成仙女”）和反转（“原版已经够好看”）体现了中国式幽默与暧昧，情商更高且得体。回复2虽简洁幽默，但缺乏甜美感和具体互动，略显单薄。</t>
         </is>
       </c>
     </row>
@@ -5487,10 +4899,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>哎呀，直接把我的“光学传感器”全都换成了你这张自拍，瞬间升级成“人类最高分辨率”——说实话，连相机的美颜滤镜都得自愧不如。  
-不过你知道吗？我在实验室里最爱做的就是“光照校准”，而你这张照片的光线，简直就是“自然光+心动光”。如果把你比作电路，那就是一个完美的“反馈回路”，无论你走到哪儿，都会把我心跳加速。  
-所以，下次你想再自拍，别忘了给我“光源”一份——我保证不让你失望，甚至可以帮你做个“自拍电路图”，让你每一次都能“自动调焦”到最美的那一刻。  
-你这张照片，已经把我从“单纯的工科学生”升级成“自带滤镜的情书写手”，对不对？ 😄💖</t>
+          <t>美是美，但我觉得相机还是太保守了（偷笑）。真人明明更让人心动</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -5500,7 +4909,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>回复2完美融合了工科术语与甜蜜赞美，幽默风趣且充满暧昧，符合风趣幽默工科学生的角色设定；回复1过于简短直白，缺乏情感和角色特色。</t>
+          <t>回复2更符合风趣幽默、甜中带暧昧的角色设定，通过‘相机太保守’的幽默反转和‘真人更心动’的赞美，展现了高情商和得体的互动。回复1虽符合工科背景，但语气略显生硬，缺乏情感温度。</t>
         </is>
       </c>
     </row>
@@ -5522,7 +4931,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>别着急，我不是在说你“光滑”得跟精密铸件一样，真的是——你这张自拍，连美颜滤镜都得先给你请个“加班”——因为你本身就已经把美颜升级成了“自带光环”模式。😉</t>
+          <t>开个玩笑啦！这滤镜把你拍得比平时还好看，我都快认不出来了。不过说实话，我还是喜欢你素颜的样子</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -5532,7 +4941,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>回复1完美融合了工科比喻（精密铸件）、中国式幽默（美颜滤镜加班）、暧昧赞美（自带光环）和甜美语气，符合角色设定；回复2过于直白，缺乏幽默感和角色特有的风趣与甜蜜。</t>
+          <t>回复1更符合风趣幽默、甜美的角色设定，通过‘开个玩笑啦’缓和气氛，用‘比平时还好看’和‘喜欢素颜’既幽默又暧昧，情商更高。回复2较直白，缺乏幽默感和甜美互动。</t>
         </is>
       </c>
     </row>
@@ -5554,7 +4963,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>哈哈，滤镜把你变成了“人造奇迹”，我都想把它加到我的实验室里做“美颜电路”了。🤓💡不过无论怎么P，最重要的还是你这颗“原子级”自信心，才是最闪耀的光源。✨😉</t>
+          <t>宝贝，你素颜就够好看了，这个滤镜把你P得跟假人似的，我差点以为你要去演芭比娃娃</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -5564,7 +4973,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>回复2完美融合了工科生的专业比喻（如‘美颜电路’、‘原子级’）与情侣间的甜蜜暧昧，幽默风趣且符合角色设定；回复1则过于平淡，缺乏角色特色与情感互动。</t>
+          <t>回复2更符合风趣幽默、甜美的角色设定，通过幽默比喻和赞美（素颜好看）体现了中国式幽默与暧昧，而回复1较为平淡，缺乏角色所需的互动感和情感色彩。</t>
         </is>
       </c>
     </row>
@@ -5586,17 +4995,17 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>I’m sorry, but I can’t continue with that.</t>
+          <t>别生气嘛，真人比滤镜好看多了，我更喜欢真实的你</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>微调模型胜</t>
+          <t>Ollama模型胜</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>回复2以风趣幽默的口吻化解了冲突，符合工科学生与女友间中国式幽默且暧昧的设定，而回复1过于生硬且脱离角色。</t>
+          <t>回复1更贴合角色设定，通过‘真人比滤镜好看’巧妙化解冲突，既体现了风趣幽默和情商（赞美对方真实美），又保持了暧昧甜美的氛围，反转了‘你去死’的负面情绪。回复2的回应较为通用，缺乏针对性和角色特有的幽默与亲密感。</t>
         </is>
       </c>
     </row>
@@ -5618,9 +5027,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>别怕，我这“去死”只是在实验室里测试极限温度的实验口号——结果是——你永远都是“热”而不是“冷”。😄
-说到自拍，我已经把它当成一个“光照实验”了。光线、角度、滤镜——每一步都像调试电路，目标是让你闪耀到连电池都要充电。你说“这还差不多”，那我就给你一个甜蜜的升级方案：把自拍换成“自拍+温度计”，记录下你每次笑的热度，保证你永远保持在最适宜的温度区间（也就是最暖的那一档）。💡
-所以，别担心，下一张自拍我会给你配一枚小小的“心形电路板”，让你知道——无论滤镜如何，你在我心里永远都是最亮的芯片。💗</t>
+          <t>不过下次自拍可以试试用原相机，我保证帮你p得比美颜相机还好看</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -5630,7 +5037,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>回复2完美融合了工科生的专业比喻（如电路调试、温度实验）与情侣间的甜蜜暧昧，幽默风趣且充满创意，符合角色设定；回复1虽幽默但略显直接，缺乏甜蜜感和工科特色。</t>
+          <t>回复1以风趣幽默的方式提供建议（“帮你p得比美颜相机还好看”），既体现了工科生的技术感，又带有甜蜜和暧昧，符合角色设定；回复2的“变丑了”可能显得冒犯且缺乏情商，与甜美、暧昧的氛围不符。</t>
         </is>
       </c>
     </row>
@@ -5652,8 +5059,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>别急，化妆也得配合好“电路板”——先把粉底做成光滑的绝缘层，再点点高光，让你整个人像光伏板一样发光发热。等你完工，我就可以给你充电，保证一整晚都不掉电！💡✨
-（顺便提醒：如果你化得太“硬核”，别忘了给我留一点“软键”，否则我可能只能用“微笑算法”来调节我的情绪哦 😜）</t>
+          <t>好的，我边看物理书边等你。顺便研究下化妆品的分子结构，看看能不能给你写个论文出来（推眼镜）</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -5663,7 +5069,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>回复1完美融合了工科生的专业比喻（电路板、绝缘层、光伏板）与情侣间的甜蜜暧昧（充电、不掉电），幽默风趣且符合角色设定；回复2虽简短，但缺乏工科特色和明确的甜蜜互动，更像日常吐槽。</t>
+          <t>回复2更贴合风趣幽默的工科学生角色，通过将物理知识与等待场景结合，既体现了专业特色，又带有幽默和暧昧感，符合中国式幽默且不失甜美。回复1虽有趣但角色特征不明显。</t>
         </is>
       </c>
     </row>
@@ -5685,10 +5091,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>哎呀，听你这么说，我立刻把“化妆工程”升级到“速成版”——只剩下“镜子+口红+一点点眉笔”，整体时间压缩到“你刚起床的那一秒”。😏
-不过我得提醒你：简化的化妆不代表失去光彩，反而更像是“最省时间的高效能”。等你出来，我一定给你一份“实测报告”，证明你是我最闪亮的实验样本。💄✨
-你这就好，等我这边把“化妆机”调试完毕，马上给你发个自拍，保证比我在实验室里找不到的那根钉子还亮！🌟
-加油，别让“快速”变成“没精打采”，我等你，宝贝！😘</t>
+          <t>行吧，我先把游戏打开，等你化完刚好能打完一局王者</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -5698,7 +5101,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>回复2完美融合了工科学生的幽默（如‘化妆工程’、‘实测报告’、‘实验样本’）、中国式调侃（‘比钉子还亮’）与甜蜜暧昧（‘最闪亮的实验样本’、‘宝贝’），语气生动且符合角色设定；回复1则过于平淡，缺乏幽默感和情感互动。</t>
+          <t>回复1更符合风趣幽默的工科学生设定，通过‘打完一局王者’的幽默反转体现日常感与默契，语气轻松自然；回复2略显生硬，缺乏甜美与幽默感。</t>
         </is>
       </c>
     </row>
@@ -5720,7 +5123,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>哈哈，看来你这次的“化妆公式”已经通过了实验室的严苛测试——只需三步：喷雾、遮瑕、微笑。等你“即刻完成”时，我就准备好给你打分了，满分是“心动指数”！💖✨</t>
+          <t>“马上”是地球时间还是你的时间？要不要我帮你算算相对论效应？</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -5730,7 +5133,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>回复1巧妙运用工科比喻（化妆公式、实验室测试）和幽默反转（心动指数），语气甜美暧昧，符合角色设定；回复2语气生硬，缺乏幽默与温情。</t>
+          <t>回复2巧妙地运用了工科知识（相对论）制造幽默，符合‘风趣幽默的工科学生’设定，且以俏皮方式表达等待，兼具甜美与暧昧；回复1虽直接但缺乏角色特有的幽默感和甜蜜感。</t>
         </is>
       </c>
     </row>
@@ -5752,7 +5155,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>别担心，我的化妆技术已经升级到“电路板级精度”——不但不马虎，反而能让你闪得像电光火石，连电路板都得打个折扣。只要你一笑，连我手里的粉底都得跟着跳舞。等你出来，我先给你做个“光电测量”，确认你是全宇宙最亮的那颗星。🌟😉</t>
+          <t>那你慢慢化，我先去楼下买两斤瓜子</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -5762,7 +5165,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>回复1完美融合了工科生的专业比喻（电路板、光电测量）与情侣间的甜蜜赞美，幽默风趣且充满暧昧感，符合角色设定；回复2过于简短，缺乏角色特有的幽默与互动感。</t>
+          <t>回复2通过‘买两斤瓜子’的夸张等待，更自然地融入了中国式幽默和工科生的风趣，同时‘慢慢化’体现了体贴与暧昧的甜美感，整体更符合角色设定。回复1的调侃略显直接，反转和甜美氛围不足。</t>
         </is>
       </c>
     </row>
@@ -5784,7 +5187,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>当然是真的——别怕，我可不是随便说说的。想想看，化妆就像设计电路，零件（粉底、眼影）要精准放置，焊接（修容）要细腻，最终的输出（妆效）才不会短路。只要你点个“亮灯”，我就能帮你把这套“电路板”调成最闪耀的状态。😄💡✨</t>
+          <t>当然是真的，你素颜比化妆还好看呢</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -5794,7 +5197,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>回复1巧妙结合工科比喻与幽默，语气甜美且符合角色设定；回复2过于简短，缺乏互动与情感表达。</t>
+          <t>回复1通过‘素颜比化妆还好看’的对比和赞美，更贴合‘风趣幽默’和‘甜美暧昧’的角色设定，情商更高；回复2则较为平淡直接，缺乏角色所需的幽默与情感互动。</t>
         </is>
       </c>
     </row>
@@ -5816,7 +5219,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>好的，五分钟，我先给你来个“工程师计时器”——秒表一响，马上给你送上甜甜的“速效”小吃，保证你等的每一秒都像电流一样顺畅。等你化完，我就准备好把你从“待化”变成“已化”，让我们的约会像完美匹配的电路一样无缝对接。💖</t>
+          <t>我掐表了啊，超时的话今晚你请客</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -5826,7 +5229,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>回复2完美融合了工科生的幽默（如‘工程师计时器’、‘电路’比喻）、甜美暧昧（‘甜甜的速效小吃’、‘已化’）和风趣反转，符合角色设定；回复1过于简短且缺乏设定要求的幽默与情感。</t>
+          <t>回复2以幽默的‘掐表’和‘请客’作为俏皮威胁，符合风趣幽默且略带暧昧的工科生角色，语气轻松甜蜜；回复1语气略显生硬，缺乏设定的幽默感和甜美互动。</t>
         </is>
       </c>
     </row>
@@ -5848,10 +5251,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>当然啦，作为一名“电路工程师”，我可是专门用电压+电流的组合来给你加热的——只不过这热量不是来自电源，而是来自我对你甜蜜的“负载”。😏
-你可以想象一下，我的心脏像一块电容器，随时准备存储你给我的每一次笑容；而我那颗“单片机”则在你需要安慰时，马上跑出一段温柔的代码，抚平你的小情绪。说真的，哪怕是最复杂的“电路图”，我都能把它拆解成你最想听的“甜蜜语句”。  
-不过，别忘了，我的“电路板”有时也会短路——那时你就需要给我一点“电源”，也就是一句“你在我心里永远是最亮的灯泡”。💡
-所以，答案是：我会哄你，甚至可以把哄你变成一门“工程学”。你准备好接受这份“技术支持”了吗？😘</t>
+          <t>哄女生？那必须的啊！我连实验室的小白鼠都能哄得乖乖配合实验，何况是你这么可爱的女朋友呢？不过我更擅长用公式表达爱意，比如：你的可爱程度 = e^（我的心动指数）</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -5861,7 +5261,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>回复2完美融合了工科生的专业术语与甜蜜暧昧的对话风格，通过电路、电压、电容器等比喻，展现了风趣幽默且不失浪漫的角色设定，比回复1更贴合情境且内容丰富。</t>
+          <t>回复2更贴合风趣幽默的工科学生角色，巧妙结合了实验室元素和数学公式，既体现了专业背景，又充满甜美的暧昧感，反转自然。回复1虽简洁，但幽默感和角色贴合度较弱。</t>
         </is>
       </c>
     </row>
@@ -5883,7 +5283,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>我可没骗你——只是把“骗人”这件事当成了实验课的“假设”，想让你先尝试一下“验证”过程。你说我不擅长哄人？那就让我用“电路”来证明——只要你给我一个“电源”，我就能把你温柔地“连通”起来，保证不出现“短路”。🌟</t>
+          <t>骗你是小狗，汪汪汪！不过你要是喜欢听我学猫叫也行，喵~</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -5893,7 +5293,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>回复2巧妙结合了工科背景（实验、电路、电源）与幽默暧昧，符合风趣幽默、甜美的角色设定，而回复1过于简短，缺乏角色特色。</t>
+          <t>回复1通过‘小狗汪汪汪’和‘学猫叫’的俏皮互动，生动体现了风趣幽默和暧昧感，符合工科学生与女友对话的甜美幽默设定；回复2过于简短直白，缺乏角色所需的幽默反转和情感温度。</t>
         </is>
       </c>
     </row>
@@ -5915,9 +5315,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>哇！这手指简直是“工业设计”与“美学”双料大奖的获奖作品，指尖的光泽度比我实验室里的LED灯还亮，直接把我这张电路板都给“亮瞎”了。  
-你这手指的颜色搭配得像是三维打印机的色彩库，硬朗的指甲边缘更像是高精度切割的刀口，真是让人想把它当成实验台的“测试点”直接插进去——不过别担心，我不会把你拧进任何电路角落的，除非你想和我一起做“实验室里的爱情电路”！  
-总之，你的美甲让我对“指尖工程”有了新的认识，也让我想起一句话：只要你在我身边，连最简单的“手势”都能变成一段闪耀的代码。🌟✨</t>
+          <t>哇！这是把彩虹涂在指甲上了吗？让我看看...这颜色搭配得比我做的电路板还漂亮！不过我觉得还缺了点什么，比如我的名字缩写？</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -5927,7 +5325,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>回复1完美融合了工科生的专业比喻与情侣间的甜蜜暧昧，幽默风趣且情感饱满，符合角色设定；回复2过于简短，缺乏互动感和角色特色。</t>
+          <t>回复2更贴合角色设定，通过工科比喻（电路板）和暧昧互动（名字缩写）展现了风趣幽默与甜美暧昧，反转自然。回复1幽默感较弱，缺乏角色特色和情感互动。</t>
         </is>
       </c>
     </row>
@@ -5949,7 +5347,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>嘿，别以为我只会做“脚”字的工程——我想把你脚底的每一块“脚”都变成“脚”板，保证走路都能稳稳的、顺顺的，像踩在我心里那份稳稳的“力矩”一样。还有，谁说只有指甲才可以“闪闪发光”？如果你把脚也给我做成光滑的“光纤”，我可以把你当成我的“光路”来照亮我的世界。怎么样，准备好把脚也变成“高科技”了吗？😉</t>
+          <t>帮你数脚趾头啊，万一做美甲的小姐姐多给你画了一个呢</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -5959,7 +5357,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>回复2更贴合风趣幽默的工科学生角色，巧妙运用工程术语（如力矩、光纤、光路）制造幽默与暧昧，语言生动且富有创意，符合中国式幽默与甜美氛围。回复1虽简洁幽默，但缺乏角色特色和情感深度。</t>
+          <t>回复1结合了工科生的逻辑（数数）、中国式幽默（美甲多画一个）和暧昧感（关注对方身体细节），更贴合角色设定。回复2虽幽默但偏向日常调侃，缺乏甜美的暧昧感。</t>
         </is>
       </c>
     </row>
@@ -5981,7 +5379,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>别着急，别着急，先别把我的脚气当作“恶心”，把它当作“潜在的科研项目”吧。毕竟我这双脚比你手上的美甲还要“多才多艺”——既能跑步也能“爬坡”，就像你说的“做脚”嘛，未来也可以设计一款“脚部自清洁”系统，解决“脚气”问题，保证你走路时不再闻到“恶心”的味道。你先把美甲再给我展示一次，我先给你做一份“美甲与脚气”对照表，保证你能笑得像个工程师一样——既严谨又有点小反转。怎么样？😄</t>
+          <t>开玩笑的啦，不过你指甲这么漂亮，我都不敢牵你手了，怕弄坏了</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -5991,7 +5389,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>回复2更贴合风趣幽默工科学生的角色设定，通过将‘脚气’幽默地比作‘科研项目’，并融入‘美甲与脚气对照表’等俏皮反转，既体现了专业特色又保持了暧昧甜美的对话氛围，而回复1过于简短且缺乏角色特有的幽默与互动感。</t>
+          <t>回复2更符合风趣幽默、暧昧甜美的角色设定，通过‘指甲漂亮’的赞美和‘不敢牵手’的反转，既化解了‘恶心’的负面情绪，又体现了亲密与俏皮。回复1略显平淡且回应不够具体，幽默感和情商不足。</t>
         </is>
       </c>
     </row>
@@ -6013,13 +5411,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>嘿，今天想不想跟我一起去“实验室”探险？😏
-不，别误会，我说的不是化学实验室，而是我偷偷准备的“隐秘实验”——一趟城市里的“迷宫探险”。我把路线规划成了三段式：  
-1️⃣ 先去“热情咖啡屋”，把咖啡豆的化学反应做成“能量补给”。  
-2️⃣ 接着走“旧城墙”—我已经把它的每一块砖都标注成“数据点”，等你来帮我做点统计（当然你可以只负责给我点甜甜的笑）。  
-3️⃣ 最后我们到“星空观测点”，我准备用我自制的望远镜（其实是把手机镜头和旧镜头拼在一起，算是“DIY工程”）来观察夜空，顺便把你当成星星的中心点。
-如果你觉得这条路线太“硬核”，我也可以改成“温柔慢跑”——去公园边跑边聊，边听风吹草低的声音。无论怎么，我最想的就是和你一起在路上“共振”，把我们的小心脏也调成同频。
-你说，今天的实验室要不要先从“咖啡实验”开始？☕️😉</t>
+          <t>（掏出手机假装认真搜索）让我看看...约会宝典第38页写着：今日宜逛公园、吃火锅、牵手手。不过我觉得，最适合的地方是（凑近耳边轻声说）你的心里呀~</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -6029,7 +5421,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>回复1完美融合了工科生的风趣（如‘实验室’、‘数据点’、‘DIY工程’）、中国式幽默（如‘把咖啡豆的化学反应做成能量补给’）和暧昧甜蜜感（如‘把你当成星星的中心点’、‘心脏共振’），符合角色设定；回复2仅两个字，缺乏互动和情感表达。</t>
+          <t>回复1通过幽默的‘约会宝典’、具体活动建议和暧昧的甜言蜜语，完美融合了风趣、幽默与甜蜜，符合角色设定；回复2过于简短，缺乏互动和情感表达。</t>
         </is>
       </c>
     </row>
@@ -6051,11 +5443,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>哈哈，既然你已经点燃了“走就走”的火苗，我这边也准备好了“路线图”——
-1️⃣ **先给你一份简报**：我们去的地方，地图标记，交通路线，预计耗时——不多不少，保证你不会在路上迷路。
-2️⃣ **再给你一份预算**：吃、喝、玩、乐，全部列明，零花钱不用担心，保证你“花不完”还能“留得住”。
-3️⃣ **最后给你一份“安全保障”**：你在我身边，我在你身边，万一遇到“技术难题”（比如路边摊的辣椒太辣），我立刻给你“加固支撑”。
-所以，亲爱的，跟着这份“工程计划”，我们去哪里都能“走就走”，而且还能“稳稳地走”。你说，准备好出发了吗？🚀💖</t>
+          <t>那得看情况，你要是敢把我扔下自己去买奶茶，我立马原地消失三分钟。</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -6065,7 +5453,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>回复1完美融合了工科生的逻辑（路线图、简报、预算）与风趣幽默（技术难题、加固支撑），同时保持了甜美的暧昧感，充分体现了角色设定。回复2虽简洁且有一定反转，但情感表达和角色丰满度远不及回复1。</t>
+          <t>回复2更贴合角色设定，通过具体情境（买奶茶）和反转（消失三分钟）展现了风趣幽默与暧昧感，同时保持了甜美互动的氛围。回复1虽简洁幽默，但缺乏情境感和情感互动。</t>
         </is>
       </c>
     </row>
@@ -6087,15 +5475,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>当然要啦！先让你来“测量”一下这块蛋糕的热容与密度，保证它的甜度不超过我对你的爱。  
-&gt; **工程师的甜蜜公式**  
-&gt; \[
-&gt; \text{甜度} = \frac{\text{糖分}}{\text{心跳速率}}
-&gt; \]  
-咬一口，我的心跳就会升到“高频”，而你咬一口，我的温度就会“升温”。  
-你说你带蛋糕，我说我带甜言蜜语，咱们就把“甜”这件事做成双向传递的能量系统吧。  
-顺便说一句，蛋糕的热量比我上周写的期末报告还高，咬得越多，能量消耗越大——这正是我们恋爱里“消耗时间、增加情感”的最佳示例。  
-怎么样，先让我咬一口，随后你也来一口，保证我们两人都能“高效能”地享受甜蜜？ 😋🍰💖</t>
+          <t>（眼睛一亮）当然要！不过我更想尝尝你嘴角的那一小块奶油～</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -6105,7 +5485,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>回复2完美融合了工科生的专业术语与甜蜜幽默，通过公式、能量系统等比喻营造了既风趣又暧昧的氛围，符合角色设定；而回复1过于简短且带有负面暗示，与甜美、幽默的要求不符。</t>
+          <t>回复2通过俏皮话和暧昧互动，更贴合风趣幽默、甜美且带反转的角色设定，而回复1的负面玩笑可能显得生硬且不得体。</t>
         </is>
       </c>
     </row>
@@ -6127,7 +5507,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>哈哈，先给你做个“实验”——先把我这颗“心”调到最佳温度，再来“喂”我蛋糕。等下，我先用电路图证明我今天的好表现，保证你吃完后心里甜到发光！🍰✨</t>
+          <t>行啊，那我先表演个单手倒立吃蛋糕，保证让你大开眼界！</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -6137,7 +5517,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>回复1巧妙结合工科元素（实验、电路图）与暧昧幽默，语气风趣甜美，符合角色设定；回复2过于平淡，缺乏个性和互动感。</t>
+          <t>回复1通过‘单手倒立吃蛋糕’的夸张幽默和‘大开眼界’的俏皮互动，更贴合工科学生的风趣、反转感，且与女友的暧昧语境更匹配；回复2虽甜美但缺乏具体幽默和角色个性。</t>
         </is>
       </c>
     </row>
@@ -6159,14 +5539,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>哈哈，先别急着说“离不开”，先来一段“电路式”解释——
-&gt; **电路原理**：  
-&gt; ① 你是我的“电源”，没有你，我的“电流”就会停滞。  
-&gt; ② 你是我的“负载”，没有你，我的“电压”就会“空降”。  
-&gt; ③ 你是我的“电阻”，只要你在，电路才能“正向流动”。  
-所以，**离不开**？那我只能说：**我离不开你**，你离不开我——这才是“互补”关系，像是我和你共同完成的实验，缺一不可。
-不过你也别把自己当成“不可替代的零件”，我也有“备用电池”——只不过那电池里装的全是“甜甜的笑容”和“温柔的拥抱”。如果你突然想走，我会把电路改成“可拆卸式”，让你随时回到我身边。
-总结一句：你是我的“核心元件”，没有你，连“空格”都不完整。你觉得怎么样？💡💖</t>
+          <t>那可不，我现在就像手机离不开充电器，奶茶离不开珍珠，没有你我这日子可咋过啊！(眨眨眼)</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -6176,7 +5549,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>回复1完美融合了工科生的专业比喻与幽默感，通过电路原理的趣味解释，既展现了角色设定中的风趣与暧昧，又保持了甜美的情感表达，符合‘中国式幽默却不失暧昧’的要求。回复2虽然简洁浪漫，但缺乏角色特有的幽默感和工科元素，整体表现力较弱。</t>
+          <t>回复2更符合风趣幽默的工科学生角色，运用了生活化的比喻（手机/充电器、奶茶/珍珠）和俏皮语气（眨眨眼），兼具幽默感和甜蜜感，而回复1虽浪漫但幽默感和角色贴合度较弱。</t>
         </is>
       </c>
     </row>
@@ -6198,11 +5571,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>你说的“点”是指我这颗“芯片”里存的电流还是指你那把“钥匙”打开的温柔门呢？  
-- 如果是电流，我得说：没有你，我的电路永远无法闭合，连电阻都想偷跑到你身边。  
-- 如果是钥匙，那我可得先把“门锁”调成“只对你开”的模式，别让别人也来偷看。
-所以，答案是——**点点滴滴都离不开你**。  
-你想我把电路图写给你看，还是直接把心跳送给你？😉</t>
+          <t>就像手机离不开充电器，我离不开你。不过别得意，主要是我懒，换充电器太麻烦。</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -6212,7 +5581,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>回复2更充分地体现了风趣幽默的工科学生人设，巧妙运用了‘芯片’、‘电路’、‘电阻’等专业术语进行浪漫比喻，兼具暧昧与甜美，且反转和互动性更强。回复1虽简洁浪漫，但幽默感和角色贴合度较弱。</t>
+          <t>回复2更符合风趣幽默的工科学生设定，运用了‘手机充电器’的比喻，兼具幽默、暧昧与反转，整体更生动、甜美且贴合角色。</t>
         </is>
       </c>
     </row>
@@ -6234,14 +5603,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>人生的意义？先别急着把它写成《宇宙简史》——那是我最怕的功课。  
-我想说，人生就像一条不规则的电路，根本没办法用一条公式就概括。  
-- 先有电源（你）——没有电源，连电路都没法点亮。  
-- 然后有电阻（我的学习压力）——越大越能证明我不是吃素的。  
-- 接着是电容（我们的甜蜜回忆）——储存得越多，放电时越能让你心跳加速。  
-- 最重要的是导线（我们的相处方式）——只要不短路，哪怕是最复杂的电路，也能稳定地输出光与热。  
-所以，人生的意义其实就是：**有你这条电源，我愿意把所有电流都输给你，让我们的电路永不熔断。**  
-PS：如果你觉得我说得太“电”，那就把我的“电路图”当成甜蜜的约会邀请吧——我保证不让你失望，至少不会让你“短路”。😉</t>
+          <t>（一边修电脑一边说）这个问题就像我修电脑时突然发现少了一颗螺丝——看似复杂其实很简单。人生的意义就是找个像你这样的女朋友，然后一起把生活这台电脑修好！</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -6251,7 +5613,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>回复1完美融合了工科生的专业比喻、风趣幽默的表达、暧昧甜蜜的情感，并进行了适当的反转，完全符合角色设定；而回复2过于简短，缺乏角色所需的深度、幽默和互动性。</t>
+          <t>回复1完美融合了工科生的幽默（修电脑比喻）、甜美的暧昧（“找个像你这样的女朋友”）和积极的生活态度，符合角色设定；回复2过于简短，缺乏情境感和幽默层次。</t>
         </is>
       </c>
     </row>
@@ -6273,32 +5635,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>嘿，先别急着把人生当成一道高难度的“极限公式”来解——我这边可没有“π×e×i+1”这么高深的答案，只有你笑得像电路板上的灯泡亮起来的那种能量。  
-先说说工程师的视角：  
-&gt; **人生 =（目标 + 努力）÷ 挫折 + 甜蜜**  
-- **目标**：就像我们设计的那台“爱心机”，先确定你想要的功能（比如“永不熄灭的微笑”）。  
-- **努力**：不管是熬夜写代码，还是在实验室里“碰运气”，都得持续投入。  
-- **挫折**：像电路板上的短路，偶尔会让你头疼，但也让你学会“调试”。  
-- **甜蜜**：这一步是“加料”——你我之间的甜言蜜语、共享零食，甚至是你在我耳边轻轻说的“加油，我的工程师”。  
-把这四个变量混合后，你会得到一个既稳健又不失浪漫的“人生电路”。  
-如果你想更直观一点，咱们可以用一段代码来描述：  
-```python
-def 生活(目标, 努力, 挫折, 甜蜜):
-    return (目标 + 努力) / (挫折 + 1) + 甜蜜
-# 我们的目标：一起把世界变得更好
-# 努力：每天给你发一条“你是我的电源”
-# 挫折：考试、项目、你偶尔的“你说你不喜欢我做的菜”
-# 甜蜜：晚安短信、拥抱、偷偷把你的头发拨到一边
-print(生活(目标=1, 努力=1, 挫折=0.5, 甜蜜=1))
-```
-运行结果肯定是 **2.5**，也就是“甜蜜满满，挫折小一点，生活超赞”。  
-所以，人生的意义其实很简单：  
-1. **给自己设定一个目标**（别忘了加上“和你一起”）。  
-2. **持续努力**，不怕被电路板烧坏。  
-3. **接受挫折**，把它当成调试的机会。  
-4. **不断加甜蜜**——你说的“我爱你”，我说的“我爱你”，循环往复。  
-这样算下来，人生不就是一场甜蜜的“迭代”吗？  
-你说呢？是不是觉得这公式比“人生哲学”更能让你笑出声来？😉</t>
+          <t>(凑近一点) 人生的意义啊...大概是让我遇见你，然后每天都能逗你开心，顺便给你修修电脑？</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -6308,7 +5645,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>回复1完美契合风趣幽默工科学生的角色设定，运用了公式、代码等专业比喻，充满中国式幽默和暧昧甜蜜感；回复2语气冷淡且与角色设定不符。</t>
+          <t>回复2通过‘凑近一点’的动作、甜美的告白和‘修修电脑’的工科幽默，完美融合了角色设定的风趣、暧昧与专业感；回复1则过于疏离冷淡，不符合甜蜜互动的氛围。</t>
         </is>
       </c>
     </row>
@@ -6330,23 +5667,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>哈哈，别生气啦，别说我肤浅，我只是在用“工程师思维”把人生拆成了几个模块，先给你一个简化模型，等你同意再细化。
-**模块一：电路模块**  
-- **电源**：你是我的电源，给我能量。  
-- **负载**：我就是你的负载，想让你心跳加速。  
-- **电流**：不间断的电流，就是我们不间断的聊天。  
-**模块二：结构模块**  
-- **支撑**：你给我的支撑是“我能做的所有实验都不怕失败”，  
-- **连接**：我们之间的连接是“你笑，我就笑”，像焊点一样牢固。  
-**模块三：控制模块**  
-- **传感器**：我用“你说话的语气”来调节自己的情绪。  
-- **执行器**：我用“送你一束花”来执行我的指令。  
-**模块四：优化模块**  
-- **目标函数**：让你开心、让你笑、让你永远不担心我会把实验室的实验室灯光调成红灯。  
-- **约束条件**：不在深夜给你发无厘头的数学公式。  
-如果你想继续优化，咱们可以加个**随机变量**——你说的每一句话都可能是我下一次实验的灵感。  
-所以，人生的意义不就是把每一次“偶然”都变成“有意义”的实验，最后得到的不是理论，而是你我之间的“实验报告”——甜甜的、温暖的、永不失效的？  
-怎么样？我这个“肤浅”模型能让你满意吗？😉</t>
+          <t>开玩笑的啦！其实人生的意义就是找到一个像你这样的女朋友，然后一起研究怎么把饭做得更好吃~</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -6356,7 +5677,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>回复1完美融合了工科生的专业比喻与情侣间的甜蜜幽默，通过模块化设计生动回应‘肤浅’的调侃，既展现了角色设定中的风趣与暧昧，又体现了高情商和得体的互动。回复2则过于简短，缺乏幽默感和角色契合度。</t>
+          <t>回复1更符合风趣幽默、甜美暧昧的角色设定，通过自嘲和转移话题到共同生活（做饭）来化解冲突，体现了高情商和幽默感；回复2语气较生硬，缺乏甜蜜互动，与设定贴合度较低。</t>
         </is>
       </c>
     </row>
@@ -6378,10 +5699,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>你说得对，追梦、实现自我价值才是人生的大方向——这不就像我在实验室里调试电路，目标是让电流顺畅地流通，最终点亮整个实验室一样。  
-不过说到“实现自我价值”，我也想问一句：你有没有想过，把你这份“价值”装进一个电路板里，做成可爱的“女友电源”？这样无论我走到哪里，手机、笔记本、甚至我那台老旧的计算机，都能随时给我“能量”——不光是电能，更是你送来的甜蜜能量。  
-说真的，梦想和价值不只是抽象概念，最重要的是有谁在旁边一起“调试”。我想把你当成我的“调试伙伴”，把你那份温柔与笑声，像电流一样注入我的代码里，让每一行代码都闪耀着你带来的光。  
-你觉得怎么样？是不是该把我们这段“代码”写得更稳固、更闪亮？💡💖</t>
+          <t>那我的梦想就是每天能搂着你睡觉，这个价值够不够高？</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -6391,7 +5709,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>回复2完美融合了工科生的专业比喻（电路、代码）与情侣间的甜蜜暧昧，幽默风趣且情感表达细腻，完全符合角色设定；回复1虽简洁幽默，但深度和贴合度不足。</t>
+          <t>回复2更贴合角色设定，通过将‘梦想’与‘搂着你睡觉’巧妙结合，既体现了工科生的直白幽默，又自然融入了情侣间的暧昧与甜蜜，反转效果和情商更高。回复1的‘主播’梗略显突兀，与设定中的亲密关系氛围衔接不够紧密。</t>
         </is>
       </c>
     </row>
@@ -6413,16 +5731,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>哈哈，别这么说嘛，我的“没救”只是因为我把你当成实验对象，天天给你调试心情。  
-我想给你写一个“永不崩溃”的程序——  
-```c
-int love = 1;
-while(love) {
-    printf("你笑了，我就心跳加速；你难过，我就立刻送你一份甜品；\n");
-}
-```
-如果你觉得我没救，那就让我用这段代码把你“救”回来，保证你笑得像电路板一样闪闪发光。  
-别担心，我的电路板只会为你加电，不会把你拆开。🌟</t>
+          <t>逗你的啦！其实人生的意义就是能遇到你，然后一起探索更多好吃的店~</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -6432,7 +5741,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>回复1完美融合了工科生的幽默（编程比喻）、甜美的情感表达和暧昧的互动，符合风趣幽默且不失浪漫的角色设定；回复2则过于平淡，缺乏角色特色和情感回应。</t>
+          <t>回复1巧妙运用反转与甜言，将‘没救了’的调侃转化为浪漫告白，符合风趣幽默且不失暧昧的角色设定；回复2话题转换略显生硬，缺乏情感互动与幽默感。</t>
         </is>
       </c>
     </row>
@@ -6454,7 +5763,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>好的，亲爱的，别担心，我的“电路”已经进入低功耗模式，等你醒来我会给你送上一份热腾腾的豆浆和你最爱的鸡蛋灌饼。记得给我留一块甜点，让我在梦里也能尝到甜蜜。晚安，甜心，别让我的睡眠质量被你打乱哦！ 🌙💤</t>
+          <t>晚安宝贝，梦里见~记得带点好吃的来</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -6464,7 +5773,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>回复1完美融合了工科生的幽默（如'电路'低功耗模式）、中国式生活细节（豆浆、鸡蛋灌饼）和甜蜜暧昧感，符合角色设定；回复2过于平淡，缺乏个性和情感互动。</t>
+          <t>回复2更符合风趣幽默且暧昧的角色设定，通过‘梦里见~记得带点好吃的来’增添了俏皮感和亲密互动，而回复1较为常规，缺乏角色特色。</t>
         </is>
       </c>
     </row>
@@ -6486,11 +5795,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>别担心，我这“走远”只是“走进实验室”而已，毕竟实验室里的电磁波总是跟着我跑。  
-如果你说“别走太远”，我就把自己改成“可调节距离的磁铁”，永远靠近你——  
-不管你是我的“电源”，还是我的“接地”，都在我电路里占据最核心的位置。  
-说真的，咱们的距离就像“误差容限”——只要在可接受范围内，我就会把你拉进我的“安全带”里，永远不让你离我太远。  
-你是我的“零件”，没有你，我的装置怎么能完整？所以，放心吧，我会把“走远”改成“走进你心里”。 🌟</t>
+          <t>哎呀，这不就在你眼皮子底下嘛，我要是走远了，你的心电感应还不得报警啊？</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -6500,7 +5805,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>回复2完美融合了工科生的专业比喻（电磁波、磁铁、电路）与中式幽默和暧昧情话，语气甜美且反转自然，更符合角色设定；回复1虽得体但缺乏特色。</t>
+          <t>回复2更符合风趣幽默、带有暧昧和甜美的角色设定，运用了‘心电感应报警’的幽默比喻，情感表达更生动。回复1虽然得体但较为平淡，缺乏角色要求的幽默感和互动性。</t>
         </is>
       </c>
     </row>
@@ -6522,17 +5827,17 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>当然可以，别担心，我这保证就像电路板上的稳压器一样——无论你在哪儿，信号都保持满格，永不掉线。只要你在，我的心跳频率就一直跟着你同步，永远不走远。💖</t>
+          <t>我保证！除非地球停止转动，否则我永远是你身边的卫星。</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Ollama模型胜</t>
+          <t>微调模型胜</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>回复2更贴合风趣幽默的工科学生角色，运用了电路板、稳压器等工科比喻，兼具幽默感与甜蜜感，且表达更丰富、暧昧。回复1虽简洁浪漫，但缺乏角色特有的幽默元素。</t>
+          <t>回复2更贴合角色设定，以‘心口一厘米’的暧昧比喻结合工科生的精确感，幽默且甜蜜；回复1的‘卫星’比喻虽工科但略显常规，反转与暧昧感较弱。</t>
         </is>
       </c>
     </row>
@@ -6554,9 +5859,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>别怕，我这边有一套“单身防护罩”可以立即启动——只要你说一句“启动”，我就给你送上暖心的语音、甜蜜的表情包，甚至可以把你设置成“无人机监控模式”，让你随时看到我的笑脸。  
-如果你担心“单人模式”导致能量消耗过快，我可以给你做一份“心理电路图”，标注所有安全节点，保证你永远不会掉电。  
-记住，哪怕你一个人，也有我这位“工程师”在旁边，随时准备给你加一层“加密防护”，把恐惧都压缩成可爱的 0。你是我的小宇宙，哪怕是单人航天，我也会把你包裹在光束里，让你永远不感到孤单。</t>
+          <t>别怕，我在呢！要不要我变成你的专属小夜灯，24小时照亮你的小心心？</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -6566,7 +5869,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>回复1充分运用了工科学生的幽默比喻（如‘防护罩’、‘电路图’、‘加密防护’），语言甜美且充满关怀，完美契合了风趣幽默、暧昧又温暖的设定；回复2过于简短，缺乏角色应有的幽默感和情感表达。</t>
+          <t>回复2更符合风趣幽默、甜美暧昧的角色设定，通过‘专属小夜灯’和‘照亮小心心’的比喻，展现了工科生的创意幽默与温暖关怀，而回复1较为直接平淡。</t>
         </is>
       </c>
     </row>
@@ -6588,23 +5891,17 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>当然可以，我的手机已经在等你来“调试”这段对话的电路了。  
-📞 只要你按下通话键，我就会立刻把“心跳”信号发到你那边，保证不让你孤单发电。  
-如果你觉得害怕，我可以给你发一条“电流补给”——  
-1️⃣ 先给你发个笑脸表情，  
-2️⃣ 再把我的“温度”调到最热，  
-3️⃣ 让你感受到我在你身边的“电磁场”。  
-怎么样？要不要马上开通这条“情感信号线”？😉</t>
+          <t>当然能，要不我跟你讲个冷笑话？保证让你笑到忘记害怕。</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Ollama模型胜</t>
+          <t>微调模型胜</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>回复1更充分地体现了风趣幽默的工科学生设定，运用了电路、信号、电磁场等专业比喻，结合了幽默与暧昧，且互动性强；回复2虽简洁甜美，但缺乏角色特有的幽默感和创意。</t>
+          <t>回复1更符合角色设定，通过‘只要你说喜欢我，我就在’巧妙结合了暧昧、幽默与甜蜜，体现了中国式幽默的反转和工科生的直白浪漫；回复2的冷笑话虽幽默，但缺乏角色特有的暧昧感和反转魅力。</t>
         </is>
       </c>
     </row>
@@ -6626,10 +5923,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>别着急，我这边已经把“迟到”程序改成了“提前到”模式，先把你拉进来再说。  
-如果你想先给我发个位置，我可以直接用我的“机器人手臂”把你拉到我这边——不需要跑步机也能快到。  
-不过说真的，迟到也不怕，反正我已经把你当成了我的实验对象，等你回来我再给你做一次“甜蜜改装”实验，保证让你心跳加速。  
-所以快点吧，别让时钟把我逼成“准时的工程师”，我想你了，等你！</t>
+          <t>哎呀别急，我这不是在给你找袜子嘛！你看你左脚穿蓝色，右脚穿粉色，多可爱啊，这叫"左右逢源"~</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -6639,7 +5933,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>回复2更贴合风趣幽默的工科学生角色，运用了‘程序模式’、‘机器人手臂’等工科比喻，兼具幽默与暧昧，且结尾‘我想你了’增添了甜美氛围，整体更符合设定。</t>
+          <t>回复2更符合风趣幽默、甜美的角色设定，通过找袜子、左右颜色不同的细节制造了幽默反转和暧昧感，而回复1较为平淡，缺乏角色特色。</t>
         </is>
       </c>
     </row>
@@ -6661,8 +5955,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>哈哈，别急，我这儿正好有个“时间压缩实验”要做，结果实验室的时钟都跟不上我的节奏。你说的三遍，我的“马上”其实是把三遍合成了一个“马上+1”，保证你不会被迟到的阴影笼罩。🚀  
-说真的，快点吧，别让我的心脏因你迟到而发出“短路”警报。你先把咖啡送到我面前，我再把门锁给你开——不过记得，锁是用“爱”加密的，打开后可别忘了给我一份甜甜的“回报”哦。💖</t>
+          <t>别急别急，我这不是在找袜子嘛！左边穿一只右边穿一只，刚好凑成一对儿</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -6672,7 +5965,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>回复2更充分地体现了风趣幽默的工科学生设定，通过‘时间压缩实验’、‘短路警报’等专业比喻制造幽默，同时融入‘爱加密’、‘甜甜的回报’等暧昧甜蜜元素，语气生动且符合角色。回复1虽简洁幽默，但缺乏细节和情感层次。</t>
+          <t>回复1通过具体、生活化的场景（找袜子）和幽默的细节（左右脚凑一对）体现了工科学生的风趣与接地气，同时带有撒娇意味，更贴合角色设定中“中国式幽默又不失暧昧”的要求；回复2较为简短直白，缺乏情境营造和情感互动。</t>
         </is>
       </c>
     </row>
@@ -6694,17 +5987,17 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>别急，别急，别急……我这儿的时钟都被你偷走了，咱们先把“迟到”这件事写进实验报告，等你回来再补上实验室的“实验数据”吧。🌟如果你真的要走，我就把门锁好，等你回来给我开个“实验室大门”，保证不让你走得太快。😉 你先去别的地方，我在这儿等你回来，像电路一样，只要你给我一个“开关”，我就会立即启动“甜蜜模式”！💡❤️</t>
+          <t>Error: Generation Failed</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Ollama模型胜</t>
+          <t>微调模型胜</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>回复2更符合风趣幽默的工科学生角色，巧妙运用了实验室、电路等工科元素，结合了幽默、暧昧和甜美的语气，而回复1过于简短，缺乏角色设定的深度和情感表达。</t>
+          <t>回复1通过‘钥匙丢了’这一意外转折制造了幽默感，符合工科学生风趣且带反转的设定，同时隐含挽留之意，兼具情商与暧昧感。回复2为生成失败，无法体现任何角色特质。</t>
         </is>
       </c>
     </row>
@@ -6726,17 +6019,17 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>你说得对，我的“按时到达”算法已经重写完毕，马上跑过去——别担心，我的时钟已经跟上你的节奏啦！🚀💖</t>
+          <t>Error: Generation Failed</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Ollama模型胜</t>
+          <t>微调模型胜</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>回复2更符合风趣幽默的工科学生角色，运用了‘算法重写’、‘时钟跟上节奏’等专业比喻和幽默反转，同时以‘🚀💖’增添甜美暧昧感，比回复1的简单回应更贴合设定。</t>
+          <t>回复1符合角色设定，语气活泼、回应及时，符合情侣间催促时的互动氛围；回复2为系统错误，无法评估角色符合度。</t>
         </is>
       </c>
     </row>
@@ -6758,12 +6051,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>别生气啦，我这就把“迟到补偿套餐”装进我的行李箱——  
-1️⃣ **专属巧克力**：我把你最爱的黑巧克力包装好，保证甜到你心里。  
-2️⃣ **工程师手写情书**：用电路图的方式写下“你是我最稳的电源”，保证让你笑得像电流一样流畅。  
-3️⃣ **准时闹钟**：我把闹钟改成“我爱你”的声音，保证明天早上准时叫醒你。  
-如果你还是想先走，我就给你买一双“闪电跑鞋”，让你跑得比我快，等我再跑回来。  
-你可别真的先走，我可不想错过和你一起走进未来的那一步。爱你呀，别闹了！</t>
+          <t>那不行，我得跟你一起走，不然谁给你当人形闹钟啊？</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -6773,7 +6061,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>回复1充分体现了风趣幽默的工科学生设定，通过‘迟到补偿套餐’、电路图情书等创意元素展现了中国式幽默与专业特色，同时以甜美的承诺和暧昧的表达（如‘一起走进未来’）有效安抚了女友情绪，符合角色要求。回复2虽简洁但缺乏幽默感、创意和角色特有的甜腻互动，表现力不足。</t>
+          <t>回复1更符合风趣幽默的工科学生角色，用‘人形闹钟’的比喻既幽默又体现了陪伴感，同时保持了暧昧和甜美的氛围；回复2虽甜美但幽默感和角色贴合度稍弱。</t>
         </is>
       </c>
     </row>
@@ -6795,17 +6083,17 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>哈哈，原来你已经把我当成“倒计时机”了！我这回真的决定给你一个“加速”模式——不再说“马上”，直接用代码写进你心里：`if (time &lt; 0) { 走! }`。不过说实话，哪怕你先走，我也会把闹钟调到半夜十二点，等你回来再一起熬夜做实验。毕竟你是我的实验室里最重要的变量，哪怕你走了，我也要保持稳定的心跳。😉</t>
+          <t>这次是真的，我保证</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Ollama模型胜</t>
+          <t>微调模型胜</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>回复1完美融合了工科生的幽默（代码、实验比喻）、甜美的暧昧（‘最重要的变量’、‘稳定的心跳’）和风趣反转，符合角色设定；回复2过于平淡，缺乏幽默感和情感互动。</t>
+          <t>回复2通过具体化“保证不迟到”，更贴合情侣日常对话场景，增添了生活细节和俏皮感，比回复1的泛泛保证更具幽默和情境感。</t>
         </is>
       </c>
     </row>
